--- a/Economics/Dissertation/Dissertation Variables.xlsx
+++ b/Economics/Dissertation/Dissertation Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University Documents\Notes\PPE\Shared Notes\Economics\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80409FB2-E440-4FEE-B893-BE2546D4D183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A999CD36-A3C8-4076-BB11-2BF50AEA7EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C890B4EF-DBD0-4510-8DCC-74D1D3A33C16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{C890B4EF-DBD0-4510-8DCC-74D1D3A33C16}"/>
   </bookViews>
   <sheets>
     <sheet name="25-49 Unemployment Quarterly" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="Productivity" sheetId="8" r:id="rId6"/>
     <sheet name="Combined 1997" sheetId="6" r:id="rId7"/>
     <sheet name="Combined 1985" sheetId="9" r:id="rId8"/>
-    <sheet name="Extracted 1985" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId9"/>
+    <sheet name="Extracted 1985" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'25-49 Unemployment Yearly'!$A$1:$Z$339</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="441">
   <si>
     <t>Aged 25-34</t>
   </si>
@@ -1326,17 +1327,63 @@
   <si>
     <t>Average Total Labour Compensation, 2022=100</t>
   </si>
+  <si>
+    <t>CPI 2015=100</t>
+  </si>
+  <si>
+    <t>Male Median Earnings</t>
+  </si>
+  <si>
+    <t>Real Male Median Earnings</t>
+  </si>
+  <si>
+    <t>Ln Real Male Median Earnings</t>
+  </si>
+  <si>
+    <t>Median Earnings</t>
+  </si>
+  <si>
+    <t>Real Median Earnings</t>
+  </si>
+  <si>
+    <t>Ln Real Median Earnings</t>
+  </si>
+  <si>
+    <t>D Ln Real Median Earnings</t>
+  </si>
+  <si>
+    <t>D Ln Real Male Median Earnings</t>
+  </si>
+  <si>
+    <t>Female Median Earnings</t>
+  </si>
+  <si>
+    <t>Real Female Median Earnings</t>
+  </si>
+  <si>
+    <t>Ln Real Female Median Earnings</t>
+  </si>
+  <si>
+    <t>D Ln Real Female Median Earnings</t>
+  </si>
+  <si>
+    <t>Average Labour Compensation per Hour 2022=100</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,###,"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1552,7 +1599,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1604,14 +1651,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1622,15 +1663,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -4975,86 +5027,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="35" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="35" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="37"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="41"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="38" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39" t="s">
+      <c r="U2" s="37"/>
+      <c r="V2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="40"/>
+      <c r="Y2" s="38"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -33854,6 +33906,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
@@ -33864,16 +33921,1579 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:Y339" formula="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAD4CA7-202F-4443-B29A-DF3FE42F7F67}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1984</v>
+      </c>
+      <c r="G2">
+        <v>41966085047.68438</v>
+      </c>
+      <c r="H2">
+        <v>24.604828037632362</v>
+      </c>
+      <c r="J2">
+        <v>22.564994561639935</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.11800000000000001</v>
+      </c>
+      <c r="M2">
+        <v>19.068625000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1985</v>
+      </c>
+      <c r="G3">
+        <v>42562502277.044235</v>
+      </c>
+      <c r="H3">
+        <v>25.23749608197506</v>
+      </c>
+      <c r="J3">
+        <v>23.138236495425033</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="M3">
+        <v>20.227824999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1986</v>
+      </c>
+      <c r="G4">
+        <v>42725161521.4151</v>
+      </c>
+      <c r="H4">
+        <v>25.937610207804227</v>
+      </c>
+      <c r="J4">
+        <v>23.649048787655264</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="M4">
+        <v>21.818674999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1987</v>
+      </c>
+      <c r="B5">
+        <v>97.539370078740149</v>
+      </c>
+      <c r="C5">
+        <v>126.5748031496063</v>
+      </c>
+      <c r="D5">
+        <v>172.34251968503935</v>
+      </c>
+      <c r="E5">
+        <v>233.16929133858267</v>
+      </c>
+      <c r="F5">
+        <v>311.61417322834649</v>
+      </c>
+      <c r="G5">
+        <v>43701116987.64032</v>
+      </c>
+      <c r="H5">
+        <v>26.686235736010783</v>
+      </c>
+      <c r="I5">
+        <v>23.029191879359463</v>
+      </c>
+      <c r="J5">
+        <v>24.327221678659999</v>
+      </c>
+      <c r="K5">
+        <v>20.670177822008679</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="M5">
+        <v>22.892899999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1988</v>
+      </c>
+      <c r="B6">
+        <v>101.90294957183634</v>
+      </c>
+      <c r="C6">
+        <v>132.82588011417698</v>
+      </c>
+      <c r="D6">
+        <v>181.63653663177928</v>
+      </c>
+      <c r="E6">
+        <v>248.33491912464322</v>
+      </c>
+      <c r="F6">
+        <v>331.30352045670793</v>
+      </c>
+      <c r="G6">
+        <v>45327709431.349014</v>
+      </c>
+      <c r="H6">
+        <v>27.122199280851788</v>
+      </c>
+      <c r="I6">
+        <v>23.505372400940615</v>
+      </c>
+      <c r="J6">
+        <v>24.720857000417389</v>
+      </c>
+      <c r="K6">
+        <v>21.10403012050622</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M6">
+        <v>24.538825000000003</v>
+      </c>
+      <c r="N6">
+        <v>3.4448818897637797E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1989</v>
+      </c>
+      <c r="B7">
+        <v>106.25566636446057</v>
+      </c>
+      <c r="C7">
+        <v>137.53399818676337</v>
+      </c>
+      <c r="D7">
+        <v>189.75521305530373</v>
+      </c>
+      <c r="E7">
+        <v>260.56210335448776</v>
+      </c>
+      <c r="F7">
+        <v>347.23481414324567</v>
+      </c>
+      <c r="G7">
+        <v>46574763638.192352</v>
+      </c>
+      <c r="H7">
+        <v>27.042321972527429</v>
+      </c>
+      <c r="I7">
+        <v>23.380265251113485</v>
+      </c>
+      <c r="J7">
+        <v>24.726021488878416</v>
+      </c>
+      <c r="K7">
+        <v>21.063964767464466</v>
+      </c>
+      <c r="L7" s="1">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="M7">
+        <v>26.558399999999999</v>
+      </c>
+      <c r="N7">
+        <v>4.9476688867745033E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1990</v>
+      </c>
+      <c r="B8">
+        <v>108.66610025488531</v>
+      </c>
+      <c r="C8">
+        <v>141.03653355989803</v>
+      </c>
+      <c r="D8">
+        <v>194.90229396771451</v>
+      </c>
+      <c r="E8">
+        <v>267.20475785896343</v>
+      </c>
+      <c r="F8">
+        <v>358.28377230246389</v>
+      </c>
+      <c r="G8">
+        <v>46466324141.945107</v>
+      </c>
+      <c r="H8">
+        <v>27.238107174452104</v>
+      </c>
+      <c r="I8">
+        <v>23.507022038663326</v>
+      </c>
+      <c r="J8">
+        <v>24.969797770892992</v>
+      </c>
+      <c r="K8">
+        <v>21.238712635104211</v>
+      </c>
+      <c r="L8" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M8">
+        <v>29.5106</v>
+      </c>
+      <c r="N8">
+        <v>6.7089755213055352E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1991</v>
+      </c>
+      <c r="B9">
+        <v>110.73985680190928</v>
+      </c>
+      <c r="C9">
+        <v>143.03898170246617</v>
+      </c>
+      <c r="D9">
+        <v>196.42004773269687</v>
+      </c>
+      <c r="E9">
+        <v>271.99681782020679</v>
+      </c>
+      <c r="F9">
+        <v>363.24582338902144</v>
+      </c>
+      <c r="G9">
+        <v>44568632957.618294</v>
+      </c>
+      <c r="H9">
+        <v>28.032096330561199</v>
+      </c>
+      <c r="I9">
+        <v>24.142619336029767</v>
+      </c>
+      <c r="J9">
+        <v>25.559147938620445</v>
+      </c>
+      <c r="K9">
+        <v>21.669670944089013</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="M9">
+        <v>32.763600000000004</v>
+      </c>
+      <c r="N9">
+        <v>6.7969413763806288E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1992</v>
+      </c>
+      <c r="B10">
+        <v>113.65030674846625</v>
+      </c>
+      <c r="C10">
+        <v>146.9325153374233</v>
+      </c>
+      <c r="D10">
+        <v>202.91411042944787</v>
+      </c>
+      <c r="E10">
+        <v>280.90490797546011</v>
+      </c>
+      <c r="F10">
+        <v>375.38343558282207</v>
+      </c>
+      <c r="G10">
+        <v>43375798498.898582</v>
+      </c>
+      <c r="H10">
+        <v>28.852415832166049</v>
+      </c>
+      <c r="I10">
+        <v>24.874793742950651</v>
+      </c>
+      <c r="J10">
+        <v>26.307004556840567</v>
+      </c>
+      <c r="K10">
+        <v>22.329382467625166</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="M10">
+        <v>34.944974999999999</v>
+      </c>
+      <c r="N10">
+        <v>3.7390612569610203E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1993</v>
+      </c>
+      <c r="B11">
+        <v>114.44610778443115</v>
+      </c>
+      <c r="C11">
+        <v>148.72754491017966</v>
+      </c>
+      <c r="D11">
+        <v>204.56586826347308</v>
+      </c>
+      <c r="E11">
+        <v>285.02994011976051</v>
+      </c>
+      <c r="F11">
+        <v>381.36227544910184</v>
+      </c>
+      <c r="G11">
+        <v>42833601017.662354</v>
+      </c>
+      <c r="H11">
+        <v>29.855741130127313</v>
+      </c>
+      <c r="I11">
+        <v>25.74670104927749</v>
+      </c>
+      <c r="J11">
+        <v>27.260439537086576</v>
+      </c>
+      <c r="K11">
+        <v>23.151399456236749</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="M11">
+        <v>36.514675000000004</v>
+      </c>
+      <c r="N11">
+        <v>2.4539877300613407E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1994</v>
+      </c>
+      <c r="B12">
+        <v>116.39705882352941</v>
+      </c>
+      <c r="C12">
+        <v>150.14705882352939</v>
+      </c>
+      <c r="D12">
+        <v>207.27941176470586</v>
+      </c>
+      <c r="E12">
+        <v>286.61764705882354</v>
+      </c>
+      <c r="F12">
+        <v>385.66176470588232</v>
+      </c>
+      <c r="G12">
+        <v>43755336735.763947</v>
+      </c>
+      <c r="H12">
+        <v>30.228668724608166</v>
+      </c>
+      <c r="I12">
+        <v>26.052398851057418</v>
+      </c>
+      <c r="J12">
+        <v>27.520259881549194</v>
+      </c>
+      <c r="K12">
+        <v>23.343990007998439</v>
+      </c>
+      <c r="L12" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M12">
+        <v>37.227275000000006</v>
+      </c>
+      <c r="N12">
+        <v>1.796407185628747E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1995</v>
+      </c>
+      <c r="B13">
+        <v>114.20413990007138</v>
+      </c>
+      <c r="C13">
+        <v>149.67880085653104</v>
+      </c>
+      <c r="D13">
+        <v>207.20913633119201</v>
+      </c>
+      <c r="E13">
+        <v>287.79443254817988</v>
+      </c>
+      <c r="F13">
+        <v>387.22341184867952</v>
+      </c>
+      <c r="G13">
+        <v>44351753965.123802</v>
+      </c>
+      <c r="H13">
+        <v>30.535085033193749</v>
+      </c>
+      <c r="I13">
+        <v>26.346285548969639</v>
+      </c>
+      <c r="J13">
+        <v>27.691400054390922</v>
+      </c>
+      <c r="K13">
+        <v>23.502600570166813</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M13">
+        <v>38.461874999999999</v>
+      </c>
+      <c r="N13">
+        <v>3.0147058823529371E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1996</v>
+      </c>
+      <c r="B14">
+        <v>115.66181566181567</v>
+      </c>
+      <c r="C14">
+        <v>151.00485100485099</v>
+      </c>
+      <c r="D14">
+        <v>208.66250866250866</v>
+      </c>
+      <c r="E14">
+        <v>291.47609147609148</v>
+      </c>
+      <c r="F14">
+        <v>396.2577962577962</v>
+      </c>
+      <c r="G14">
+        <v>44731292201.989166</v>
+      </c>
+      <c r="H14">
+        <v>31.058845423082921</v>
+      </c>
+      <c r="I14">
+        <v>26.928430907185298</v>
+      </c>
+      <c r="J14">
+        <v>28.215198532096313</v>
+      </c>
+      <c r="K14">
+        <v>24.084784016198689</v>
+      </c>
+      <c r="L14" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="M14">
+        <v>40.017300000000006</v>
+      </c>
+      <c r="N14">
+        <v>2.9978586723768859E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1997</v>
+      </c>
+      <c r="B15">
+        <v>118.16949152542372</v>
+      </c>
+      <c r="C15">
+        <v>155.86440677966101</v>
+      </c>
+      <c r="D15">
+        <v>217.96610169491524</v>
+      </c>
+      <c r="E15">
+        <v>303.59322033898303</v>
+      </c>
+      <c r="F15">
+        <v>408.81355932203388</v>
+      </c>
+      <c r="G15">
+        <v>45490368675.719894</v>
+      </c>
+      <c r="H15">
+        <v>32.046471656222145</v>
+      </c>
+      <c r="I15">
+        <v>27.921728527308783</v>
+      </c>
+      <c r="J15">
+        <v>28.970577758811409</v>
+      </c>
+      <c r="K15">
+        <v>24.845834629898043</v>
+      </c>
+      <c r="L15" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M15">
+        <v>42.1203</v>
+      </c>
+      <c r="N15">
+        <v>2.2176022176022096E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1998</v>
+      </c>
+      <c r="B16">
+        <v>121.08072048032021</v>
+      </c>
+      <c r="C16">
+        <v>159.43962641761172</v>
+      </c>
+      <c r="D16">
+        <v>224.01601067378252</v>
+      </c>
+      <c r="E16">
+        <v>312.80853902601729</v>
+      </c>
+      <c r="F16">
+        <v>425.81721147431614</v>
+      </c>
+      <c r="G16">
+        <v>45869906912.585251</v>
+      </c>
+      <c r="H16">
+        <v>32.882335483002329</v>
+      </c>
+      <c r="I16">
+        <v>28.697078648808592</v>
+      </c>
+      <c r="J16">
+        <v>29.631647365987764</v>
+      </c>
+      <c r="K16">
+        <v>25.446390531794023</v>
+      </c>
+      <c r="L16" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M16">
+        <v>43.936875000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.6271186440678004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1999</v>
+      </c>
+      <c r="B17">
+        <v>125.66137566137567</v>
+      </c>
+      <c r="C17">
+        <v>164.74867724867727</v>
+      </c>
+      <c r="D17">
+        <v>229.03439153439157</v>
+      </c>
+      <c r="E17">
+        <v>320.96560846560851</v>
+      </c>
+      <c r="F17">
+        <v>438.88888888888897</v>
+      </c>
+      <c r="G17">
+        <v>46249445149.450615</v>
+      </c>
+      <c r="H17">
+        <v>33.616965908246151</v>
+      </c>
+      <c r="I17">
+        <v>29.27763806187783</v>
+      </c>
+      <c r="J17">
+        <v>30.167035286730883</v>
+      </c>
+      <c r="K17">
+        <v>25.827707440362563</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="M17">
+        <v>47.127775</v>
+      </c>
+      <c r="N17">
+        <v>8.672448298865796E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>129.74934036939314</v>
+      </c>
+      <c r="C18">
+        <v>169.72295514511873</v>
+      </c>
+      <c r="D18">
+        <v>237.46701846965698</v>
+      </c>
+      <c r="E18">
+        <v>332.05804749340365</v>
+      </c>
+      <c r="F18">
+        <v>454.74934036939311</v>
+      </c>
+      <c r="G18">
+        <v>46357884645.697861</v>
+      </c>
+      <c r="H18">
+        <v>34.970037535504822</v>
+      </c>
+      <c r="I18">
+        <v>30.424782800339941</v>
+      </c>
+      <c r="J18">
+        <v>31.372585847560615</v>
+      </c>
+      <c r="K18">
+        <v>26.827331112395736</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="M18">
+        <v>50.432699999999997</v>
+      </c>
+      <c r="N18">
+        <v>2.6455026455026831E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2001</v>
+      </c>
+      <c r="B19">
+        <v>135.37146614069692</v>
+      </c>
+      <c r="C19">
+        <v>176.66009204470743</v>
+      </c>
+      <c r="D19">
+        <v>248.12623274161734</v>
+      </c>
+      <c r="E19">
+        <v>348.1262327416174</v>
+      </c>
+      <c r="F19">
+        <v>484.54963839579227</v>
+      </c>
+      <c r="G19">
+        <v>46845862378.810471</v>
+      </c>
+      <c r="H19">
+        <v>35.509561950172738</v>
+      </c>
+      <c r="I19">
+        <v>30.779631973122026</v>
+      </c>
+      <c r="J19">
+        <v>31.94607353355082</v>
+      </c>
+      <c r="K19">
+        <v>27.216143556500104</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M19">
+        <v>53.137599999999999</v>
+      </c>
+      <c r="N19">
+        <v>3.2981530343007917E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2002</v>
+      </c>
+      <c r="B20">
+        <v>142.00792602377808</v>
+      </c>
+      <c r="C20">
+        <v>185.07265521796563</v>
+      </c>
+      <c r="D20">
+        <v>259.04887714663141</v>
+      </c>
+      <c r="E20">
+        <v>365.78599735799202</v>
+      </c>
+      <c r="F20">
+        <v>508.58652575957728</v>
+      </c>
+      <c r="G20">
+        <v>46737422882.563225</v>
+      </c>
+      <c r="H20">
+        <v>36.210489128471231</v>
+      </c>
+      <c r="I20">
+        <v>31.314847799127129</v>
+      </c>
+      <c r="J20">
+        <v>32.585243048544093</v>
+      </c>
+      <c r="K20">
+        <v>27.689601719199992</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="M20">
+        <v>54.599575000000002</v>
+      </c>
+      <c r="N20">
+        <v>-4.6022353714660659E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2003</v>
+      </c>
+      <c r="B21">
+        <v>147.167325428195</v>
+      </c>
+      <c r="C21">
+        <v>190.57971014492753</v>
+      </c>
+      <c r="D21">
+        <v>266.93017127799737</v>
+      </c>
+      <c r="E21">
+        <v>378.72200263504607</v>
+      </c>
+      <c r="F21">
+        <v>526.0210803689065</v>
+      </c>
+      <c r="G21">
+        <v>46954301875.057709</v>
+      </c>
+      <c r="H21">
+        <v>37.221000873606606</v>
+      </c>
+      <c r="I21">
+        <v>32.192530128548952</v>
+      </c>
+      <c r="J21">
+        <v>33.510478236860749</v>
+      </c>
+      <c r="K21">
+        <v>28.482007491803095</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M21">
+        <v>57.031199999999998</v>
+      </c>
+      <c r="N21">
+        <v>2.6420079260238154E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2004</v>
+      </c>
+      <c r="B22">
+        <v>151.51315789473685</v>
+      </c>
+      <c r="C22">
+        <v>196.90789473684211</v>
+      </c>
+      <c r="D22">
+        <v>276.51315789473682</v>
+      </c>
+      <c r="E22">
+        <v>389.80263157894734</v>
+      </c>
+      <c r="F22">
+        <v>538.28947368421052</v>
+      </c>
+      <c r="G22">
+        <v>47388059860.046707</v>
+      </c>
+      <c r="H22">
+        <v>37.768288154241347</v>
+      </c>
+      <c r="I22">
+        <v>32.722082295980101</v>
+      </c>
+      <c r="J22">
+        <v>33.964037690160389</v>
+      </c>
+      <c r="K22">
+        <v>28.917831831899143</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M22">
+        <v>60.229349999999997</v>
+      </c>
+      <c r="N22">
+        <v>1.3175230566534165E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2005</v>
+      </c>
+      <c r="B23">
+        <v>154.84927916120577</v>
+      </c>
+      <c r="C23">
+        <v>200.85190039318479</v>
+      </c>
+      <c r="D23">
+        <v>282.89646133682828</v>
+      </c>
+      <c r="E23">
+        <v>401.90039318479683</v>
+      </c>
+      <c r="F23">
+        <v>559.50196592398424</v>
+      </c>
+      <c r="G23">
+        <v>48038696837.530174</v>
+      </c>
+      <c r="H23">
+        <v>38.261669380629066</v>
+      </c>
+      <c r="I23">
+        <v>33.150918802505885</v>
+      </c>
+      <c r="J23">
+        <v>34.463729248543409</v>
+      </c>
+      <c r="K23">
+        <v>29.352978670420228</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M23">
+        <v>62.92</v>
+      </c>
+      <c r="N23">
+        <v>3.9473684210525944E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2006</v>
+      </c>
+      <c r="B24">
+        <v>158.29015544041451</v>
+      </c>
+      <c r="C24">
+        <v>204.79274611398964</v>
+      </c>
+      <c r="D24">
+        <v>288.08290155440415</v>
+      </c>
+      <c r="E24">
+        <v>409.45595854922283</v>
+      </c>
+      <c r="F24">
+        <v>573.38082901554401</v>
+      </c>
+      <c r="G24">
+        <v>48309795578.148293</v>
+      </c>
+      <c r="H24">
+        <v>38.965214238627631</v>
+      </c>
+      <c r="I24">
+        <v>33.711054855603614</v>
+      </c>
+      <c r="J24">
+        <v>35.097619504238907</v>
+      </c>
+      <c r="K24">
+        <v>29.843460121214878</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="M24">
+        <v>66.220574999999997</v>
+      </c>
+      <c r="N24">
+        <v>1.1795543905635723E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2007</v>
+      </c>
+      <c r="B25">
+        <v>161.41131595677049</v>
+      </c>
+      <c r="C25">
+        <v>208.01017164653524</v>
+      </c>
+      <c r="D25">
+        <v>291.9898283534647</v>
+      </c>
+      <c r="E25">
+        <v>414.49459631277807</v>
+      </c>
+      <c r="F25">
+        <v>579.65670692943411</v>
+      </c>
+      <c r="G25">
+        <v>48797773311.260902</v>
+      </c>
+      <c r="H25">
+        <v>39.567302337429325</v>
+      </c>
+      <c r="I25">
+        <v>34.186395952108541</v>
+      </c>
+      <c r="J25">
+        <v>35.610180180065662</v>
+      </c>
+      <c r="K25">
+        <v>30.229273794744874</v>
+      </c>
+      <c r="L25" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M25">
+        <v>69.643799999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.8782383419689155E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2008</v>
+      </c>
+      <c r="B26">
+        <v>161.43470263641939</v>
+      </c>
+      <c r="C26">
+        <v>208.64500306560393</v>
+      </c>
+      <c r="D26">
+        <v>293.74616799509505</v>
+      </c>
+      <c r="E26">
+        <v>417.16738197424894</v>
+      </c>
+      <c r="F26">
+        <v>586.08215818516248</v>
+      </c>
+      <c r="G26">
+        <v>49014652303.755402</v>
+      </c>
+      <c r="H26">
+        <v>39.314059019590729</v>
+      </c>
+      <c r="I26">
+        <v>33.757124338226632</v>
+      </c>
+      <c r="J26">
+        <v>35.574659468880071</v>
+      </c>
+      <c r="K26">
+        <v>30.01772478751597</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M26">
+        <v>70.393675000000002</v>
+      </c>
+      <c r="N26">
+        <v>3.6872218690400395E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2009</v>
+      </c>
+      <c r="B27">
+        <v>163.88888888888889</v>
+      </c>
+      <c r="C27">
+        <v>210.1449275362319</v>
+      </c>
+      <c r="D27">
+        <v>295.83333333333331</v>
+      </c>
+      <c r="E27">
+        <v>419.74637681159425</v>
+      </c>
+      <c r="F27">
+        <v>590.21739130434787</v>
+      </c>
+      <c r="G27">
+        <v>47604938852.541191</v>
+      </c>
+      <c r="H27">
+        <v>38.593690924609419</v>
+      </c>
+      <c r="I27">
+        <v>32.731783316103737</v>
+      </c>
+      <c r="J27">
+        <v>35.139400569397417</v>
+      </c>
+      <c r="K27">
+        <v>29.277492960891731</v>
+      </c>
+      <c r="L27" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="M27">
+        <v>72.061750000000004</v>
+      </c>
+      <c r="N27">
+        <v>1.5328019619865114E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2010</v>
+      </c>
+      <c r="B28">
+        <v>158.48623853211009</v>
+      </c>
+      <c r="C28">
+        <v>204.01376146788991</v>
+      </c>
+      <c r="D28">
+        <v>286.8692660550459</v>
+      </c>
+      <c r="E28">
+        <v>406.07798165137615</v>
+      </c>
+      <c r="F28">
+        <v>568.34862385321105</v>
+      </c>
+      <c r="G28">
+        <v>47876037593.159309</v>
+      </c>
+      <c r="H28">
+        <v>39.250338904468542</v>
+      </c>
+      <c r="I28">
+        <v>33.478106083899767</v>
+      </c>
+      <c r="J28">
+        <v>35.357155669469165</v>
+      </c>
+      <c r="K28">
+        <v>29.584922848900394</v>
+      </c>
+      <c r="L28" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M28">
+        <v>73.477000000000004</v>
+      </c>
+      <c r="N28">
+        <v>5.3140096618357557E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2011</v>
+      </c>
+      <c r="B29">
+        <v>149.43396226415095</v>
+      </c>
+      <c r="C29">
+        <v>191.266846361186</v>
+      </c>
+      <c r="D29">
+        <v>269.54177897574124</v>
+      </c>
+      <c r="E29">
+        <v>382.58760107816715</v>
+      </c>
+      <c r="F29">
+        <v>541.13207547169804</v>
+      </c>
+      <c r="G29">
+        <v>48038696837.530174</v>
+      </c>
+      <c r="H29">
+        <v>39.553588715554078</v>
+      </c>
+      <c r="I29">
+        <v>33.754787426564349</v>
+      </c>
+      <c r="J29">
+        <v>35.312555388302222</v>
+      </c>
+      <c r="K29">
+        <v>29.513754099312479</v>
+      </c>
+      <c r="L29" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="M29">
+        <v>74.591175000000007</v>
+      </c>
+      <c r="N29">
+        <v>6.3646788990825653E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2012</v>
+      </c>
+      <c r="B30">
+        <v>147.7035490605428</v>
+      </c>
+      <c r="C30">
+        <v>188.46555323590817</v>
+      </c>
+      <c r="D30">
+        <v>265.08350730688937</v>
+      </c>
+      <c r="E30">
+        <v>374.11273486430059</v>
+      </c>
+      <c r="F30">
+        <v>525.15657620041759</v>
+      </c>
+      <c r="G30">
+        <v>49014652303.755402</v>
+      </c>
+      <c r="H30">
+        <v>39.3731087241921</v>
+      </c>
+      <c r="I30">
+        <v>33.583403155197118</v>
+      </c>
+      <c r="J30">
+        <v>35.189192516293467</v>
+      </c>
+      <c r="K30">
+        <v>29.399486947298488</v>
+      </c>
+      <c r="L30" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M30">
+        <v>74.411625000000001</v>
+      </c>
+      <c r="N30">
+        <v>3.2884097035040402E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2013</v>
+      </c>
+      <c r="B31">
+        <v>145.98984771573606</v>
+      </c>
+      <c r="C31">
+        <v>187.41116751269035</v>
+      </c>
+      <c r="D31">
+        <v>262.74111675126903</v>
+      </c>
+      <c r="E31">
+        <v>371.2182741116751</v>
+      </c>
+      <c r="F31">
+        <v>519.18781725888323</v>
+      </c>
+      <c r="G31">
+        <v>49990607769.980621</v>
+      </c>
+      <c r="H31">
+        <v>39.287666635355706</v>
+      </c>
+      <c r="I31">
+        <v>33.565775932567192</v>
+      </c>
+      <c r="J31">
+        <v>35.063499388700102</v>
+      </c>
+      <c r="K31">
+        <v>29.341608685911584</v>
+      </c>
+      <c r="L31" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="M31">
+        <v>75.850149999999999</v>
+      </c>
+      <c r="N31">
+        <v>2.8183716075156608E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2014</v>
+      </c>
+      <c r="B32">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="C32">
+        <v>185.35</v>
+      </c>
+      <c r="D32">
+        <v>260.2</v>
+      </c>
+      <c r="E32">
+        <v>368.05</v>
+      </c>
+      <c r="F32">
+        <v>515.20000000000005</v>
+      </c>
+      <c r="G32">
+        <v>51346101473.071198</v>
+      </c>
+      <c r="H32">
+        <v>39.470857342842983</v>
+      </c>
+      <c r="I32">
+        <v>33.792267517392638</v>
+      </c>
+      <c r="J32">
+        <v>35.195088329375523</v>
+      </c>
+      <c r="K32">
+        <v>29.51649850392517</v>
+      </c>
+      <c r="L32" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M32">
+        <v>75.631174999999999</v>
+      </c>
+      <c r="N32">
+        <v>1.5228426395939087E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2015</v>
+      </c>
+      <c r="B33">
+        <v>149.84863773965691</v>
+      </c>
+      <c r="C33">
+        <v>191.47325933400606</v>
+      </c>
+      <c r="D33">
+        <v>266.64984863773964</v>
+      </c>
+      <c r="E33">
+        <v>375.12613521695255</v>
+      </c>
+      <c r="F33">
+        <v>524.217961654894</v>
+      </c>
+      <c r="G33">
+        <v>52159397694.925545</v>
+      </c>
+      <c r="H33">
+        <v>39.721296841594523</v>
+      </c>
+      <c r="I33">
+        <v>33.970733008394305</v>
+      </c>
+      <c r="J33">
+        <v>35.422188170316012</v>
+      </c>
+      <c r="K33">
+        <v>29.671624337115787</v>
+      </c>
+      <c r="L33" s="1">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="M33">
+        <v>77.106175000000007</v>
+      </c>
+      <c r="N33">
+        <v>-9.0000000000000566E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2016</v>
+      </c>
+      <c r="B34">
+        <v>156.02015113350126</v>
+      </c>
+      <c r="C34">
+        <v>196.57430730478589</v>
+      </c>
+      <c r="D34">
+        <v>272.09068010075566</v>
+      </c>
+      <c r="E34">
+        <v>385.64231738035261</v>
+      </c>
+      <c r="F34">
+        <v>534.86146095717879</v>
+      </c>
+      <c r="G34">
+        <v>52864254420.532646</v>
+      </c>
+      <c r="H34">
+        <v>39.951963308044036</v>
+      </c>
+      <c r="I34">
+        <v>34.131758155978375</v>
+      </c>
+      <c r="J34">
+        <v>35.598689849523474</v>
+      </c>
+      <c r="K34">
+        <v>29.778484697457813</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M34">
+        <v>79.011375000000001</v>
+      </c>
+      <c r="N34">
+        <v>1.5136226034309353E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35">
+        <v>154.91525423728814</v>
+      </c>
+      <c r="C35">
+        <v>193.94673123486683</v>
+      </c>
+      <c r="D35">
+        <v>267.31234866828089</v>
+      </c>
+      <c r="E35">
+        <v>376.1743341404358</v>
+      </c>
+      <c r="F35">
+        <v>531.13801452784503</v>
+      </c>
+      <c r="G35">
+        <v>53460671649.892502</v>
+      </c>
+      <c r="H35">
+        <v>40.534372842858325</v>
+      </c>
+      <c r="I35">
+        <v>34.575194330654625</v>
+      </c>
+      <c r="J35">
+        <v>36.14089545897491</v>
+      </c>
+      <c r="K35">
+        <v>30.181716946771218</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="M35">
+        <v>81.504750000000001</v>
+      </c>
+      <c r="N35">
+        <v>4.0302267002518891E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36">
+        <v>154.84777517564405</v>
+      </c>
+      <c r="C36">
+        <v>193.4426229508197</v>
+      </c>
+      <c r="D36">
+        <v>267.07259953161599</v>
+      </c>
+      <c r="E36">
+        <v>375.12880562060894</v>
+      </c>
+      <c r="F36">
+        <v>531.28805620608898</v>
+      </c>
+      <c r="G36">
+        <v>53894429634.881493</v>
+      </c>
+      <c r="H36">
+        <v>40.792191790623704</v>
+      </c>
+      <c r="I36">
+        <v>34.761883979560906</v>
+      </c>
+      <c r="J36">
+        <v>36.394857409280931</v>
+      </c>
+      <c r="K36">
+        <v>30.36454959821814</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="M36">
+        <v>84.164025000000009</v>
+      </c>
+      <c r="N36">
+        <v>3.3898305084745763E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2019</v>
+      </c>
+      <c r="B37">
+        <v>159.02618282039504</v>
+      </c>
+      <c r="C37">
+        <v>197.7032613688562</v>
+      </c>
+      <c r="D37">
+        <v>269.63711529627926</v>
+      </c>
+      <c r="E37">
+        <v>378.54846118511716</v>
+      </c>
+      <c r="F37">
+        <v>532.61368856224158</v>
+      </c>
+      <c r="G37">
+        <v>54707725856.73584</v>
+      </c>
+      <c r="H37">
+        <v>40.833739019786918</v>
+      </c>
+      <c r="I37">
+        <v>34.762274801555236</v>
+      </c>
+      <c r="J37">
+        <v>36.479454569656184</v>
+      </c>
+      <c r="K37">
+        <v>30.407990351424498</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M37">
+        <v>86.4589</v>
+      </c>
+      <c r="N37">
+        <v>1.967213114754093E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -34292,7 +35912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F7448B-5A41-4810-9AA1-4C6D4DF4B2A9}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B50"/>
     </sheetView>
   </sheetViews>
@@ -37065,8 +38685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177ADEF-2DD5-41A7-9F36-5E1DD0187EE0}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37083,7 +38703,7 @@
     <col min="20" max="20" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>345</v>
       </c>
@@ -37130,10 +38750,16 @@
         <v>361</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>367</v>
+        <v>405</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -37183,13 +38809,17 @@
         <v>45656561734.421608</v>
       </c>
       <c r="P2" s="20">
-        <v>28.865122841770145</v>
+        <v>32.046471656222145</v>
       </c>
       <c r="Q2" s="20">
-        <v>24.75539406459313</v>
-      </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+        <v>27.921728527308783</v>
+      </c>
+      <c r="R2" s="31">
+        <v>28.970577758811409</v>
+      </c>
+      <c r="S2" s="31">
+        <v>24.845834629898043</v>
+      </c>
       <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -37239,13 +38869,17 @@
         <v>46007617221.097366</v>
       </c>
       <c r="P3" s="20">
-        <v>29.542953720305519</v>
+        <v>32.882335483002329</v>
       </c>
       <c r="Q3" s="27">
-        <v>25.37022422494503</v>
-      </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="31"/>
+        <v>28.697078648808592</v>
+      </c>
+      <c r="R3" s="34">
+        <v>29.631647365987764</v>
+      </c>
+      <c r="S3" s="31">
+        <v>25.446390531794023</v>
+      </c>
       <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -37295,13 +38929,17 @@
         <v>46418823417.102234</v>
       </c>
       <c r="P4" s="20">
-        <v>30.056958386867688</v>
+        <v>33.616965908246151</v>
       </c>
       <c r="Q4" s="27">
-        <v>25.73346437210656</v>
-      </c>
-      <c r="R4" s="34"/>
-      <c r="S4" s="31"/>
+        <v>29.27763806187783</v>
+      </c>
+      <c r="R4" s="34">
+        <v>30.167035286730883</v>
+      </c>
+      <c r="S4" s="31">
+        <v>25.827707440362563</v>
+      </c>
       <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -37351,13 +38989,17 @@
         <v>46528153208.227203</v>
       </c>
       <c r="P5" s="20">
-        <v>31.25777868830831</v>
+        <v>34.970037535504822</v>
       </c>
       <c r="Q5" s="27">
-        <v>26.729157194239907</v>
-      </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="31"/>
+        <v>30.424782800339941</v>
+      </c>
+      <c r="R5" s="34">
+        <v>31.372585847560615</v>
+      </c>
+      <c r="S5" s="31">
+        <v>26.827331112395736</v>
+      </c>
       <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -37407,13 +39049,17 @@
         <v>46999223277.195313</v>
       </c>
       <c r="P6" s="20">
-        <v>31.841831841979065</v>
+        <v>35.509561950172738</v>
       </c>
       <c r="Q6" s="27">
-        <v>27.12733587127989</v>
-      </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="31"/>
+        <v>30.779631973122026</v>
+      </c>
+      <c r="R6" s="34">
+        <v>31.94607353355082</v>
+      </c>
+      <c r="S6" s="31">
+        <v>27.216143556500104</v>
+      </c>
       <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -37463,13 +39109,17 @@
         <v>46904163001.854897</v>
       </c>
       <c r="P7" s="20">
-        <v>32.469405413559592</v>
+        <v>36.210489128471231</v>
       </c>
       <c r="Q7" s="27">
-        <v>27.59116765283331</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="31"/>
+        <v>31.314847799127129</v>
+      </c>
+      <c r="R7" s="34">
+        <v>32.585243048544093</v>
+      </c>
+      <c r="S7" s="31">
+        <v>27.689601719199992</v>
+      </c>
       <c r="T7" s="31"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -37519,13 +39169,17 @@
         <v>47111826924.760925</v>
       </c>
       <c r="P8" s="20">
-        <v>33.39843121821572</v>
+        <v>37.221000873606606</v>
       </c>
       <c r="Q8" s="27">
-        <v>28.386773875561488</v>
-      </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="31"/>
+        <v>32.192530128548952</v>
+      </c>
+      <c r="R8" s="34">
+        <v>33.510478236860749</v>
+      </c>
+      <c r="S8" s="31">
+        <v>28.482007491803095</v>
+      </c>
       <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -37575,13 +39229,17 @@
         <v>47552836118.124039</v>
       </c>
       <c r="P9" s="20">
-        <v>33.84634824202989</v>
+        <v>37.768288154241347</v>
       </c>
       <c r="Q9" s="27">
-        <v>28.817628089915523</v>
-      </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="31"/>
+        <v>32.722082295980101</v>
+      </c>
+      <c r="R9" s="34">
+        <v>33.964037690160389</v>
+      </c>
+      <c r="S9" s="31">
+        <v>28.917831831899143</v>
+      </c>
       <c r="T9" s="31"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -37631,13 +39289,17 @@
         <v>48171395310.622818</v>
       </c>
       <c r="P10" s="20">
-        <v>34.368791491003478</v>
+        <v>38.261669380629066</v>
       </c>
       <c r="Q10" s="27">
-        <v>29.272119574992974</v>
-      </c>
-      <c r="R10" s="34"/>
-      <c r="S10" s="31"/>
+        <v>33.150918802505885</v>
+      </c>
+      <c r="R10" s="34">
+        <v>34.463729248543409</v>
+      </c>
+      <c r="S10" s="31">
+        <v>29.352978670420228</v>
+      </c>
       <c r="T10" s="31"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -37687,13 +39349,17 @@
         <v>48485318123.421356</v>
       </c>
       <c r="P11" s="20">
-        <v>34.970562000094496</v>
+        <v>38.965214238627631</v>
       </c>
       <c r="Q11" s="27">
-        <v>29.735423291036788</v>
-      </c>
-      <c r="R11" s="34"/>
-      <c r="S11" s="31"/>
+        <v>33.711054855603614</v>
+      </c>
+      <c r="R11" s="34">
+        <v>35.097619504238907</v>
+      </c>
+      <c r="S11" s="31">
+        <v>29.843460121214878</v>
+      </c>
       <c r="T11" s="31"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -37743,13 +39409,17 @@
         <v>48939883128.70871</v>
       </c>
       <c r="P12" s="20">
-        <v>35.506776659641147</v>
+        <v>39.567302337429325</v>
       </c>
       <c r="Q12" s="27">
-        <v>30.14149515070412</v>
-      </c>
-      <c r="R12" s="34"/>
-      <c r="S12" s="31"/>
+        <v>34.186395952108541</v>
+      </c>
+      <c r="R12" s="34">
+        <v>35.610180180065662</v>
+      </c>
+      <c r="S12" s="31">
+        <v>30.229273794744874</v>
+      </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -37799,13 +39469,17 @@
         <v>49195408009.605225</v>
       </c>
       <c r="P13" s="20">
-        <v>35.443949653821541</v>
+        <v>39.314059019590729</v>
       </c>
       <c r="Q13" s="27">
-        <v>29.907432480743886</v>
-      </c>
-      <c r="R13" s="34"/>
-      <c r="S13" s="31"/>
+        <v>33.757124338226632</v>
+      </c>
+      <c r="R13" s="34">
+        <v>35.574659468880071</v>
+      </c>
+      <c r="S13" s="31">
+        <v>30.01772478751597</v>
+      </c>
       <c r="T13" s="31"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -37855,13 +39529,17 @@
         <v>47767596321.604233</v>
       </c>
       <c r="P14" s="20">
-        <v>35.019744434252395</v>
+        <v>38.593690924609419</v>
       </c>
       <c r="Q14" s="27">
-        <v>29.1777977015057</v>
-      </c>
-      <c r="R14" s="34"/>
-      <c r="S14" s="31"/>
+        <v>32.731783316103737</v>
+      </c>
+      <c r="R14" s="34">
+        <v>35.139400569397417</v>
+      </c>
+      <c r="S14" s="31">
+        <v>29.277492960891731</v>
+      </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -37911,13 +39589,17 @@
         <v>48028670597.504623</v>
       </c>
       <c r="P15" s="20">
-        <v>35.244792182664341</v>
+        <v>39.250338904468542</v>
       </c>
       <c r="Q15" s="27">
-        <v>29.490903264315293</v>
-      </c>
-      <c r="R15" s="34"/>
-      <c r="S15" s="31"/>
+        <v>33.478106083899767</v>
+      </c>
+      <c r="R15" s="34">
+        <v>35.357155669469165</v>
+      </c>
+      <c r="S15" s="31">
+        <v>29.584922848900394</v>
+      </c>
       <c r="T15" s="31"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -37967,13 +39649,17 @@
         <v>48173831239.097626</v>
       </c>
       <c r="P16" s="20">
-        <v>35.213498682255086</v>
+        <v>39.553588715554078</v>
       </c>
       <c r="Q16" s="27">
-        <v>29.430963850008361</v>
-      </c>
-      <c r="R16" s="34"/>
-      <c r="S16" s="31"/>
+        <v>33.754787426564349</v>
+      </c>
+      <c r="R16" s="34">
+        <v>35.312555388302222</v>
+      </c>
+      <c r="S16" s="31">
+        <v>29.513754099312479</v>
+      </c>
       <c r="T16" s="31"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -38023,13 +39709,17 @@
         <v>49148967637.98661</v>
       </c>
       <c r="P17" s="20">
-        <v>35.09302674961927</v>
+        <v>39.3731087241921</v>
       </c>
       <c r="Q17" s="27">
-        <v>29.319143409980715</v>
-      </c>
-      <c r="R17" s="34"/>
-      <c r="S17" s="31"/>
+        <v>33.583403155197118</v>
+      </c>
+      <c r="R17" s="34">
+        <v>35.189192516293467</v>
+      </c>
+      <c r="S17" s="31">
+        <v>29.399486947298488</v>
+      </c>
       <c r="T17" s="31"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -38079,13 +39769,17 @@
         <v>50051992534.02832</v>
       </c>
       <c r="P18" s="20">
-        <v>35.020496812225275</v>
+        <v>39.287666635355706</v>
       </c>
       <c r="Q18" s="27">
-        <v>29.30562355055978</v>
-      </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="31"/>
+        <v>33.565775932567192</v>
+      </c>
+      <c r="R18" s="34">
+        <v>35.063499388700102</v>
+      </c>
+      <c r="S18" s="31">
+        <v>29.341608685911584</v>
+      </c>
       <c r="T18" s="31"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -38135,13 +39829,17 @@
         <v>51433603152.368271</v>
       </c>
       <c r="P19" s="20">
-        <v>35.135212506118378</v>
+        <v>39.470857342842983</v>
       </c>
       <c r="Q19" s="27">
-        <v>29.46628341052773</v>
-      </c>
-      <c r="R19" s="34"/>
-      <c r="S19" s="31"/>
+        <v>33.792267517392638</v>
+      </c>
+      <c r="R19" s="34">
+        <v>35.195088329375523</v>
+      </c>
+      <c r="S19" s="31">
+        <v>29.51649850392517</v>
+      </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -38191,13 +39889,17 @@
         <v>52228887128.137177</v>
       </c>
       <c r="P20" s="20">
-        <v>35.375059695741548</v>
+        <v>39.721296841594523</v>
       </c>
       <c r="Q20" s="27">
-        <v>29.632146866485481</v>
-      </c>
-      <c r="R20" s="34"/>
-      <c r="S20" s="31"/>
+        <v>33.970733008394305</v>
+      </c>
+      <c r="R20" s="34">
+        <v>35.422188170316012</v>
+      </c>
+      <c r="S20" s="31">
+        <v>29.671624337115787</v>
+      </c>
       <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -38247,13 +39949,17 @@
         <v>52938341908.062614</v>
       </c>
       <c r="P21" s="20">
-        <v>35.548869296116457</v>
+        <v>39.951963308044036</v>
       </c>
       <c r="Q21" s="27">
-        <v>29.736809551728545</v>
-      </c>
-      <c r="R21" s="34"/>
-      <c r="S21" s="31"/>
+        <v>34.131758155978375</v>
+      </c>
+      <c r="R21" s="34">
+        <v>35.598689849523474</v>
+      </c>
+      <c r="S21" s="31">
+        <v>29.778484697457813</v>
+      </c>
       <c r="T21" s="31"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -38303,13 +40009,17 @@
         <v>53500465199.766167</v>
       </c>
       <c r="P22" s="20">
-        <v>36.114013925878787</v>
+        <v>40.534372842858325</v>
       </c>
       <c r="Q22" s="27">
-        <v>30.159267839943649</v>
-      </c>
-      <c r="R22" s="34"/>
-      <c r="S22" s="31"/>
+        <v>34.575194330654625</v>
+      </c>
+      <c r="R22" s="34">
+        <v>36.14089545897491</v>
+      </c>
+      <c r="S22" s="31">
+        <v>30.181716946771218</v>
+      </c>
       <c r="T22" s="31"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -38359,13 +40069,17 @@
         <v>53952346217.343605</v>
       </c>
       <c r="P23" s="20">
-        <v>36.355788380626464</v>
+        <v>40.792191790623704</v>
       </c>
       <c r="Q23" s="27">
-        <v>30.331953964033008</v>
-      </c>
-      <c r="R23" s="34"/>
-      <c r="S23" s="31"/>
+        <v>34.761883979560906</v>
+      </c>
+      <c r="R23" s="34">
+        <v>36.394857409280931</v>
+      </c>
+      <c r="S23" s="31">
+        <v>30.36454959821814</v>
+      </c>
       <c r="T23" s="31"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -38415,13 +40129,17 @@
         <v>54707725856.73584</v>
       </c>
       <c r="P24" s="20">
+        <v>40.833739019786918</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>34.762274801555236</v>
+      </c>
+      <c r="R24" s="34">
         <v>36.479454569656184</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="S24" s="31">
         <v>30.407990351424498</v>
       </c>
-      <c r="R24" s="34"/>
-      <c r="S24" s="31"/>
       <c r="T24" s="31"/>
     </row>
   </sheetData>
@@ -38431,13 +40149,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D07E16-B0FA-4567-8C51-EC3843AF4358}">
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK1" sqref="AK1:AK37"/>
+      <selection pane="bottomRight" activeCell="AL1" sqref="AL1:AM37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38461,9 +40179,10 @@
     <col min="35" max="35" width="18" customWidth="1"/>
     <col min="36" max="36" width="16.42578125" customWidth="1"/>
     <col min="37" max="37" width="15.28515625" customWidth="1"/>
+    <col min="38" max="38" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>345</v>
       </c>
@@ -38575,8 +40294,14 @@
       <c r="AK1" s="33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1984</v>
       </c>
@@ -38695,8 +40420,14 @@
       <c r="AK2" s="3">
         <v>0.11800000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2">
+        <v>19.068625000000001</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1985</v>
       </c>
@@ -38815,8 +40546,14 @@
       <c r="AK3" s="3">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3">
+        <v>20.227824999999999</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1986</v>
       </c>
@@ -38935,8 +40672,14 @@
       <c r="AK4" s="3">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4">
+        <v>21.818674999999999</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1987</v>
       </c>
@@ -39071,8 +40814,14 @@
       <c r="AK5" s="3">
         <v>0.10400000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5">
+        <v>22.892899999999997</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1988</v>
       </c>
@@ -39207,8 +40956,15 @@
       <c r="AK6" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6">
+        <v>24.538825000000003</v>
+      </c>
+      <c r="AM6" s="1">
+        <f>(G6-G5)/G5</f>
+        <v>3.4448818897637797E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1989</v>
       </c>
@@ -39343,8 +41099,15 @@
       <c r="AK7" s="3">
         <v>7.2000000000000008E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7">
+        <v>26.558399999999999</v>
+      </c>
+      <c r="AM7" s="1">
+        <f t="shared" ref="AM7:AM37" si="25">(G7-G6)/G6</f>
+        <v>4.9476688867745033E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1990</v>
       </c>
@@ -39479,8 +41242,15 @@
       <c r="AK8" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8">
+        <v>29.5106</v>
+      </c>
+      <c r="AM8" s="1">
+        <f t="shared" si="25"/>
+        <v>6.7089755213055352E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1991</v>
       </c>
@@ -39615,8 +41385,15 @@
       <c r="AK9" s="3">
         <v>8.900000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9">
+        <v>32.763600000000004</v>
+      </c>
+      <c r="AM9" s="1">
+        <f t="shared" si="25"/>
+        <v>6.7969413763806288E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1992</v>
       </c>
@@ -39751,8 +41528,15 @@
       <c r="AK10" s="3">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10">
+        <v>34.944974999999999</v>
+      </c>
+      <c r="AM10" s="1">
+        <f t="shared" si="25"/>
+        <v>3.7390612569610203E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1993</v>
       </c>
@@ -39887,8 +41671,15 @@
       <c r="AK11" s="3">
         <v>0.10400000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11">
+        <v>36.514675000000004</v>
+      </c>
+      <c r="AM11" s="1">
+        <f t="shared" si="25"/>
+        <v>2.4539877300613407E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1994</v>
       </c>
@@ -40023,8 +41814,15 @@
       <c r="AK12" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL12">
+        <v>37.227275000000006</v>
+      </c>
+      <c r="AM12" s="1">
+        <f t="shared" si="25"/>
+        <v>1.796407185628747E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1995</v>
       </c>
@@ -40159,8 +41957,15 @@
       <c r="AK13" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL13">
+        <v>38.461874999999999</v>
+      </c>
+      <c r="AM13" s="1">
+        <f t="shared" si="25"/>
+        <v>3.0147058823529371E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1996</v>
       </c>
@@ -40295,8 +42100,15 @@
       <c r="AK14" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14">
+        <v>40.017300000000006</v>
+      </c>
+      <c r="AM14" s="1">
+        <f t="shared" si="25"/>
+        <v>2.9978586723768859E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1997</v>
       </c>
@@ -40431,8 +42243,15 @@
       <c r="AK15" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15">
+        <v>42.1203</v>
+      </c>
+      <c r="AM15" s="1">
+        <f t="shared" si="25"/>
+        <v>2.2176022176022096E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1998</v>
       </c>
@@ -40567,8 +42386,15 @@
       <c r="AK16" s="3">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL16">
+        <v>43.936875000000001</v>
+      </c>
+      <c r="AM16" s="1">
+        <f t="shared" si="25"/>
+        <v>1.6271186440678004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1999</v>
       </c>
@@ -40703,8 +42529,15 @@
       <c r="AK17" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL17">
+        <v>47.127775</v>
+      </c>
+      <c r="AM17" s="1">
+        <f t="shared" si="25"/>
+        <v>8.672448298865796E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -40839,8 +42672,15 @@
       <c r="AK18" s="3">
         <v>5.4000000000000006E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL18">
+        <v>50.432699999999997</v>
+      </c>
+      <c r="AM18" s="1">
+        <f t="shared" si="25"/>
+        <v>2.6455026455026831E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -40975,8 +42815,15 @@
       <c r="AK19" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL19">
+        <v>53.137599999999999</v>
+      </c>
+      <c r="AM19" s="1">
+        <f t="shared" si="25"/>
+        <v>3.2981530343007917E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -41111,8 +42958,15 @@
       <c r="AK20" s="3">
         <v>5.2000000000000005E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL20">
+        <v>54.599575000000002</v>
+      </c>
+      <c r="AM20" s="1">
+        <f t="shared" si="25"/>
+        <v>-4.6022353714660659E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2003</v>
       </c>
@@ -41247,8 +43101,15 @@
       <c r="AK21" s="3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL21">
+        <v>57.031199999999998</v>
+      </c>
+      <c r="AM21" s="1">
+        <f t="shared" si="25"/>
+        <v>2.6420079260238154E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -41383,8 +43244,15 @@
       <c r="AK22" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL22">
+        <v>60.229349999999997</v>
+      </c>
+      <c r="AM22" s="1">
+        <f t="shared" si="25"/>
+        <v>1.3175230566534165E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2005</v>
       </c>
@@ -41519,8 +43387,15 @@
       <c r="AK23" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL23">
+        <v>62.92</v>
+      </c>
+      <c r="AM23" s="1">
+        <f t="shared" si="25"/>
+        <v>3.9473684210525944E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -41655,8 +43530,15 @@
       <c r="AK24" s="3">
         <v>5.4000000000000006E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL24">
+        <v>66.220574999999997</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" si="25"/>
+        <v>1.1795543905635723E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2007</v>
       </c>
@@ -41791,8 +43673,15 @@
       <c r="AK25" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL25">
+        <v>69.643799999999999</v>
+      </c>
+      <c r="AM25" s="1">
+        <f t="shared" si="25"/>
+        <v>1.8782383419689155E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2008</v>
       </c>
@@ -41927,8 +43816,15 @@
       <c r="AK26" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26">
+        <v>70.393675000000002</v>
+      </c>
+      <c r="AM26" s="1">
+        <f t="shared" si="25"/>
+        <v>3.6872218690400395E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2009</v>
       </c>
@@ -42063,8 +43959,15 @@
       <c r="AK27" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27">
+        <v>72.061750000000004</v>
+      </c>
+      <c r="AM27" s="1">
+        <f t="shared" si="25"/>
+        <v>1.5328019619865114E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2010</v>
       </c>
@@ -42199,8 +44102,15 @@
       <c r="AK28" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL28">
+        <v>73.477000000000004</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" si="25"/>
+        <v>5.3140096618357557E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>378</v>
       </c>
@@ -42335,8 +44245,15 @@
       <c r="AK29" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL29">
+        <v>74.591175000000007</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="25"/>
+        <v>6.3646788990825653E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -42471,8 +44388,15 @@
       <c r="AK30" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL30">
+        <v>74.411625000000001</v>
+      </c>
+      <c r="AM30" s="1">
+        <f t="shared" si="25"/>
+        <v>3.2884097035040402E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -42607,8 +44531,15 @@
       <c r="AK31" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL31">
+        <v>75.850149999999999</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" si="25"/>
+        <v>2.8183716075156608E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -42743,8 +44674,15 @@
       <c r="AK32" s="3">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL32">
+        <v>75.631174999999999</v>
+      </c>
+      <c r="AM32" s="1">
+        <f t="shared" si="25"/>
+        <v>1.5228426395939087E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -42879,8 +44817,15 @@
       <c r="AK33" s="3">
         <v>5.4000000000000006E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL33">
+        <v>77.106175000000007</v>
+      </c>
+      <c r="AM33" s="1">
+        <f t="shared" si="25"/>
+        <v>-9.0000000000000566E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2016</v>
       </c>
@@ -43015,8 +44960,15 @@
       <c r="AK34" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL34">
+        <v>79.011375000000001</v>
+      </c>
+      <c r="AM34" s="1">
+        <f t="shared" si="25"/>
+        <v>1.5136226034309353E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2017</v>
       </c>
@@ -43151,8 +45103,15 @@
       <c r="AK35" s="3">
         <v>4.4000000000000004E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL35">
+        <v>81.504750000000001</v>
+      </c>
+      <c r="AM35" s="1">
+        <f t="shared" si="25"/>
+        <v>4.0302267002518891E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -43287,8 +45246,15 @@
       <c r="AK36" s="3">
         <v>4.0999999999999995E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL36">
+        <v>84.164025000000009</v>
+      </c>
+      <c r="AM36" s="1">
+        <f t="shared" si="25"/>
+        <v>3.3898305084745763E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -43423,42 +45389,49 @@
       <c r="AK37" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL37">
+        <v>86.4589</v>
+      </c>
+      <c r="AM37" s="1">
+        <f t="shared" si="25"/>
+        <v>1.967213114754093E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-    </row>
-    <row r="41" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+    </row>
+    <row r="41" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -43471,1356 +45444,2638 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAD4CA7-202F-4443-B29A-DF3FE42F7F67}">
-  <dimension ref="A1:L37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AE5AE-4AFB-4168-9C68-297ACE576F1E}">
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6:N54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:14" s="45" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="46">
+        <f t="shared" ref="A2:A49" si="0">A3-1</f>
+        <v>1967</v>
+      </c>
+      <c r="B2" s="44">
+        <v>8.3111111111111136</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+      <c r="B3" s="44">
+        <v>8.6432950191570921</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+      <c r="B4" s="44">
+        <v>9.0927203065134119</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+      <c r="B5" s="44">
+        <v>9.6854406130268202</v>
+      </c>
+      <c r="C5" s="20">
+        <v>27.2</v>
+      </c>
+      <c r="D5" s="44">
+        <f>C5/(B5/100)</f>
+        <v>280.8338937457969</v>
+      </c>
+      <c r="E5" s="44">
+        <f>LN(D5)</f>
+        <v>5.6377633690904112</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="K5">
+        <v>14.6</v>
+      </c>
+      <c r="L5">
+        <f>K5/(B5/100)</f>
+        <v>150.74172237825863</v>
+      </c>
+      <c r="M5">
+        <f>LN(L5)</f>
+        <v>5.0155679245027498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <f t="shared" si="0"/>
+        <v>1971</v>
+      </c>
+      <c r="B6" s="44">
+        <v>10.597318007662833</v>
+      </c>
+      <c r="C6" s="20">
+        <v>29.8</v>
+      </c>
+      <c r="D6" s="44">
+        <f t="shared" ref="D6:D54" si="1">C6/(B6/100)</f>
+        <v>281.20322499005755</v>
+      </c>
+      <c r="E6" s="44">
+        <f t="shared" ref="E6:E54" si="2">LN(D6)</f>
+        <v>5.6390776285409352</v>
+      </c>
+      <c r="F6" s="44">
+        <f>E6-E5</f>
+        <v>1.3142594505239913E-3</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="K6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L54" si="3">K6/(B6/100)</f>
+        <v>156.64340720922669</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M54" si="4">LN(L6)</f>
+        <v>5.0539719303920743</v>
+      </c>
+      <c r="N6">
+        <f>M6-M5</f>
+        <v>3.8404005889324466E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <f t="shared" si="0"/>
+        <v>1972</v>
+      </c>
+      <c r="B7" s="44">
+        <v>11.359386973180076</v>
+      </c>
+      <c r="C7" s="20">
+        <v>33.4</v>
+      </c>
+      <c r="D7" s="44">
+        <f t="shared" si="1"/>
+        <v>294.02995143011333</v>
+      </c>
+      <c r="E7" s="44">
+        <f t="shared" si="2"/>
+        <v>5.6836816377623443</v>
+      </c>
+      <c r="F7" s="44">
+        <f t="shared" ref="F7:F54" si="5">E7-E6</f>
+        <v>4.4604009221409058E-2</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="K7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>163.74123043712899</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>5.0982873184988451</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N54" si="6">M7-M6</f>
+        <v>4.4315388106770826E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+      <c r="B8" s="44">
+        <v>12.421072796934865</v>
+      </c>
+      <c r="C8" s="20">
+        <v>38.4</v>
+      </c>
+      <c r="D8" s="44">
+        <f t="shared" si="1"/>
+        <v>309.15204047009473</v>
+      </c>
+      <c r="E8" s="44">
+        <f t="shared" si="2"/>
+        <v>5.7338331962418767</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" si="5"/>
+        <v>5.0151558479532454E-2</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="K8">
+        <v>20.7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>166.65227181591044</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>5.1159094369195186</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>1.7622118420673516E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+      <c r="B9" s="44">
+        <v>14.375095785440609</v>
+      </c>
+      <c r="C9" s="20">
+        <v>43.8</v>
+      </c>
+      <c r="D9" s="44">
+        <f t="shared" si="1"/>
+        <v>304.69362189823829</v>
+      </c>
+      <c r="E9" s="44">
+        <f t="shared" si="2"/>
+        <v>5.719306753374279</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" si="5"/>
+        <v>-1.4526442867597744E-2</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="K9">
+        <v>24.7</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>171.82494202937184</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>5.1464761796258101</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>3.056674270629145E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="B10" s="44">
+        <v>17.638314176245199</v>
+      </c>
+      <c r="C10" s="20">
+        <v>55.9</v>
+      </c>
+      <c r="D10" s="44">
+        <f t="shared" si="1"/>
+        <v>316.92371187766116</v>
+      </c>
+      <c r="E10" s="44">
+        <f t="shared" si="2"/>
+        <v>5.7586610883775027</v>
+      </c>
+      <c r="F10" s="44">
+        <f t="shared" si="5"/>
+        <v>3.9354335003223717E-2</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="K10">
+        <v>34.1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>193.32913372143554</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>5.2643940925059205</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0.11791791288011044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
+        <f t="shared" si="0"/>
+        <v>1976</v>
+      </c>
+      <c r="B11" s="44">
+        <v>20.399999999999991</v>
+      </c>
+      <c r="C11" s="20">
+        <v>65.8</v>
+      </c>
+      <c r="D11" s="44">
+        <f t="shared" si="1"/>
+        <v>322.54901960784326</v>
+      </c>
+      <c r="E11" s="44">
+        <f t="shared" si="2"/>
+        <v>5.776255123469193</v>
+      </c>
+      <c r="F11" s="44">
+        <f t="shared" si="5"/>
+        <v>1.759403509169033E-2</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="K11">
+        <v>42.4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>207.84313725490205</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>5.3367836473758334</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>7.2389554869912942E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
+        <f t="shared" si="0"/>
+        <v>1977</v>
+      </c>
+      <c r="B12" s="44">
+        <v>23.448275862068964</v>
+      </c>
+      <c r="C12" s="20">
+        <v>72.3</v>
+      </c>
+      <c r="D12" s="44">
+        <f t="shared" si="1"/>
+        <v>308.33823529411762</v>
+      </c>
+      <c r="E12" s="44">
+        <f t="shared" si="2"/>
+        <v>5.7311973469691315</v>
+      </c>
+      <c r="F12" s="44">
+        <f t="shared" si="5"/>
+        <v>-4.5057776500061486E-2</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="K12">
+        <v>46.9</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>200.01470588235293</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>5.2983908932566468</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>-3.8392754119186634E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="B13" s="44">
+        <v>25.200383141762462</v>
+      </c>
+      <c r="C13" s="20">
+        <v>82</v>
+      </c>
+      <c r="D13" s="44">
+        <f t="shared" si="1"/>
+        <v>325.39187812628268</v>
+      </c>
+      <c r="E13" s="44">
+        <f t="shared" si="2"/>
+        <v>5.7850302348123543</v>
+      </c>
+      <c r="F13" s="44">
+        <f t="shared" si="5"/>
+        <v>5.3832887843222821E-2</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="K13">
+        <v>51.8</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>205.55243032855418</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>5.3257011368135387</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>2.7310243556891933E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+      <c r="B14" s="44">
+        <v>28.066283524904208</v>
+      </c>
+      <c r="C14" s="20">
+        <v>93.9</v>
+      </c>
+      <c r="D14" s="44">
+        <f t="shared" si="1"/>
+        <v>334.56513726400294</v>
+      </c>
+      <c r="E14" s="44">
+        <f t="shared" si="2"/>
+        <v>5.8128315908469936</v>
+      </c>
+      <c r="F14" s="44">
+        <f t="shared" si="5"/>
+        <v>2.7801356034639291E-2</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="K14">
+        <v>58.4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>208.07885001296881</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>5.3379170944669578</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>1.2215957653419096E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="B15" s="44">
+        <v>32.31954022988505</v>
+      </c>
+      <c r="C15" s="20">
+        <v>113.3</v>
+      </c>
+      <c r="D15" s="44">
+        <f t="shared" si="1"/>
+        <v>350.56191763283312</v>
+      </c>
+      <c r="E15" s="44">
+        <f t="shared" si="2"/>
+        <v>5.8595373460308284</v>
+      </c>
+      <c r="F15" s="44">
+        <f t="shared" si="5"/>
+        <v>4.6705755183834796E-2</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="K15">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>224.01308770182806</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>5.4117044773885388</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>7.3787382921580935E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="B16" s="44">
+        <v>36.136398467432954</v>
+      </c>
+      <c r="C16" s="20">
+        <v>126.5</v>
+      </c>
+      <c r="D16" s="44">
+        <f t="shared" si="1"/>
+        <v>350.06255566393821</v>
+      </c>
+      <c r="E16" s="44">
+        <f t="shared" si="2"/>
+        <v>5.8581118689814673</v>
+      </c>
+      <c r="F16" s="44">
+        <f t="shared" si="5"/>
+        <v>-1.4254770493611346E-3</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="K16">
+        <v>82.2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>227.47147885830609</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>5.427024862876026</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>1.5320385487487265E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="B17" s="44">
+        <v>39.067432950191566</v>
+      </c>
+      <c r="C17" s="20">
+        <v>139.1</v>
+      </c>
+      <c r="D17" s="44">
+        <f t="shared" si="1"/>
+        <v>356.05103662004984</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="2"/>
+        <v>5.875074081869057</v>
+      </c>
+      <c r="F17" s="44">
+        <f t="shared" si="5"/>
+        <v>1.69622128875897E-2</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>230.37090794970877</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>5.439690653269925</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>1.2665790393898924E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="B18" s="44">
+        <v>40.995402298850578</v>
+      </c>
+      <c r="C18" s="20">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="D18" s="44">
+        <f t="shared" si="1"/>
+        <v>366.62647899960746</v>
+      </c>
+      <c r="E18" s="44">
+        <f t="shared" si="2"/>
+        <v>5.9043435613831914</v>
+      </c>
+      <c r="F18" s="44">
+        <f t="shared" si="5"/>
+        <v>2.9269479514134389E-2</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="K18">
+        <v>98.8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>241.0026355632815</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>5.4848078693780842</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>4.5117216108159219E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="46">
+        <f t="shared" si="0"/>
         <v>1984</v>
       </c>
-      <c r="G2">
-        <v>41966085047.68438</v>
-      </c>
-      <c r="H2">
-        <v>24.604828037632362</v>
-      </c>
-      <c r="J2">
-        <v>22.564994561639935</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.11800000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B19" s="44">
+        <v>42.740996168582384</v>
+      </c>
+      <c r="C19" s="20">
+        <v>160.6</v>
+      </c>
+      <c r="D19" s="44">
+        <f t="shared" si="1"/>
+        <v>375.75165390752449</v>
+      </c>
+      <c r="E19" s="44">
+        <f t="shared" si="2"/>
+        <v>5.9289284302402283</v>
+      </c>
+      <c r="F19" s="44">
+        <f t="shared" si="5"/>
+        <v>2.4584868857036923E-2</v>
+      </c>
+      <c r="G19" s="44">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="H19" s="44">
+        <f>G19/(B19/100)</f>
+        <v>332.93561862416402</v>
+      </c>
+      <c r="I19" s="44">
+        <f>LN(H19)</f>
+        <v>5.8079491338233735</v>
+      </c>
+      <c r="K19">
+        <v>106.8</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>249.87718952256301</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>5.5209695552536617</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>3.6161685875577554E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
+        <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="G3">
-        <v>42562502277.044235</v>
-      </c>
-      <c r="H3">
-        <v>25.23749608197506</v>
-      </c>
-      <c r="J3">
-        <v>23.138236495425033</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B20" s="44">
+        <v>44.844827586206897</v>
+      </c>
+      <c r="C20" s="20">
+        <v>172.8</v>
+      </c>
+      <c r="D20" s="44">
+        <f t="shared" si="1"/>
+        <v>385.32871972318338</v>
+      </c>
+      <c r="E20" s="44">
+        <f t="shared" si="2"/>
+        <v>5.9540967874558142</v>
+      </c>
+      <c r="F20" s="44">
+        <f t="shared" si="5"/>
+        <v>2.5168357215585857E-2</v>
+      </c>
+      <c r="G20" s="44">
+        <v>152.5</v>
+      </c>
+      <c r="H20" s="44">
+        <f t="shared" ref="H20:H54" si="7">G20/(B20/100)</f>
+        <v>340.06151480199924</v>
+      </c>
+      <c r="I20" s="44">
+        <f t="shared" ref="I20:I54" si="8">LN(H20)</f>
+        <v>5.8291265271333259</v>
+      </c>
+      <c r="J20" s="44">
+        <f>I20-I19</f>
+        <v>2.1177393309952386E-2</v>
+      </c>
+      <c r="K20">
+        <v>115.2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>256.88581314878894</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>5.5486316793476504</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>2.7662124093988716E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="46">
+        <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="G4">
-        <v>42725161521.4151</v>
-      </c>
-      <c r="H4">
-        <v>25.937610207804227</v>
-      </c>
-      <c r="J4">
-        <v>23.649048787655264</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B21" s="44">
+        <v>46.336398467432971</v>
+      </c>
+      <c r="C21" s="20">
+        <v>185.1</v>
+      </c>
+      <c r="D21" s="44">
+        <f t="shared" si="1"/>
+        <v>399.46997635151877</v>
+      </c>
+      <c r="E21" s="44">
+        <f t="shared" si="2"/>
+        <v>5.9901386093196649</v>
+      </c>
+      <c r="F21" s="44">
+        <f t="shared" si="5"/>
+        <v>3.6041821863850743E-2</v>
+      </c>
+      <c r="G21" s="44">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="H21" s="44">
+        <f t="shared" si="7"/>
+        <v>353.50179430782703</v>
+      </c>
+      <c r="I21" s="44">
+        <f t="shared" si="8"/>
+        <v>5.8678885611591829</v>
+      </c>
+      <c r="J21" s="44">
+        <f t="shared" ref="J21:J54" si="9">I21-I20</f>
+        <v>3.8762034025856984E-2</v>
+      </c>
+      <c r="K21">
+        <v>123.4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>266.31331756767918</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>5.5846735012115012</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>3.6041821863850743E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
+        <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="B5">
-        <v>97.539370078740149</v>
-      </c>
-      <c r="C5">
-        <v>126.5748031496063</v>
-      </c>
-      <c r="D5">
-        <v>172.34251968503935</v>
-      </c>
-      <c r="E5">
-        <v>233.16929133858267</v>
-      </c>
-      <c r="F5">
-        <v>311.61417322834649</v>
-      </c>
-      <c r="G5">
-        <v>43701116987.64032</v>
-      </c>
-      <c r="H5">
-        <v>26.686235736010783</v>
-      </c>
-      <c r="I5">
-        <v>23.029191879359463</v>
-      </c>
-      <c r="J5">
-        <v>24.327221678659999</v>
-      </c>
-      <c r="K5">
-        <v>20.670177822008679</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.10400000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B22" s="44">
+        <v>47.821455938697326</v>
+      </c>
+      <c r="C22" s="20">
+        <v>198.4</v>
+      </c>
+      <c r="D22" s="44">
+        <f t="shared" si="1"/>
+        <v>414.8765362859935</v>
+      </c>
+      <c r="E22" s="44">
+        <f t="shared" si="2"/>
+        <v>6.0279809730426068</v>
+      </c>
+      <c r="F22" s="44">
+        <f t="shared" si="5"/>
+        <v>3.7842363722941919E-2</v>
+      </c>
+      <c r="G22" s="44">
+        <v>175.1</v>
+      </c>
+      <c r="H22" s="44">
+        <f t="shared" si="7"/>
+        <v>366.15363661127748</v>
+      </c>
+      <c r="I22" s="44">
+        <f t="shared" si="8"/>
+        <v>5.9030530174836411</v>
+      </c>
+      <c r="J22" s="44">
+        <f t="shared" si="9"/>
+        <v>3.5164456324458193E-2</v>
+      </c>
+      <c r="K22">
+        <v>132.9</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>277.90872818754303</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>5.6272927439110347</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>4.2619242699533544E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="46">
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="B6">
-        <v>101.90294957183634</v>
-      </c>
-      <c r="C6">
-        <v>132.82588011417698</v>
-      </c>
-      <c r="D6">
-        <v>181.63653663177928</v>
-      </c>
-      <c r="E6">
-        <v>248.33491912464322</v>
-      </c>
-      <c r="F6">
-        <v>331.30352045670793</v>
-      </c>
-      <c r="G6">
-        <v>45327709431.349014</v>
-      </c>
-      <c r="H6">
-        <v>27.122199280851788</v>
-      </c>
-      <c r="I6">
-        <v>23.505372400940615</v>
-      </c>
-      <c r="J6">
-        <v>24.720857000417389</v>
-      </c>
-      <c r="K6">
-        <v>21.10403012050622</v>
-      </c>
-      <c r="L6" s="1">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B23" s="44">
+        <v>49.619157088122627</v>
+      </c>
+      <c r="C23" s="20">
+        <v>215.5</v>
+      </c>
+      <c r="D23" s="44">
+        <f t="shared" si="1"/>
+        <v>434.30806294689029</v>
+      </c>
+      <c r="E23" s="44">
+        <f t="shared" si="2"/>
+        <v>6.073754104753867</v>
+      </c>
+      <c r="F23" s="44">
+        <f t="shared" si="5"/>
+        <v>4.5773131711260184E-2</v>
+      </c>
+      <c r="G23" s="44">
+        <v>190.9</v>
+      </c>
+      <c r="H23" s="44">
+        <f t="shared" si="7"/>
+        <v>384.7304371998207</v>
+      </c>
+      <c r="I23" s="44">
+        <f t="shared" si="8"/>
+        <v>5.9525429259417661</v>
+      </c>
+      <c r="J23" s="44">
+        <f t="shared" si="9"/>
+        <v>4.9489908458125065E-2</v>
+      </c>
+      <c r="K23">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>292.83044801013068</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>5.6795937657863016</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>5.2301021875266862E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="46">
+        <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="B7">
-        <v>106.25566636446057</v>
-      </c>
-      <c r="C7">
-        <v>137.53399818676337</v>
-      </c>
-      <c r="D7">
-        <v>189.75521305530373</v>
-      </c>
-      <c r="E7">
-        <v>260.56210335448776</v>
-      </c>
-      <c r="F7">
-        <v>347.23481414324567</v>
-      </c>
-      <c r="G7">
-        <v>46574763638.192352</v>
-      </c>
-      <c r="H7">
-        <v>27.042321972527429</v>
-      </c>
-      <c r="I7">
-        <v>23.380265251113485</v>
-      </c>
-      <c r="J7">
-        <v>24.726021488878416</v>
-      </c>
-      <c r="K7">
-        <v>21.063964767464466</v>
-      </c>
-      <c r="L7" s="1">
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B24" s="44">
+        <v>52.218007662835248</v>
+      </c>
+      <c r="C24" s="20">
+        <v>235.5</v>
+      </c>
+      <c r="D24" s="44">
+        <f t="shared" si="1"/>
+        <v>450.99384396392958</v>
+      </c>
+      <c r="E24" s="44">
+        <f t="shared" si="2"/>
+        <v>6.1114536896621354</v>
+      </c>
+      <c r="F24" s="44">
+        <f t="shared" si="5"/>
+        <v>3.7699584908268413E-2</v>
+      </c>
+      <c r="G24" s="44">
+        <v>209.3</v>
+      </c>
+      <c r="H24" s="44">
+        <f t="shared" si="7"/>
+        <v>400.81958191783633</v>
+      </c>
+      <c r="I24" s="44">
+        <f t="shared" si="8"/>
+        <v>5.9935114056576166</v>
+      </c>
+      <c r="J24" s="44">
+        <f t="shared" si="9"/>
+        <v>4.0968479715850492E-2</v>
+      </c>
+      <c r="K24">
+        <v>160.1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>306.59921196868419</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>5.7255413962083317</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>4.5947630422030095E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="46">
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="B8">
-        <v>108.66610025488531</v>
-      </c>
-      <c r="C8">
-        <v>141.03653355989803</v>
-      </c>
-      <c r="D8">
-        <v>194.90229396771451</v>
-      </c>
-      <c r="E8">
-        <v>267.20475785896343</v>
-      </c>
-      <c r="F8">
-        <v>358.28377230246389</v>
-      </c>
-      <c r="G8">
-        <v>46466324141.945107</v>
-      </c>
-      <c r="H8">
-        <v>27.238107174452104</v>
-      </c>
-      <c r="I8">
-        <v>23.507022038663326</v>
-      </c>
-      <c r="J8">
-        <v>24.969797770892992</v>
-      </c>
-      <c r="K8">
-        <v>21.238712635104211</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B25" s="44">
+        <v>55.859003831417631</v>
+      </c>
+      <c r="C25" s="20">
+        <v>258.2</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="1"/>
+        <v>462.23523924495163</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="2"/>
+        <v>6.1360739373505728</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="5"/>
+        <v>2.4620247688437402E-2</v>
+      </c>
+      <c r="G25" s="44">
+        <v>229.4</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="7"/>
+        <v>410.67685469710267</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="8"/>
+        <v>6.0178066636333014</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="9"/>
+        <v>2.429525797568477E-2</v>
+      </c>
+      <c r="K25">
+        <v>177.5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>317.76434920983314</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>5.7613100678535014</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>3.5768671645169725E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="B9">
-        <v>110.73985680190928</v>
-      </c>
-      <c r="C9">
-        <v>143.03898170246617</v>
-      </c>
-      <c r="D9">
-        <v>196.42004773269687</v>
-      </c>
-      <c r="E9">
-        <v>271.99681782020679</v>
-      </c>
-      <c r="F9">
-        <v>363.24582338902144</v>
-      </c>
-      <c r="G9">
-        <v>44568632957.618294</v>
-      </c>
-      <c r="H9">
-        <v>28.032096330561199</v>
-      </c>
-      <c r="I9">
-        <v>24.142619336029767</v>
-      </c>
-      <c r="J9">
-        <v>25.559147938620445</v>
-      </c>
-      <c r="K9">
-        <v>21.669670944089013</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8.900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B26" s="44">
+        <v>60.06666666666667</v>
+      </c>
+      <c r="C26" s="20">
+        <v>277.5</v>
+      </c>
+      <c r="D26" s="44">
+        <f t="shared" si="1"/>
+        <v>461.98668146503883</v>
+      </c>
+      <c r="E26" s="44">
+        <f t="shared" si="2"/>
+        <v>6.1355360626684528</v>
+      </c>
+      <c r="F26" s="44">
+        <f t="shared" si="5"/>
+        <v>-5.3787468212007639E-4</v>
+      </c>
+      <c r="G26" s="44">
+        <v>246.9</v>
+      </c>
+      <c r="H26" s="44">
+        <f t="shared" si="7"/>
+        <v>411.04328523862375</v>
+      </c>
+      <c r="I26" s="44">
+        <f t="shared" si="8"/>
+        <v>6.0186985258330976</v>
+      </c>
+      <c r="J26" s="44">
+        <f t="shared" si="9"/>
+        <v>8.9186219979620063E-4</v>
+      </c>
+      <c r="K26">
+        <v>195.7</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>325.80466148723639</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>5.786298003883994</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>2.4987936030492541E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="46">
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="B10">
-        <v>113.65030674846625</v>
-      </c>
-      <c r="C10">
-        <v>146.9325153374233</v>
-      </c>
-      <c r="D10">
-        <v>202.91411042944787</v>
-      </c>
-      <c r="E10">
-        <v>280.90490797546011</v>
-      </c>
-      <c r="F10">
-        <v>375.38343558282207</v>
-      </c>
-      <c r="G10">
-        <v>43375798498.898582</v>
-      </c>
-      <c r="H10">
-        <v>28.852415832166049</v>
-      </c>
-      <c r="I10">
-        <v>24.874793742950651</v>
-      </c>
-      <c r="J10">
-        <v>26.307004556840567</v>
-      </c>
-      <c r="K10">
-        <v>22.329382467625166</v>
-      </c>
-      <c r="L10" s="1">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B27" s="44">
+        <v>62.626436781609222</v>
+      </c>
+      <c r="C27" s="20">
+        <v>295.89999999999998</v>
+      </c>
+      <c r="D27" s="44">
+        <f t="shared" si="1"/>
+        <v>472.48416995503328</v>
+      </c>
+      <c r="E27" s="44">
+        <f t="shared" si="2"/>
+        <v>6.1580042436318978</v>
+      </c>
+      <c r="F27" s="44">
+        <f t="shared" si="5"/>
+        <v>2.246818096344505E-2</v>
+      </c>
+      <c r="G27" s="44">
+        <v>264.60000000000002</v>
+      </c>
+      <c r="H27" s="44">
+        <f t="shared" si="7"/>
+        <v>422.5052766816554</v>
+      </c>
+      <c r="I27" s="44">
+        <f t="shared" si="8"/>
+        <v>6.0462019359065895</v>
+      </c>
+      <c r="J27" s="44">
+        <f t="shared" si="9"/>
+        <v>2.7503410073491885E-2</v>
+      </c>
+      <c r="K27">
+        <v>211.3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>337.39744883912994</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>5.8212616088477454</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>3.4963604963751393E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
+        <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="B11">
-        <v>114.44610778443115</v>
-      </c>
-      <c r="C11">
-        <v>148.72754491017966</v>
-      </c>
-      <c r="D11">
-        <v>204.56586826347308</v>
-      </c>
-      <c r="E11">
-        <v>285.02994011976051</v>
-      </c>
-      <c r="F11">
-        <v>381.36227544910184</v>
-      </c>
-      <c r="G11">
-        <v>42833601017.662354</v>
-      </c>
-      <c r="H11">
-        <v>29.855741130127313</v>
-      </c>
-      <c r="I11">
-        <v>25.74670104927749</v>
-      </c>
-      <c r="J11">
-        <v>27.260439537086576</v>
-      </c>
-      <c r="K11">
-        <v>23.151399456236749</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.10400000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B28" s="44">
+        <v>64.196168582375506</v>
+      </c>
+      <c r="C28" s="20">
+        <v>304.60000000000002</v>
+      </c>
+      <c r="D28" s="44">
+        <f t="shared" si="1"/>
+        <v>474.48314553093951</v>
+      </c>
+      <c r="E28" s="44">
+        <f t="shared" si="2"/>
+        <v>6.1622260969363749</v>
+      </c>
+      <c r="F28" s="44">
+        <f t="shared" si="5"/>
+        <v>4.2218533044771078E-3</v>
+      </c>
+      <c r="G28" s="44">
+        <v>273.3</v>
+      </c>
+      <c r="H28" s="44">
+        <f t="shared" si="7"/>
+        <v>425.72634167303272</v>
+      </c>
+      <c r="I28" s="44">
+        <f t="shared" si="8"/>
+        <v>6.0537967494093357</v>
+      </c>
+      <c r="J28" s="44">
+        <f t="shared" si="9"/>
+        <v>7.5948135027461561E-3</v>
+      </c>
+      <c r="K28">
+        <v>221.6</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>345.19194041252854</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>5.8441006113484422</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>2.2839002500696814E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="46">
+        <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="B12">
-        <v>116.39705882352941</v>
-      </c>
-      <c r="C12">
-        <v>150.14705882352939</v>
-      </c>
-      <c r="D12">
-        <v>207.27941176470586</v>
-      </c>
-      <c r="E12">
-        <v>286.61764705882354</v>
-      </c>
-      <c r="F12">
-        <v>385.66176470588232</v>
-      </c>
-      <c r="G12">
-        <v>43755336735.763947</v>
-      </c>
-      <c r="H12">
-        <v>30.228668724608166</v>
-      </c>
-      <c r="I12">
-        <v>26.052398851057418</v>
-      </c>
-      <c r="J12">
-        <v>27.520259881549194</v>
-      </c>
-      <c r="K12">
-        <v>23.343990007998439</v>
-      </c>
-      <c r="L12" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B29" s="44">
+        <v>65.466283524904227</v>
+      </c>
+      <c r="C29" s="20">
+        <v>312.8</v>
+      </c>
+      <c r="D29" s="44">
+        <f t="shared" si="1"/>
+        <v>477.80320366132719</v>
+      </c>
+      <c r="E29" s="44">
+        <f t="shared" si="2"/>
+        <v>6.1691989398950309</v>
+      </c>
+      <c r="F29" s="44">
+        <f t="shared" si="5"/>
+        <v>6.972842958655967E-3</v>
+      </c>
+      <c r="G29" s="44">
+        <v>281.89999999999998</v>
+      </c>
+      <c r="H29" s="44">
+        <f t="shared" si="7"/>
+        <v>430.60333475744284</v>
+      </c>
+      <c r="I29" s="44">
+        <f t="shared" si="8"/>
+        <v>6.0651873293439413</v>
+      </c>
+      <c r="J29" s="44">
+        <f t="shared" si="9"/>
+        <v>1.1390579934605682E-2</v>
+      </c>
+      <c r="K29">
+        <v>229.4</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>350.40938273628024</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>5.8591021359191444</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>1.5001524570702252E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="46">
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
-      <c r="B13">
-        <v>114.20413990007138</v>
-      </c>
-      <c r="C13">
-        <v>149.67880085653104</v>
-      </c>
-      <c r="D13">
-        <v>207.20913633119201</v>
-      </c>
-      <c r="E13">
-        <v>287.79443254817988</v>
-      </c>
-      <c r="F13">
-        <v>387.22341184867952</v>
-      </c>
-      <c r="G13">
-        <v>44351753965.123802</v>
-      </c>
-      <c r="H13">
-        <v>30.535085033193749</v>
-      </c>
-      <c r="I13">
-        <v>26.346285548969639</v>
-      </c>
-      <c r="J13">
-        <v>27.691400054390922</v>
-      </c>
-      <c r="K13">
-        <v>23.502600570166813</v>
-      </c>
-      <c r="L13" s="1">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B30" s="44">
+        <v>67.205363984674321</v>
+      </c>
+      <c r="C30" s="20">
+        <v>323.2</v>
+      </c>
+      <c r="D30" s="44">
+        <f t="shared" si="1"/>
+        <v>480.91399382005187</v>
+      </c>
+      <c r="E30" s="44">
+        <f t="shared" si="2"/>
+        <v>6.1756884470909599</v>
+      </c>
+      <c r="F30" s="44">
+        <f t="shared" si="5"/>
+        <v>6.4895071959290007E-3</v>
+      </c>
+      <c r="G30" s="44">
+        <v>290.3</v>
+      </c>
+      <c r="H30" s="44">
+        <f t="shared" si="7"/>
+        <v>431.95956808775082</v>
+      </c>
+      <c r="I30" s="44">
+        <f t="shared" si="8"/>
+        <v>6.0683319914746034</v>
+      </c>
+      <c r="J30" s="44">
+        <f t="shared" si="9"/>
+        <v>3.1446621306621125E-3</v>
+      </c>
+      <c r="K30">
+        <v>237.2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>352.94801774169645</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>5.8663207875675898</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>7.2186516484453733E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="46">
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="B14">
-        <v>115.66181566181567</v>
-      </c>
-      <c r="C14">
-        <v>151.00485100485099</v>
-      </c>
-      <c r="D14">
-        <v>208.66250866250866</v>
-      </c>
-      <c r="E14">
-        <v>291.47609147609148</v>
-      </c>
-      <c r="F14">
-        <v>396.2577962577962</v>
-      </c>
-      <c r="G14">
-        <v>44731292201.989166</v>
-      </c>
-      <c r="H14">
-        <v>31.058845423082921</v>
-      </c>
-      <c r="I14">
-        <v>26.928430907185298</v>
-      </c>
-      <c r="J14">
-        <v>28.215198532096313</v>
-      </c>
-      <c r="K14">
-        <v>24.084784016198689</v>
-      </c>
-      <c r="L14" s="1">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B31" s="44">
+        <v>68.818500000000014</v>
+      </c>
+      <c r="C31" s="20">
+        <v>334.9</v>
+      </c>
+      <c r="D31" s="44">
+        <f t="shared" si="1"/>
+        <v>486.64239993606355</v>
+      </c>
+      <c r="E31" s="44">
+        <f t="shared" si="2"/>
+        <v>6.1875295616459898</v>
+      </c>
+      <c r="F31" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1841114555029897E-2</v>
+      </c>
+      <c r="G31" s="44">
+        <v>301.10000000000002</v>
+      </c>
+      <c r="H31" s="44">
+        <f t="shared" si="7"/>
+        <v>437.52769967377952</v>
+      </c>
+      <c r="I31" s="44">
+        <f t="shared" si="8"/>
+        <v>6.0811400173335191</v>
+      </c>
+      <c r="J31" s="44">
+        <f t="shared" si="9"/>
+        <v>1.2808025858915606E-2</v>
+      </c>
+      <c r="K31">
+        <v>248.1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>360.51352470629257</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>5.8875294725435863</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>2.1208684975996484E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="46">
+        <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="B15">
-        <v>118.16949152542372</v>
-      </c>
-      <c r="C15">
-        <v>155.86440677966101</v>
-      </c>
-      <c r="D15">
-        <v>217.96610169491524</v>
-      </c>
-      <c r="E15">
-        <v>303.59322033898303</v>
-      </c>
-      <c r="F15">
-        <v>408.81355932203388</v>
-      </c>
-      <c r="G15">
-        <v>45490368675.719894</v>
-      </c>
-      <c r="H15">
-        <v>32.046471656222145</v>
-      </c>
-      <c r="I15">
-        <v>27.921728527308783</v>
-      </c>
-      <c r="J15">
-        <v>28.970577758811409</v>
-      </c>
-      <c r="K15">
-        <v>24.845834629898043</v>
-      </c>
-      <c r="L15" s="1">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B32" s="44">
+        <v>70.07416666666667</v>
+      </c>
+      <c r="C32" s="20">
+        <v>357.6</v>
+      </c>
+      <c r="D32" s="44">
+        <f t="shared" si="1"/>
+        <v>510.31645042752325</v>
+      </c>
+      <c r="E32" s="44">
+        <f t="shared" si="2"/>
+        <v>6.2350310243277631</v>
+      </c>
+      <c r="F32" s="44">
+        <f t="shared" si="5"/>
+        <v>4.7501462681773354E-2</v>
+      </c>
+      <c r="G32" s="44">
+        <v>321.5</v>
+      </c>
+      <c r="H32" s="44">
+        <f t="shared" si="7"/>
+        <v>458.79960518022568</v>
+      </c>
+      <c r="I32" s="44">
+        <f t="shared" si="8"/>
+        <v>6.1286135247060782</v>
+      </c>
+      <c r="J32" s="44">
+        <f t="shared" si="9"/>
+        <v>4.7473507372559176E-2</v>
+      </c>
+      <c r="K32">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>379.74051302786336</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>5.9394881590120479</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>5.1958686468461579E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="46">
+        <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="B16">
-        <v>121.08072048032021</v>
-      </c>
-      <c r="C16">
-        <v>159.43962641761172</v>
-      </c>
-      <c r="D16">
-        <v>224.01601067378252</v>
-      </c>
-      <c r="E16">
-        <v>312.80853902601729</v>
-      </c>
-      <c r="F16">
-        <v>425.81721147431614</v>
-      </c>
-      <c r="G16">
-        <v>45869906912.585251</v>
-      </c>
-      <c r="H16">
-        <v>32.882335483002329</v>
-      </c>
-      <c r="I16">
-        <v>28.697078648808592</v>
-      </c>
-      <c r="J16">
-        <v>29.631647365987764</v>
-      </c>
-      <c r="K16">
-        <v>25.446390531794023</v>
-      </c>
-      <c r="L16" s="1">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B33" s="44">
+        <v>71.165500000000009</v>
+      </c>
+      <c r="C33" s="20">
+        <v>373.6</v>
+      </c>
+      <c r="D33" s="44">
+        <f t="shared" si="1"/>
+        <v>524.97347731695834</v>
+      </c>
+      <c r="E33" s="44">
+        <f t="shared" si="2"/>
+        <v>6.2633477419192065</v>
+      </c>
+      <c r="F33" s="44">
+        <f t="shared" si="5"/>
+        <v>2.8316717591443386E-2</v>
+      </c>
+      <c r="G33" s="44">
+        <v>335.8</v>
+      </c>
+      <c r="H33" s="44">
+        <f t="shared" si="7"/>
+        <v>471.85785247064939</v>
+      </c>
+      <c r="I33" s="44">
+        <f t="shared" si="8"/>
+        <v>6.1566777802079589</v>
+      </c>
+      <c r="J33" s="44">
+        <f t="shared" si="9"/>
+        <v>2.8064255501880631E-2</v>
+      </c>
+      <c r="K33">
+        <v>277.2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>389.51458220626563</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>5.9649013028802669</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>2.5413143868219024E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="46">
+        <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="B17">
-        <v>125.66137566137567</v>
-      </c>
-      <c r="C17">
-        <v>164.74867724867727</v>
-      </c>
-      <c r="D17">
-        <v>229.03439153439157</v>
-      </c>
-      <c r="E17">
-        <v>320.96560846560851</v>
-      </c>
-      <c r="F17">
-        <v>438.88888888888897</v>
-      </c>
-      <c r="G17">
-        <v>46249445149.450615</v>
-      </c>
-      <c r="H17">
-        <v>33.616965908246151</v>
-      </c>
-      <c r="I17">
-        <v>29.27763806187783</v>
-      </c>
-      <c r="J17">
-        <v>30.167035286730883</v>
-      </c>
-      <c r="K17">
-        <v>25.827707440362563</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B34" s="44">
+        <v>72.11108333333334</v>
+      </c>
+      <c r="C34" s="20">
+        <v>384.3</v>
+      </c>
+      <c r="D34" s="44">
+        <f t="shared" si="1"/>
+        <v>532.92778618173577</v>
+      </c>
+      <c r="E34" s="44">
+        <f t="shared" si="2"/>
+        <v>6.2783859293991053</v>
+      </c>
+      <c r="F34" s="44">
+        <f t="shared" si="5"/>
+        <v>1.5038187479898824E-2</v>
+      </c>
+      <c r="G34" s="44">
+        <v>346.3</v>
+      </c>
+      <c r="H34" s="44">
+        <f t="shared" si="7"/>
+        <v>480.23130979634431</v>
+      </c>
+      <c r="I34" s="44">
+        <f t="shared" si="8"/>
+        <v>6.1742678832366833</v>
+      </c>
+      <c r="J34" s="44">
+        <f t="shared" si="9"/>
+        <v>1.7590103028724435E-2</v>
+      </c>
+      <c r="K34">
+        <v>289.3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>401.18659521825703</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>5.9944266438103968</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>2.9525340930129929E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="46">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="B18">
-        <v>129.74934036939314</v>
-      </c>
-      <c r="C18">
-        <v>169.72295514511873</v>
-      </c>
-      <c r="D18">
-        <v>237.46701846965698</v>
-      </c>
-      <c r="E18">
-        <v>332.05804749340365</v>
-      </c>
-      <c r="F18">
-        <v>454.74934036939311</v>
-      </c>
-      <c r="G18">
-        <v>46357884645.697861</v>
-      </c>
-      <c r="H18">
-        <v>34.970037535504822</v>
-      </c>
-      <c r="I18">
-        <v>30.424782800339941</v>
-      </c>
-      <c r="J18">
-        <v>31.372585847560615</v>
-      </c>
-      <c r="K18">
-        <v>26.827331112395736</v>
-      </c>
-      <c r="L18" s="1">
-        <v>5.4000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B35" s="44">
+        <v>72.685416666666669</v>
+      </c>
+      <c r="C35" s="20">
+        <v>398.9</v>
+      </c>
+      <c r="D35" s="44">
+        <f t="shared" si="1"/>
+        <v>548.80334776003895</v>
+      </c>
+      <c r="E35" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3077401765389132</v>
+      </c>
+      <c r="F35" s="44">
+        <f t="shared" si="5"/>
+        <v>2.9354247139807832E-2</v>
+      </c>
+      <c r="G35" s="44">
+        <v>360</v>
+      </c>
+      <c r="H35" s="44">
+        <f t="shared" si="7"/>
+        <v>495.28504686290808</v>
+      </c>
+      <c r="I35" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2051334490777084</v>
+      </c>
+      <c r="J35" s="44">
+        <f t="shared" si="9"/>
+        <v>3.0865565841025067E-2</v>
+      </c>
+      <c r="K35">
+        <v>298.89999999999998</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>411.22416807589781</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>6.019138486917444</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>2.4711843107047216E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="46">
+        <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="B19">
-        <v>135.37146614069692</v>
-      </c>
-      <c r="C19">
-        <v>176.66009204470743</v>
-      </c>
-      <c r="D19">
-        <v>248.12623274161734</v>
-      </c>
-      <c r="E19">
-        <v>348.1262327416174</v>
-      </c>
-      <c r="F19">
-        <v>484.54963839579227</v>
-      </c>
-      <c r="G19">
-        <v>46845862378.810471</v>
-      </c>
-      <c r="H19">
-        <v>35.509561950172738</v>
-      </c>
-      <c r="I19">
-        <v>30.779631973122026</v>
-      </c>
-      <c r="J19">
-        <v>31.94607353355082</v>
-      </c>
-      <c r="K19">
-        <v>27.216143556500104</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B36" s="44">
+        <v>73.581999999999994</v>
+      </c>
+      <c r="C36" s="20">
+        <v>417.2</v>
+      </c>
+      <c r="D36" s="44">
+        <f t="shared" si="1"/>
+        <v>566.98649126144983</v>
+      </c>
+      <c r="E36" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3403354785082193</v>
+      </c>
+      <c r="F36" s="44">
+        <f t="shared" si="5"/>
+        <v>3.2595301969306156E-2</v>
+      </c>
+      <c r="G36" s="44">
+        <v>377.4</v>
+      </c>
+      <c r="H36" s="44">
+        <f t="shared" si="7"/>
+        <v>512.89717593976786</v>
+      </c>
+      <c r="I36" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2400753883160514</v>
+      </c>
+      <c r="J36" s="44">
+        <f t="shared" si="9"/>
+        <v>3.4941939238342989E-2</v>
+      </c>
+      <c r="K36">
+        <v>315.39999999999998</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>428.63743850398197</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>6.0606114299105398</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>4.1472942993095785E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="46">
+        <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="B20">
-        <v>142.00792602377808</v>
-      </c>
-      <c r="C20">
-        <v>185.07265521796563</v>
-      </c>
-      <c r="D20">
-        <v>259.04887714663141</v>
-      </c>
-      <c r="E20">
-        <v>365.78599735799202</v>
-      </c>
-      <c r="F20">
-        <v>508.58652575957728</v>
-      </c>
-      <c r="G20">
-        <v>46737422882.563225</v>
-      </c>
-      <c r="H20">
-        <v>36.210489128471231</v>
-      </c>
-      <c r="I20">
-        <v>31.314847799127129</v>
-      </c>
-      <c r="J20">
-        <v>32.585243048544093</v>
-      </c>
-      <c r="K20">
-        <v>27.689601719199992</v>
-      </c>
-      <c r="L20" s="1">
-        <v>5.2000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B37" s="44">
+        <v>74.508333333333326</v>
+      </c>
+      <c r="C37" s="20">
+        <v>431.8</v>
+      </c>
+      <c r="D37" s="44">
+        <f t="shared" si="1"/>
+        <v>579.53249077284431</v>
+      </c>
+      <c r="E37" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3622217281155269</v>
+      </c>
+      <c r="F37" s="44">
+        <f t="shared" si="5"/>
+        <v>2.1886249607307562E-2</v>
+      </c>
+      <c r="G37" s="44">
+        <v>392.2</v>
+      </c>
+      <c r="H37" s="44">
+        <f t="shared" si="7"/>
+        <v>526.38407336986927</v>
+      </c>
+      <c r="I37" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2660311237970658</v>
+      </c>
+      <c r="J37" s="44">
+        <f t="shared" si="9"/>
+        <v>2.5955735481014486E-2</v>
+      </c>
+      <c r="K37">
+        <v>331.4</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>444.78246281176604</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>6.0975853150272821</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>3.6973885116742267E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="46">
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="B21">
-        <v>147.167325428195</v>
-      </c>
-      <c r="C21">
-        <v>190.57971014492753</v>
-      </c>
-      <c r="D21">
-        <v>266.93017127799737</v>
-      </c>
-      <c r="E21">
-        <v>378.72200263504607</v>
-      </c>
-      <c r="F21">
-        <v>526.0210803689065</v>
-      </c>
-      <c r="G21">
-        <v>46954301875.057709</v>
-      </c>
-      <c r="H21">
-        <v>37.221000873606606</v>
-      </c>
-      <c r="I21">
-        <v>32.192530128548952</v>
-      </c>
-      <c r="J21">
-        <v>33.510478236860749</v>
-      </c>
-      <c r="K21">
-        <v>28.482007491803095</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B38" s="44">
+        <v>75.522833333333338</v>
+      </c>
+      <c r="C38" s="20">
+        <v>446.6</v>
+      </c>
+      <c r="D38" s="44">
+        <f t="shared" si="1"/>
+        <v>591.34433957059343</v>
+      </c>
+      <c r="E38" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3823984866053056</v>
+      </c>
+      <c r="F38" s="44">
+        <f t="shared" si="5"/>
+        <v>2.0176758489778734E-2</v>
+      </c>
+      <c r="G38" s="44">
+        <v>405.2</v>
+      </c>
+      <c r="H38" s="44">
+        <f t="shared" si="7"/>
+        <v>536.52648095388361</v>
+      </c>
+      <c r="I38" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2851159195737765</v>
+      </c>
+      <c r="J38" s="44">
+        <f t="shared" si="9"/>
+        <v>1.9084795776710628E-2</v>
+      </c>
+      <c r="K38">
+        <v>344</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>455.49138560744319</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>6.1213768045726464</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>2.3791489545364364E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="46">
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="B22">
-        <v>151.51315789473685</v>
-      </c>
-      <c r="C22">
-        <v>196.90789473684211</v>
-      </c>
-      <c r="D22">
-        <v>276.51315789473682</v>
-      </c>
-      <c r="E22">
-        <v>389.80263157894734</v>
-      </c>
-      <c r="F22">
-        <v>538.28947368421052</v>
-      </c>
-      <c r="G22">
-        <v>47388059860.046707</v>
-      </c>
-      <c r="H22">
-        <v>37.768288154241347</v>
-      </c>
-      <c r="I22">
-        <v>32.722082295980101</v>
-      </c>
-      <c r="J22">
-        <v>33.964037690160389</v>
-      </c>
-      <c r="K22">
-        <v>28.917831831899143</v>
-      </c>
-      <c r="L22" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B39" s="44">
+        <v>76.537500000000009</v>
+      </c>
+      <c r="C39" s="20">
+        <v>464.8</v>
+      </c>
+      <c r="D39" s="44">
+        <f t="shared" si="1"/>
+        <v>607.2840111056671</v>
+      </c>
+      <c r="E39" s="44">
+        <f t="shared" si="2"/>
+        <v>6.4089965747217201</v>
+      </c>
+      <c r="F39" s="44">
+        <f t="shared" si="5"/>
+        <v>2.6598088116414509E-2</v>
+      </c>
+      <c r="G39" s="44">
+        <v>424.2</v>
+      </c>
+      <c r="H39" s="44">
+        <f t="shared" si="7"/>
+        <v>554.23811856932866</v>
+      </c>
+      <c r="I39" s="44">
+        <f t="shared" si="8"/>
+        <v>6.3175944113146008</v>
+      </c>
+      <c r="J39" s="44">
+        <f t="shared" si="9"/>
+        <v>3.2478491740824289E-2</v>
+      </c>
+      <c r="K39">
+        <v>361.4</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>472.18683651804662</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>6.1573747473421463</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>3.5997942769499858E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="46">
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="B23">
-        <v>154.84927916120577</v>
-      </c>
-      <c r="C23">
-        <v>200.85190039318479</v>
-      </c>
-      <c r="D23">
-        <v>282.89646133682828</v>
-      </c>
-      <c r="E23">
-        <v>401.90039318479683</v>
-      </c>
-      <c r="F23">
-        <v>559.50196592398424</v>
-      </c>
-      <c r="G23">
-        <v>48038696837.530174</v>
-      </c>
-      <c r="H23">
-        <v>38.261669380629066</v>
-      </c>
-      <c r="I23">
-        <v>33.150918802505885</v>
-      </c>
-      <c r="J23">
-        <v>34.463729248543409</v>
-      </c>
-      <c r="K23">
-        <v>29.352978670420228</v>
-      </c>
-      <c r="L23" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B40" s="44">
+        <v>78.111833333333323</v>
+      </c>
+      <c r="C40" s="20">
+        <v>472.9</v>
+      </c>
+      <c r="D40" s="44">
+        <f t="shared" si="1"/>
+        <v>605.41403244493472</v>
+      </c>
+      <c r="E40" s="44">
+        <f t="shared" si="2"/>
+        <v>6.4059125751180277</v>
+      </c>
+      <c r="F40" s="44">
+        <f t="shared" si="5"/>
+        <v>-3.0839996036924333E-3</v>
+      </c>
+      <c r="G40" s="44">
+        <v>431.7</v>
+      </c>
+      <c r="H40" s="44">
+        <f t="shared" si="7"/>
+        <v>552.66914317292947</v>
+      </c>
+      <c r="I40" s="44">
+        <f t="shared" si="8"/>
+        <v>6.3147595280296294</v>
+      </c>
+      <c r="J40" s="44">
+        <f t="shared" si="9"/>
+        <v>-2.8348832849713901E-3</v>
+      </c>
+      <c r="K40">
+        <v>372</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>476.24026235888294</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>6.1659224797413437</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>8.5477323991973719E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="46">
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="B24">
-        <v>158.29015544041451</v>
-      </c>
-      <c r="C24">
-        <v>204.79274611398964</v>
-      </c>
-      <c r="D24">
-        <v>288.08290155440415</v>
-      </c>
-      <c r="E24">
-        <v>409.45595854922283</v>
-      </c>
-      <c r="F24">
-        <v>573.38082901554401</v>
-      </c>
-      <c r="G24">
-        <v>48309795578.148293</v>
-      </c>
-      <c r="H24">
-        <v>38.965214238627631</v>
-      </c>
-      <c r="I24">
-        <v>33.711054855603614</v>
-      </c>
-      <c r="J24">
-        <v>35.097619504238907</v>
-      </c>
-      <c r="K24">
-        <v>29.843460121214878</v>
-      </c>
-      <c r="L24" s="1">
-        <v>5.4000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B41" s="44">
+        <v>79.930833333333339</v>
+      </c>
+      <c r="C41" s="20">
+        <v>489</v>
+      </c>
+      <c r="D41" s="44">
+        <f t="shared" si="1"/>
+        <v>611.77893386990831</v>
+      </c>
+      <c r="E41" s="44">
+        <f t="shared" si="2"/>
+        <v>6.4163709980901515</v>
+      </c>
+      <c r="F41" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0458422972123849E-2</v>
+      </c>
+      <c r="G41" s="44">
+        <v>447.9</v>
+      </c>
+      <c r="H41" s="44">
+        <f t="shared" si="7"/>
+        <v>560.35947746489148</v>
+      </c>
+      <c r="I41" s="44">
+        <f t="shared" si="8"/>
+        <v>6.3285785018285337</v>
+      </c>
+      <c r="J41" s="44">
+        <f t="shared" si="9"/>
+        <v>1.3818973798904288E-2</v>
+      </c>
+      <c r="K41">
+        <v>386</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>482.9175224412773</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>6.1798458780801102</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>1.3923398338766546E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="46">
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="B25">
-        <v>161.41131595677049</v>
-      </c>
-      <c r="C25">
-        <v>208.01017164653524</v>
-      </c>
-      <c r="D25">
-        <v>291.9898283534647</v>
-      </c>
-      <c r="E25">
-        <v>414.49459631277807</v>
-      </c>
-      <c r="F25">
-        <v>579.65670692943411</v>
-      </c>
-      <c r="G25">
-        <v>48797773311.260902</v>
-      </c>
-      <c r="H25">
-        <v>39.567302337429325</v>
-      </c>
-      <c r="I25">
-        <v>34.186395952108541</v>
-      </c>
-      <c r="J25">
-        <v>35.610180180065662</v>
-      </c>
-      <c r="K25">
-        <v>30.229273794744874</v>
-      </c>
-      <c r="L25" s="1">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B42" s="44">
+        <v>81.787499999999994</v>
+      </c>
+      <c r="C42" s="20">
+        <v>500</v>
+      </c>
+      <c r="D42" s="44">
+        <f t="shared" si="1"/>
+        <v>611.34036374751645</v>
+      </c>
+      <c r="E42" s="44">
+        <f t="shared" si="2"/>
+        <v>6.4156538642144261</v>
+      </c>
+      <c r="F42" s="44">
+        <f t="shared" si="5"/>
+        <v>-7.1713387572547305E-4</v>
+      </c>
+      <c r="G42" s="44">
+        <v>459.3</v>
+      </c>
+      <c r="H42" s="44">
+        <f t="shared" si="7"/>
+        <v>561.57725813846866</v>
+      </c>
+      <c r="I42" s="44">
+        <f t="shared" si="8"/>
+        <v>6.3307493571239819</v>
+      </c>
+      <c r="J42" s="44">
+        <f t="shared" si="9"/>
+        <v>2.1708552954482485E-3</v>
+      </c>
+      <c r="K42">
+        <v>395.6</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>483.69249579703506</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>6.1814493655407912</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>1.6034874606809524E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="46">
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="B26">
-        <v>161.43470263641939</v>
-      </c>
-      <c r="C26">
-        <v>208.64500306560393</v>
-      </c>
-      <c r="D26">
-        <v>293.74616799509505</v>
-      </c>
-      <c r="E26">
-        <v>417.16738197424894</v>
-      </c>
-      <c r="F26">
-        <v>586.08215818516248</v>
-      </c>
-      <c r="G26">
-        <v>49014652303.755402</v>
-      </c>
-      <c r="H26">
-        <v>39.314059019590729</v>
-      </c>
-      <c r="I26">
-        <v>33.757124338226632</v>
-      </c>
-      <c r="J26">
-        <v>35.574659468880071</v>
-      </c>
-      <c r="K26">
-        <v>30.01772478751597</v>
-      </c>
-      <c r="L26" s="1">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B43" s="44">
+        <v>84.73341666666667</v>
+      </c>
+      <c r="C43" s="20">
+        <v>524.20000000000005</v>
+      </c>
+      <c r="D43" s="44">
+        <f t="shared" si="1"/>
+        <v>618.64612642985207</v>
+      </c>
+      <c r="E43" s="44">
+        <f t="shared" si="2"/>
+        <v>6.4275334233130605</v>
+      </c>
+      <c r="F43" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1879559098634473E-2</v>
+      </c>
+      <c r="G43" s="44">
+        <v>479.1</v>
+      </c>
+      <c r="H43" s="44">
+        <f t="shared" si="7"/>
+        <v>565.42037232457483</v>
+      </c>
+      <c r="I43" s="44">
+        <f t="shared" si="8"/>
+        <v>6.3375694763128312</v>
+      </c>
+      <c r="J43" s="44">
+        <f t="shared" si="9"/>
+        <v>6.8201191888492829E-3</v>
+      </c>
+      <c r="K43">
+        <v>413.2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>487.64704204657545</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>6.189591869669238</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>8.1425041284468591E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="46">
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="B27">
-        <v>163.88888888888889</v>
-      </c>
-      <c r="C27">
-        <v>210.1449275362319</v>
-      </c>
-      <c r="D27">
-        <v>295.83333333333331</v>
-      </c>
-      <c r="E27">
-        <v>419.74637681159425</v>
-      </c>
-      <c r="F27">
-        <v>590.21739130434787</v>
-      </c>
-      <c r="G27">
-        <v>47604938852.541191</v>
-      </c>
-      <c r="H27">
-        <v>38.593690924609419</v>
-      </c>
-      <c r="I27">
-        <v>32.731783316103737</v>
-      </c>
-      <c r="J27">
-        <v>35.139400569397417</v>
-      </c>
-      <c r="K27">
-        <v>29.277492960891731</v>
-      </c>
-      <c r="L27" s="1">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B44" s="44">
+        <v>86.56816666666667</v>
+      </c>
+      <c r="C44" s="20">
+        <v>533.70000000000005</v>
+      </c>
+      <c r="D44" s="44">
+        <f t="shared" si="1"/>
+        <v>616.50837779091239</v>
+      </c>
+      <c r="E44" s="44">
+        <f t="shared" si="2"/>
+        <v>6.4240719117917289</v>
+      </c>
+      <c r="F44" s="44">
+        <f t="shared" si="5"/>
+        <v>-3.4615115213316727E-3</v>
+      </c>
+      <c r="G44" s="44">
+        <v>489.9</v>
+      </c>
+      <c r="H44" s="44">
+        <f t="shared" si="7"/>
+        <v>565.91241199132082</v>
+      </c>
+      <c r="I44" s="44">
+        <f t="shared" si="8"/>
+        <v>6.3384393170963582</v>
+      </c>
+      <c r="J44" s="44">
+        <f t="shared" si="9"/>
+        <v>8.6984078352703165E-4</v>
+      </c>
+      <c r="K44">
+        <v>426.5</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>492.67532907593051</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>6.1998503953835638</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>1.0258525714325728E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="46">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="B28">
-        <v>158.48623853211009</v>
-      </c>
-      <c r="C28">
-        <v>204.01376146788991</v>
-      </c>
-      <c r="D28">
-        <v>286.8692660550459</v>
-      </c>
-      <c r="E28">
-        <v>406.07798165137615</v>
-      </c>
-      <c r="F28">
-        <v>568.34862385321105</v>
-      </c>
-      <c r="G28">
-        <v>47876037593.159309</v>
-      </c>
-      <c r="H28">
-        <v>39.250338904468542</v>
-      </c>
-      <c r="I28">
-        <v>33.478106083899767</v>
-      </c>
-      <c r="J28">
-        <v>35.357155669469165</v>
-      </c>
-      <c r="K28">
-        <v>29.584922848900394</v>
-      </c>
-      <c r="L28" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B45" s="44">
+        <v>89.423333333333346</v>
+      </c>
+      <c r="C45" s="20">
+        <v>540.4</v>
+      </c>
+      <c r="D45" s="44">
+        <f t="shared" si="1"/>
+        <v>604.31654676258984</v>
+      </c>
+      <c r="E45" s="44">
+        <f t="shared" si="2"/>
+        <v>6.4040981446947587</v>
+      </c>
+      <c r="F45" s="44">
+        <f t="shared" si="5"/>
+        <v>-1.9973767096970185E-2</v>
+      </c>
+      <c r="G45" s="44">
+        <v>500.3</v>
+      </c>
+      <c r="H45" s="44">
+        <f t="shared" si="7"/>
+        <v>559.47366459164266</v>
+      </c>
+      <c r="I45" s="44">
+        <f t="shared" si="8"/>
+        <v>6.3269964571028741</v>
+      </c>
+      <c r="J45" s="44">
+        <f t="shared" si="9"/>
+        <v>-1.1442859993484156E-2</v>
+      </c>
+      <c r="K45">
+        <v>439.8</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>491.81794460804412</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>6.1981086167293755</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>-1.7417786541882307E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="46">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="B29">
-        <v>149.43396226415095</v>
-      </c>
-      <c r="C29">
-        <v>191.266846361186</v>
-      </c>
-      <c r="D29">
-        <v>269.54177897574124</v>
-      </c>
-      <c r="E29">
-        <v>382.58760107816715</v>
-      </c>
-      <c r="F29">
-        <v>541.13207547169804</v>
-      </c>
-      <c r="G29">
-        <v>48038696837.530174</v>
-      </c>
-      <c r="H29">
-        <v>39.553588715554078</v>
-      </c>
-      <c r="I29">
-        <v>33.754787426564349</v>
-      </c>
-      <c r="J29">
-        <v>35.312555388302222</v>
-      </c>
-      <c r="K29">
-        <v>29.513754099312479</v>
-      </c>
-      <c r="L29" s="1">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B46" s="44">
+        <v>93.41491666666667</v>
+      </c>
+      <c r="C46" s="20">
+        <v>540.9</v>
+      </c>
+      <c r="D46" s="44">
+        <f t="shared" si="1"/>
+        <v>579.02958039356668</v>
+      </c>
+      <c r="E46" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3613535650306456</v>
+      </c>
+      <c r="F46" s="44">
+        <f t="shared" si="5"/>
+        <v>-4.2744579664113047E-2</v>
+      </c>
+      <c r="G46" s="44">
+        <v>502.6</v>
+      </c>
+      <c r="H46" s="44">
+        <f t="shared" si="7"/>
+        <v>538.02970439232138</v>
+      </c>
+      <c r="I46" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2879137712627564</v>
+      </c>
+      <c r="J46" s="44">
+        <f t="shared" si="9"/>
+        <v>-3.9082685840117648E-2</v>
+      </c>
+      <c r="K46">
+        <v>445.7</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>477.11866145574533</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>6.1677652261057743</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>-3.0343390623601252E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="46">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="B30">
-        <v>147.7035490605428</v>
-      </c>
-      <c r="C30">
-        <v>188.46555323590817</v>
-      </c>
-      <c r="D30">
-        <v>265.08350730688937</v>
-      </c>
-      <c r="E30">
-        <v>374.11273486430059</v>
-      </c>
-      <c r="F30">
-        <v>525.15657620041759</v>
-      </c>
-      <c r="G30">
-        <v>49014652303.755402</v>
-      </c>
-      <c r="H30">
-        <v>39.3731087241921</v>
-      </c>
-      <c r="I30">
-        <v>33.583403155197118</v>
-      </c>
-      <c r="J30">
-        <v>35.189192516293467</v>
-      </c>
-      <c r="K30">
-        <v>29.399486947298488</v>
-      </c>
-      <c r="L30" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B47" s="44">
+        <v>96.056916666666638</v>
+      </c>
+      <c r="C47" s="20">
+        <v>548.29999999999995</v>
+      </c>
+      <c r="D47" s="44">
+        <f t="shared" si="1"/>
+        <v>570.80741192504809</v>
+      </c>
+      <c r="E47" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3470518706708772</v>
+      </c>
+      <c r="F47" s="44">
+        <f t="shared" si="5"/>
+        <v>-1.4301694359768469E-2</v>
+      </c>
+      <c r="G47" s="44">
+        <v>507.9</v>
+      </c>
+      <c r="H47" s="44">
+        <f t="shared" si="7"/>
+        <v>528.7490142563048</v>
+      </c>
+      <c r="I47" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2705138660680735</v>
+      </c>
+      <c r="J47" s="44">
+        <f t="shared" si="9"/>
+        <v>-1.739990519468293E-2</v>
+      </c>
+      <c r="K47">
+        <v>449.3</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>467.74351664768216</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>6.1479201043369889</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>-1.984512176878539E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="46">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="B31">
-        <v>145.98984771573606</v>
-      </c>
-      <c r="C31">
-        <v>187.41116751269035</v>
-      </c>
-      <c r="D31">
-        <v>262.74111675126903</v>
-      </c>
-      <c r="E31">
-        <v>371.2182741116751</v>
-      </c>
-      <c r="F31">
-        <v>519.18781725888323</v>
-      </c>
-      <c r="G31">
-        <v>49990607769.980621</v>
-      </c>
-      <c r="H31">
-        <v>39.287666635355706</v>
-      </c>
-      <c r="I31">
-        <v>33.565775932567192</v>
-      </c>
-      <c r="J31">
-        <v>35.063499388700102</v>
-      </c>
-      <c r="K31">
-        <v>29.341608685911584</v>
-      </c>
-      <c r="L31" s="1">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B48" s="44">
+        <v>98.520583333333349</v>
+      </c>
+      <c r="C48" s="20">
+        <v>558.6</v>
+      </c>
+      <c r="D48" s="44">
+        <f t="shared" si="1"/>
+        <v>566.98811669642635</v>
+      </c>
+      <c r="E48" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3403383453007649</v>
+      </c>
+      <c r="F48" s="44">
+        <f t="shared" si="5"/>
+        <v>-6.7135253701122721E-3</v>
+      </c>
+      <c r="G48" s="44">
+        <v>517.6</v>
+      </c>
+      <c r="H48" s="44">
+        <f t="shared" si="7"/>
+        <v>525.37244755114625</v>
+      </c>
+      <c r="I48" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2641074349763795</v>
+      </c>
+      <c r="J48" s="44">
+        <f t="shared" si="9"/>
+        <v>-6.4064310916940315E-3</v>
+      </c>
+      <c r="K48">
+        <v>459.5</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="3"/>
+        <v>466.39999932332239</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>6.1450436335854297</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>-2.8764707515591681E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="46">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="B32">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="C32">
-        <v>185.35</v>
-      </c>
-      <c r="D32">
-        <v>260.2</v>
-      </c>
-      <c r="E32">
-        <v>368.05</v>
-      </c>
-      <c r="F32">
-        <v>515.20000000000005</v>
-      </c>
-      <c r="G32">
-        <v>51346101473.071198</v>
-      </c>
-      <c r="H32">
-        <v>39.470857342842983</v>
-      </c>
-      <c r="I32">
-        <v>33.792267517392638</v>
-      </c>
-      <c r="J32">
-        <v>35.195088329375523</v>
-      </c>
-      <c r="K32">
-        <v>29.51649850392517</v>
-      </c>
-      <c r="L32" s="1">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B49" s="44">
+        <v>99.96</v>
+      </c>
+      <c r="C49" s="20">
+        <v>561.20000000000005</v>
+      </c>
+      <c r="D49" s="44">
+        <f t="shared" si="1"/>
+        <v>561.42456982793124</v>
+      </c>
+      <c r="E49" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3304774282496457</v>
+      </c>
+      <c r="F49" s="44">
+        <f t="shared" si="5"/>
+        <v>-9.8609170511192445E-3</v>
+      </c>
+      <c r="G49" s="44">
+        <v>520.4</v>
+      </c>
+      <c r="H49" s="44">
+        <f t="shared" si="7"/>
+        <v>520.60824329731895</v>
+      </c>
+      <c r="I49" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2549978266596904</v>
+      </c>
+      <c r="J49" s="44">
+        <f t="shared" si="9"/>
+        <v>-9.1096083166890551E-3</v>
+      </c>
+      <c r="K49">
+        <v>462.2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>462.38495398159267</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>6.1363977778616201</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>-8.6458557238096034E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="46">
+        <f>A51-1</f>
         <v>2015</v>
       </c>
-      <c r="B33">
-        <v>149.84863773965691</v>
-      </c>
-      <c r="C33">
-        <v>191.47325933400606</v>
-      </c>
-      <c r="D33">
-        <v>266.64984863773964</v>
-      </c>
-      <c r="E33">
-        <v>375.12613521695255</v>
-      </c>
-      <c r="F33">
-        <v>524.217961654894</v>
-      </c>
-      <c r="G33">
-        <v>52159397694.925545</v>
-      </c>
-      <c r="H33">
-        <v>39.721296841594523</v>
-      </c>
-      <c r="I33">
-        <v>33.970733008394305</v>
-      </c>
-      <c r="J33">
-        <v>35.422188170316012</v>
-      </c>
-      <c r="K33">
-        <v>29.671624337115787</v>
-      </c>
-      <c r="L33" s="1">
-        <v>5.4000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B50" s="44">
+        <v>100.00008333333334</v>
+      </c>
+      <c r="C50" s="20">
+        <v>570</v>
+      </c>
+      <c r="D50" s="44">
+        <f t="shared" si="1"/>
+        <v>569.99952500039581</v>
+      </c>
+      <c r="E50" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3456355274956096</v>
+      </c>
+      <c r="F50" s="44">
+        <f t="shared" si="5"/>
+        <v>1.5158099245963896E-2</v>
+      </c>
+      <c r="G50" s="44">
+        <v>528.5</v>
+      </c>
+      <c r="H50" s="44">
+        <f t="shared" si="7"/>
+        <v>528.49955958370026</v>
+      </c>
+      <c r="I50" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2700419719773057</v>
+      </c>
+      <c r="J50" s="44">
+        <f t="shared" si="9"/>
+        <v>1.5044145317615332E-2</v>
+      </c>
+      <c r="K50">
+        <v>470.6</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>470.59960783366012</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>6.1540076429602761</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>1.760986509865603E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="46">
         <v>2016</v>
       </c>
-      <c r="B34">
-        <v>156.02015113350126</v>
-      </c>
-      <c r="C34">
-        <v>196.57430730478589</v>
-      </c>
-      <c r="D34">
-        <v>272.09068010075566</v>
-      </c>
-      <c r="E34">
-        <v>385.64231738035261</v>
-      </c>
-      <c r="F34">
-        <v>534.86146095717879</v>
-      </c>
-      <c r="G34">
-        <v>52864254420.532646</v>
-      </c>
-      <c r="H34">
-        <v>39.951963308044036</v>
-      </c>
-      <c r="I34">
-        <v>34.131758155978375</v>
-      </c>
-      <c r="J34">
-        <v>35.598689849523474</v>
-      </c>
-      <c r="K34">
-        <v>29.778484697457813</v>
-      </c>
-      <c r="L34" s="1">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B51" s="44">
+        <v>100.65975</v>
+      </c>
+      <c r="C51" s="20">
+        <v>580.4</v>
+      </c>
+      <c r="D51" s="44">
+        <f t="shared" si="1"/>
+        <v>576.59590849371273</v>
+      </c>
+      <c r="E51" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3571416892611801</v>
+      </c>
+      <c r="F51" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1506161765570511E-2</v>
+      </c>
+      <c r="G51" s="44">
+        <v>540.1</v>
+      </c>
+      <c r="H51" s="44">
+        <f t="shared" si="7"/>
+        <v>536.56004510243667</v>
+      </c>
+      <c r="I51" s="44">
+        <f t="shared" si="8"/>
+        <v>6.2851784758499933</v>
+      </c>
+      <c r="J51" s="44">
+        <f t="shared" si="9"/>
+        <v>1.5136503872687612E-2</v>
+      </c>
+      <c r="K51">
+        <v>480.8</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>477.64871261849942</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>6.1688755514721452</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>1.4867908511869032E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2017</v>
       </c>
-      <c r="B35">
-        <v>154.91525423728814</v>
-      </c>
-      <c r="C35">
-        <v>193.94673123486683</v>
-      </c>
-      <c r="D35">
-        <v>267.31234866828089</v>
-      </c>
-      <c r="E35">
-        <v>376.1743341404358</v>
-      </c>
-      <c r="F35">
-        <v>531.13801452784503</v>
-      </c>
-      <c r="G35">
-        <v>53460671649.892502</v>
-      </c>
-      <c r="H35">
-        <v>40.534372842858325</v>
-      </c>
-      <c r="I35">
-        <v>34.575194330654625</v>
-      </c>
-      <c r="J35">
-        <v>36.14089545897491</v>
-      </c>
-      <c r="K35">
-        <v>30.181716946771218</v>
-      </c>
-      <c r="L35" s="1">
-        <v>4.4000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B52" s="44">
+        <f t="shared" ref="B52:B54" si="10">A52*(100/A$50)</f>
+        <v>100.09925558312656</v>
+      </c>
+      <c r="C52">
+        <v>594</v>
+      </c>
+      <c r="D52" s="44">
+        <f t="shared" si="1"/>
+        <v>593.41100644521566</v>
+      </c>
+      <c r="E52" s="44">
+        <f t="shared" si="2"/>
+        <v>6.3858872557892168</v>
+      </c>
+      <c r="F52" s="44">
+        <f t="shared" si="5"/>
+        <v>2.8745566528036726E-2</v>
+      </c>
+      <c r="G52">
+        <v>552</v>
+      </c>
+      <c r="H52" s="44">
+        <f t="shared" si="7"/>
+        <v>551.45265245413975</v>
+      </c>
+      <c r="I52" s="44">
+        <f t="shared" si="8"/>
+        <v>6.3125559827036666</v>
+      </c>
+      <c r="J52" s="44">
+        <f t="shared" si="9"/>
+        <v>2.7377506853673239E-2</v>
+      </c>
+      <c r="K52">
+        <v>493.5</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>493.01065939514126</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>6.2005307953001081</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="6"/>
+        <v>3.165524382796292E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2018</v>
       </c>
-      <c r="B36">
-        <v>154.84777517564405</v>
-      </c>
-      <c r="C36">
-        <v>193.4426229508197</v>
-      </c>
-      <c r="D36">
-        <v>267.07259953161599</v>
-      </c>
-      <c r="E36">
-        <v>375.12880562060894</v>
-      </c>
-      <c r="F36">
-        <v>531.28805620608898</v>
-      </c>
-      <c r="G36">
-        <v>53894429634.881493</v>
-      </c>
-      <c r="H36">
-        <v>40.792191790623704</v>
-      </c>
-      <c r="I36">
-        <v>34.761883979560906</v>
-      </c>
-      <c r="J36">
-        <v>36.394857409280931</v>
-      </c>
-      <c r="K36">
-        <v>30.36454959821814</v>
-      </c>
-      <c r="L36" s="1">
-        <v>4.0999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B53" s="44">
+        <f t="shared" si="10"/>
+        <v>100.14888337468983</v>
+      </c>
+      <c r="C53">
+        <v>611.1</v>
+      </c>
+      <c r="D53" s="44">
+        <f t="shared" si="1"/>
+        <v>610.19152626362734</v>
+      </c>
+      <c r="E53" s="44">
+        <f t="shared" si="2"/>
+        <v>6.4137728853680986</v>
+      </c>
+      <c r="F53" s="44">
+        <f t="shared" si="5"/>
+        <v>2.7885629578881854E-2</v>
+      </c>
+      <c r="G53">
+        <v>570.20000000000005</v>
+      </c>
+      <c r="H53" s="44">
+        <f t="shared" si="7"/>
+        <v>569.3523290386521</v>
+      </c>
+      <c r="I53" s="44">
+        <f t="shared" si="8"/>
+        <v>6.3444994499458005</v>
+      </c>
+      <c r="J53" s="44">
+        <f t="shared" si="9"/>
+        <v>3.1943467242133927E-2</v>
+      </c>
+      <c r="K53">
+        <v>509.1</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>508.34316154608524</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="4"/>
+        <v>6.2311567343755199</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="6"/>
+        <v>3.0625939075411779E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="46">
         <v>2019</v>
       </c>
-      <c r="B37">
-        <v>159.02618282039504</v>
-      </c>
-      <c r="C37">
-        <v>197.7032613688562</v>
-      </c>
-      <c r="D37">
-        <v>269.63711529627926</v>
-      </c>
-      <c r="E37">
-        <v>378.54846118511716</v>
-      </c>
-      <c r="F37">
-        <v>532.61368856224158</v>
-      </c>
-      <c r="G37">
-        <v>54707725856.73584</v>
-      </c>
-      <c r="H37">
-        <v>40.833739019786918</v>
-      </c>
-      <c r="I37">
-        <v>34.762274801555236</v>
-      </c>
-      <c r="J37">
-        <v>36.479454569656184</v>
-      </c>
-      <c r="K37">
-        <v>30.407990351424498</v>
-      </c>
-      <c r="L37" s="1">
-        <v>3.7999999999999999E-2</v>
+      <c r="B54" s="44">
+        <f t="shared" si="10"/>
+        <v>100.19851116625311</v>
+      </c>
+      <c r="C54">
+        <v>632.29999999999995</v>
+      </c>
+      <c r="D54" s="44">
+        <f t="shared" si="1"/>
+        <v>631.04730064388298</v>
+      </c>
+      <c r="E54" s="44">
+        <f t="shared" si="2"/>
+        <v>6.447380821132513</v>
+      </c>
+      <c r="F54" s="44">
+        <f t="shared" si="5"/>
+        <v>3.3607935764414343E-2</v>
+      </c>
+      <c r="G54">
+        <v>587</v>
+      </c>
+      <c r="H54" s="44">
+        <f t="shared" si="7"/>
+        <v>585.83704804358592</v>
+      </c>
+      <c r="I54" s="44">
+        <f t="shared" si="8"/>
+        <v>6.373041675896042</v>
+      </c>
+      <c r="J54" s="44">
+        <f t="shared" si="9"/>
+        <v>2.8542225950241473E-2</v>
+      </c>
+      <c r="K54">
+        <v>528.4</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>527.3531451213471</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>6.2678704287161162</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="6"/>
+        <v>3.6713694340596348E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Economics/Dissertation/Dissertation Variables.xlsx
+++ b/Economics/Dissertation/Dissertation Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University Documents\Notes\PPE\Shared Notes\Economics\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A999CD36-A3C8-4076-BB11-2BF50AEA7EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF8001C-BDC5-4DF8-8F18-9BD37406960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{C890B4EF-DBD0-4510-8DCC-74D1D3A33C16}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{C890B4EF-DBD0-4510-8DCC-74D1D3A33C16}"/>
   </bookViews>
   <sheets>
     <sheet name="25-49 Unemployment Quarterly" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="442">
   <si>
     <t>Aged 25-34</t>
   </si>
@@ -1372,6 +1372,9 @@
   <si>
     <t>Inflation</t>
   </si>
+  <si>
+    <t>Real Average Compensation</t>
+  </si>
 </sst>
 </file>
 
@@ -1383,7 +1386,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1654,6 +1657,11 @@
     <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1678,11 +1686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -2933,6 +2936,1045 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Different</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Productivity Measures</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Extracted 1985'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross Productivity (GDP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Extracted 1985'!$A$15:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Extracted 1985'!$H$15:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>32.046471656222145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.882335483002329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.616965908246151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.970037535504822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.509561950172738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.210489128471231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.221000873606606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.768288154241347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.261669380629066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.965214238627631</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.567302337429325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.314059019590729</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.593690924609419</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.250338904468542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.553588715554078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.3731087241921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.287666635355706</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.470857342842983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.721296841594523</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.951963308044036</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.534372842858325</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.792191790623704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.833739019786918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA18-42E6-A78A-8F7A24396C66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Extracted 1985'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Productivity (NDP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Extracted 1985'!$A$15:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Extracted 1985'!$I$15:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>27.921728527308783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.697078648808592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.27763806187783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.424782800339941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.779631973122026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.314847799127129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.192530128548952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.722082295980101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.150918802505885</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.711054855603614</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.186395952108541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.757124338226632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.731783316103737</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.478106083899767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.754787426564349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.583403155197118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.565775932567192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.792267517392638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.970733008394305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.131758155978375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.575194330654625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.761883979560906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.762274801555236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA18-42E6-A78A-8F7A24396C66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Extracted 1985'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross Productivity (GVA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Extracted 1985'!$A$15:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Extracted 1985'!$J$15:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>28.970577758811409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.631647365987764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.167035286730883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.372585847560615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.94607353355082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.585243048544093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.510478236860749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.964037690160389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.463729248543409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.097619504238907</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.610180180065662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.574659468880071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.139400569397417</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.357155669469165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.312555388302222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.189192516293467</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.063499388700102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.195088329375523</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.422188170316012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.598689849523474</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.14089545897491</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.394857409280931</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.479454569656184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA18-42E6-A78A-8F7A24396C66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Extracted 1985'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Productivity (NVA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Extracted 1985'!$A$15:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Extracted 1985'!$K$15:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>24.845834629898043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.446390531794023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.827707440362563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.827331112395736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.216143556500104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.689601719199992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.482007491803095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.917831831899143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.352978670420228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.843460121214878</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.229273794744874</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.01772478751597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.277492960891731</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.584922848900394</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.513754099312479</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.399486947298488</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.341608685911584</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.51649850392517</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.671624337115787</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.778484697457813</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.181716946771218</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.36454959821814</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.407990351424498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA18-42E6-A78A-8F7A24396C66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1464523376"/>
+        <c:axId val="1464522416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1464523376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464522416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1464522416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464523376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3014,6 +4056,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4575,20 +5657,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4678,6 +6276,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6B6406-71C2-5BCC-C6C8-B4879365FCE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000FDA2C-906B-A3AE-EC71-E43097002406}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5027,86 +6666,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="39" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="39" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="36" t="s">
+      <c r="Q2" s="41"/>
+      <c r="R2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37" t="s">
+      <c r="U2" s="40"/>
+      <c r="V2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="38"/>
+      <c r="Y2" s="41"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -33933,8 +35572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAD4CA7-202F-4443-B29A-DF3FE42F7F67}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:K37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35494,6 +37133,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36904,7 +38544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A64741-3A8D-4CE5-801B-FF775D457B13}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S1" activeCellId="1" sqref="T1:T24 S1:S24"/>
     </sheetView>
   </sheetViews>
@@ -38686,7 +40326,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38694,10 +40334,10 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="18" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="17.140625" customWidth="1"/>
@@ -38717,48 +40357,51 @@
         <v>350</v>
       </c>
       <c r="E1" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>406</v>
       </c>
     </row>
@@ -38776,51 +40419,53 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="E2" s="20">
+        <v>14.653922967189729</v>
+      </c>
+      <c r="F2" s="20">
         <v>10.085592011412269</v>
       </c>
-      <c r="F2" s="20">
+      <c r="G2" s="20">
         <v>12.696148359486449</v>
       </c>
-      <c r="G2" s="20">
+      <c r="H2" s="20">
         <v>5.4350927246790306</v>
       </c>
-      <c r="H2" s="20">
+      <c r="I2" s="20">
         <v>6.5335235378031387</v>
       </c>
-      <c r="I2" s="20">
+      <c r="J2" s="20">
         <v>7.6176890156918686</v>
       </c>
-      <c r="J2" s="20">
+      <c r="K2" s="20">
         <v>8.7589158345221119</v>
       </c>
-      <c r="K2" s="20">
+      <c r="L2" s="20">
         <v>11.7546362339515</v>
       </c>
-      <c r="L2" s="20">
+      <c r="M2" s="20">
         <v>13.85164051355207</v>
       </c>
-      <c r="M2" s="20">
+      <c r="N2" s="20">
         <v>16.804564907275321</v>
       </c>
-      <c r="N2" s="20">
+      <c r="O2" s="20">
         <v>21.81169757489301</v>
       </c>
-      <c r="O2" s="23">
+      <c r="P2" s="23">
         <v>45656561734.421608</v>
       </c>
-      <c r="P2" s="20">
+      <c r="Q2" s="20">
         <v>32.046471656222145</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="R2" s="20">
         <v>27.921728527308783</v>
       </c>
-      <c r="R2" s="31">
+      <c r="S2" s="31">
         <v>28.970577758811409</v>
       </c>
-      <c r="S2" s="31">
+      <c r="T2" s="31">
         <v>24.845834629898043</v>
       </c>
-      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -38836,51 +40481,53 @@
         <v>0.55700000000000005</v>
       </c>
       <c r="E3" s="20">
+        <v>15.049016853932583</v>
+      </c>
+      <c r="F3" s="20">
         <v>10.337078651685392</v>
       </c>
-      <c r="F3" s="20">
+      <c r="G3" s="20">
         <v>13.174157303370785</v>
       </c>
-      <c r="G3" s="20">
+      <c r="H3" s="20">
         <v>5.6179775280898872</v>
       </c>
-      <c r="H3" s="20">
+      <c r="I3" s="20">
         <v>6.6713483146067407</v>
       </c>
-      <c r="I3" s="20">
+      <c r="J3" s="20">
         <v>7.7808988764044935</v>
       </c>
-      <c r="J3" s="20">
+      <c r="K3" s="20">
         <v>8.9747191011235934</v>
       </c>
-      <c r="K3" s="20">
+      <c r="L3" s="20">
         <v>12.078651685393256</v>
       </c>
-      <c r="L3" s="20">
+      <c r="M3" s="20">
         <v>14.283707865168537</v>
       </c>
-      <c r="M3" s="20">
+      <c r="N3" s="20">
         <v>17.289325842696627</v>
       </c>
-      <c r="N3" s="20">
+      <c r="O3" s="20">
         <v>22.415730337078649</v>
       </c>
-      <c r="O3" s="23">
+      <c r="P3" s="23">
         <v>46007617221.097366</v>
       </c>
-      <c r="P3" s="20">
+      <c r="Q3" s="20">
         <v>32.882335483002329</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="R3" s="27">
         <v>28.697078648808592</v>
       </c>
-      <c r="R3" s="34">
+      <c r="S3" s="34">
         <v>29.631647365987764</v>
       </c>
-      <c r="S3" s="31">
+      <c r="T3" s="31">
         <v>25.446390531794023</v>
       </c>
-      <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -38896,51 +40543,53 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E4" s="20">
+        <v>15.941470180305133</v>
+      </c>
+      <c r="F4" s="20">
         <v>10.624133148404994</v>
       </c>
-      <c r="F4" s="20">
+      <c r="G4" s="20">
         <v>13.578363384188627</v>
       </c>
-      <c r="G4" s="20">
+      <c r="H4" s="20">
         <v>5.7975034674063801</v>
       </c>
-      <c r="H4" s="20">
+      <c r="I4" s="20">
         <v>6.8932038834951452</v>
       </c>
-      <c r="I4" s="20">
+      <c r="J4" s="20">
         <v>8.0166435506241331</v>
       </c>
-      <c r="J4" s="20">
+      <c r="K4" s="20">
         <v>9.2233009708737868</v>
       </c>
-      <c r="K4" s="20">
+      <c r="L4" s="20">
         <v>12.385575589459085</v>
       </c>
-      <c r="L4" s="20">
+      <c r="M4" s="20">
         <v>14.632454923717061</v>
       </c>
-      <c r="M4" s="20">
+      <c r="N4" s="20">
         <v>17.766990291262136</v>
       </c>
-      <c r="N4" s="20">
+      <c r="O4" s="20">
         <v>23.148404993065189</v>
       </c>
-      <c r="O4" s="23">
+      <c r="P4" s="23">
         <v>46418823417.102234</v>
       </c>
-      <c r="P4" s="20">
+      <c r="Q4" s="20">
         <v>33.616965908246151</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="R4" s="27">
         <v>29.27763806187783</v>
       </c>
-      <c r="R4" s="34">
+      <c r="S4" s="34">
         <v>30.167035286730883</v>
       </c>
-      <c r="S4" s="31">
+      <c r="T4" s="31">
         <v>25.827707440362563</v>
       </c>
-      <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -38956,51 +40605,53 @@
         <v>0.59</v>
       </c>
       <c r="E5" s="20">
+        <v>16.919669876203574</v>
+      </c>
+      <c r="F5" s="20">
         <v>10.907840440165062</v>
       </c>
-      <c r="F5" s="20">
+      <c r="G5" s="20">
         <v>14.057771664374142</v>
       </c>
-      <c r="G5" s="20">
+      <c r="H5" s="20">
         <v>5.9972489683631371</v>
       </c>
-      <c r="H5" s="20">
+      <c r="I5" s="20">
         <v>7.0563961485557085</v>
       </c>
-      <c r="I5" s="20">
+      <c r="J5" s="20">
         <v>8.2530949105914715</v>
       </c>
-      <c r="J5" s="20">
+      <c r="K5" s="20">
         <v>9.4773039889958728</v>
       </c>
-      <c r="K5" s="20">
+      <c r="L5" s="20">
         <v>12.737276478679505</v>
       </c>
-      <c r="L5" s="20">
+      <c r="M5" s="20">
         <v>15.103163686382395</v>
       </c>
-      <c r="M5" s="20">
+      <c r="N5" s="20">
         <v>18.321870701513067</v>
       </c>
-      <c r="N5" s="20">
+      <c r="O5" s="20">
         <v>23.755158184319122</v>
       </c>
-      <c r="O5" s="23">
+      <c r="P5" s="23">
         <v>46528153208.227203</v>
       </c>
-      <c r="P5" s="20">
+      <c r="Q5" s="20">
         <v>34.970037535504822</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="R5" s="27">
         <v>30.424782800339941</v>
       </c>
-      <c r="R5" s="34">
+      <c r="S5" s="34">
         <v>31.372585847560615</v>
       </c>
-      <c r="S5" s="31">
+      <c r="T5" s="31">
         <v>26.827331112395736</v>
       </c>
-      <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -39016,51 +40667,53 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="E6" s="20">
+        <v>17.606793478260872</v>
+      </c>
+      <c r="F6" s="20">
         <v>11.25</v>
       </c>
-      <c r="F6" s="20">
+      <c r="G6" s="20">
         <v>14.646739130434781</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="20">
         <v>6.1548913043478262</v>
       </c>
-      <c r="H6" s="20">
+      <c r="I6" s="20">
         <v>7.2690217391304346</v>
       </c>
-      <c r="I6" s="20">
+      <c r="J6" s="20">
         <v>8.4782608695652186</v>
       </c>
-      <c r="J6" s="20">
+      <c r="K6" s="20">
         <v>9.7690217391304355</v>
       </c>
-      <c r="K6" s="20">
+      <c r="L6" s="20">
         <v>13.13858695652174</v>
       </c>
-      <c r="L6" s="20">
+      <c r="M6" s="20">
         <v>15.638586956521738</v>
       </c>
-      <c r="M6" s="20">
+      <c r="N6" s="20">
         <v>18.967391304347828</v>
       </c>
-      <c r="N6" s="20">
+      <c r="O6" s="20">
         <v>24.823369565217391</v>
       </c>
-      <c r="O6" s="23">
+      <c r="P6" s="23">
         <v>46999223277.195313</v>
       </c>
-      <c r="P6" s="20">
+      <c r="Q6" s="20">
         <v>35.509561950172738</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="R6" s="27">
         <v>30.779631973122026</v>
       </c>
-      <c r="R6" s="34">
+      <c r="S6" s="34">
         <v>31.94607353355082</v>
       </c>
-      <c r="S6" s="31">
+      <c r="T6" s="31">
         <v>27.216143556500104</v>
       </c>
-      <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -39076,51 +40729,53 @@
         <v>0.59299999999999997</v>
       </c>
       <c r="E7" s="20">
+        <v>17.87288590604027</v>
+      </c>
+      <c r="F7" s="20">
         <v>11.570469798657717</v>
       </c>
-      <c r="F7" s="20">
+      <c r="G7" s="20">
         <v>15.23489932885906</v>
       </c>
-      <c r="G7" s="20">
+      <c r="H7" s="20">
         <v>6.4161073825503356</v>
       </c>
-      <c r="H7" s="20">
+      <c r="I7" s="20">
         <v>7.476510067114094</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="20">
         <v>8.6979865771812079</v>
       </c>
-      <c r="J7" s="20">
+      <c r="K7" s="20">
         <v>10.013422818791947</v>
       </c>
-      <c r="K7" s="20">
+      <c r="L7" s="20">
         <v>13.530201342281879</v>
       </c>
-      <c r="L7" s="20">
+      <c r="M7" s="20">
         <v>16.107382550335572</v>
       </c>
-      <c r="M7" s="20">
+      <c r="N7" s="20">
         <v>19.597315436241612</v>
       </c>
-      <c r="N7" s="20">
+      <c r="O7" s="20">
         <v>25.785234899328859</v>
       </c>
-      <c r="O7" s="23">
+      <c r="P7" s="23">
         <v>46904163001.854897</v>
       </c>
-      <c r="P7" s="20">
+      <c r="Q7" s="20">
         <v>36.210489128471231</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="R7" s="27">
         <v>31.314847799127129</v>
       </c>
-      <c r="R7" s="34">
+      <c r="S7" s="34">
         <v>32.585243048544093</v>
       </c>
-      <c r="S7" s="31">
+      <c r="T7" s="31">
         <v>27.689601719199992</v>
       </c>
-      <c r="T7" s="31"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -39136,51 +40791,53 @@
         <v>0.58799999999999997</v>
       </c>
       <c r="E8" s="20">
+        <v>18.421324503311258</v>
+      </c>
+      <c r="F8" s="20">
         <v>11.854304635761588</v>
       </c>
-      <c r="F8" s="20">
+      <c r="G8" s="20">
         <v>15.536423841059603</v>
       </c>
-      <c r="G8" s="20">
+      <c r="H8" s="20">
         <v>6.6357615894039732</v>
       </c>
-      <c r="H8" s="20">
+      <c r="I8" s="20">
         <v>7.7748344370860929</v>
       </c>
-      <c r="I8" s="20">
+      <c r="J8" s="20">
         <v>8.9933774834437088</v>
       </c>
-      <c r="J8" s="20">
+      <c r="K8" s="20">
         <v>10.304635761589404</v>
       </c>
-      <c r="K8" s="20">
+      <c r="L8" s="20">
         <v>13.867549668874172</v>
       </c>
-      <c r="L8" s="20">
+      <c r="M8" s="20">
         <v>16.503311258278146</v>
       </c>
-      <c r="M8" s="20">
+      <c r="N8" s="20">
         <v>20.052980132450333</v>
       </c>
-      <c r="N8" s="20">
+      <c r="O8" s="20">
         <v>26.397350993377483</v>
       </c>
-      <c r="O8" s="23">
+      <c r="P8" s="23">
         <v>47111826924.760925</v>
       </c>
-      <c r="P8" s="20">
+      <c r="Q8" s="20">
         <v>37.221000873606606</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="R8" s="27">
         <v>32.192530128548952</v>
       </c>
-      <c r="R8" s="34">
+      <c r="S8" s="34">
         <v>33.510478236860749</v>
       </c>
-      <c r="S8" s="31">
+      <c r="T8" s="31">
         <v>28.482007491803095</v>
       </c>
-      <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -39196,51 +40853,53 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="E9" s="20">
+        <v>19.201045751633988</v>
+      </c>
+      <c r="F9" s="20">
         <v>12.104575163398692</v>
       </c>
-      <c r="F9" s="20">
+      <c r="G9" s="20">
         <v>15.686274509803921</v>
       </c>
-      <c r="G9" s="20">
+      <c r="H9" s="20">
         <v>6.7712418300653594</v>
       </c>
-      <c r="H9" s="20">
+      <c r="I9" s="20">
         <v>7.8692810457516336</v>
       </c>
-      <c r="I9" s="20">
+      <c r="J9" s="20">
         <v>9.1372549019607838</v>
       </c>
-      <c r="J9" s="20">
+      <c r="K9" s="20">
         <v>10.483660130718954</v>
       </c>
-      <c r="K9" s="20">
+      <c r="L9" s="20">
         <v>14.183006535947712</v>
       </c>
-      <c r="L9" s="20">
+      <c r="M9" s="20">
         <v>16.797385620915033</v>
       </c>
-      <c r="M9" s="20">
+      <c r="N9" s="20">
         <v>20.405228758169933</v>
       </c>
-      <c r="N9" s="20">
+      <c r="O9" s="20">
         <v>26.784313725490193</v>
       </c>
-      <c r="O9" s="23">
+      <c r="P9" s="23">
         <v>47552836118.124039</v>
       </c>
-      <c r="P9" s="20">
+      <c r="Q9" s="20">
         <v>37.768288154241347</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="R9" s="27">
         <v>32.722082295980101</v>
       </c>
-      <c r="R9" s="34">
+      <c r="S9" s="34">
         <v>33.964037690160389</v>
       </c>
-      <c r="S9" s="31">
+      <c r="T9" s="31">
         <v>28.917831831899143</v>
       </c>
-      <c r="T9" s="31"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -39256,51 +40915,53 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="E10" s="20">
+        <v>19.647375160051219</v>
+      </c>
+      <c r="F10" s="20">
         <v>12.240717029449426</v>
       </c>
-      <c r="F10" s="20">
+      <c r="G10" s="20">
         <v>16.005121638924457</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="20">
         <v>6.8629961587708079</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="20">
         <v>7.9769526248399503</v>
       </c>
-      <c r="I10" s="20">
+      <c r="J10" s="20">
         <v>9.2317541613316276</v>
       </c>
-      <c r="J10" s="20">
+      <c r="K10" s="20">
         <v>10.576184379001281</v>
       </c>
-      <c r="K10" s="20">
+      <c r="L10" s="20">
         <v>14.366197183098594</v>
       </c>
-      <c r="L10" s="20">
+      <c r="M10" s="20">
         <v>17.080665813060183</v>
       </c>
-      <c r="M10" s="20">
+      <c r="N10" s="20">
         <v>20.92189500640205</v>
       </c>
-      <c r="N10" s="20">
+      <c r="O10" s="20">
         <v>27.426376440460952</v>
       </c>
-      <c r="O10" s="23">
+      <c r="P10" s="23">
         <v>48171395310.622818</v>
       </c>
-      <c r="P10" s="20">
+      <c r="Q10" s="20">
         <v>38.261669380629066</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="R10" s="27">
         <v>33.150918802505885</v>
       </c>
-      <c r="R10" s="34">
+      <c r="S10" s="34">
         <v>34.463729248543409</v>
       </c>
-      <c r="S10" s="31">
+      <c r="T10" s="31">
         <v>29.352978670420228</v>
       </c>
-      <c r="T10" s="31"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -39316,51 +40977,53 @@
         <v>0.59799999999999998</v>
       </c>
       <c r="E11" s="20">
+        <v>20.212390488110135</v>
+      </c>
+      <c r="F11" s="20">
         <v>12.403003754693366</v>
       </c>
-      <c r="F11" s="20">
+      <c r="G11" s="20">
         <v>16.232790988735921</v>
       </c>
-      <c r="G11" s="20">
+      <c r="H11" s="20">
         <v>6.9837296620775966</v>
       </c>
-      <c r="H11" s="20">
+      <c r="I11" s="20">
         <v>8.1226533166458079</v>
       </c>
-      <c r="I11" s="20">
+      <c r="J11" s="20">
         <v>9.386733416770964</v>
       </c>
-      <c r="J11" s="20">
+      <c r="K11" s="20">
         <v>10.725907384230288</v>
       </c>
-      <c r="K11" s="20">
+      <c r="L11" s="20">
         <v>14.543178973717145</v>
       </c>
-      <c r="L11" s="20">
+      <c r="M11" s="20">
         <v>17.321652065081352</v>
       </c>
-      <c r="M11" s="20">
+      <c r="N11" s="20">
         <v>21.11389236545682</v>
       </c>
-      <c r="N11" s="20">
+      <c r="O11" s="20">
         <v>27.722152690863577</v>
       </c>
-      <c r="O11" s="23">
+      <c r="P11" s="23">
         <v>48485318123.421356</v>
       </c>
-      <c r="P11" s="20">
+      <c r="Q11" s="20">
         <v>38.965214238627631</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="R11" s="27">
         <v>33.711054855603614</v>
       </c>
-      <c r="R11" s="34">
+      <c r="S11" s="34">
         <v>35.097619504238907</v>
       </c>
-      <c r="S11" s="31">
+      <c r="T11" s="31">
         <v>29.843460121214878</v>
       </c>
-      <c r="T11" s="31"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -39376,51 +41039,53 @@
         <v>0.60599999999999998</v>
       </c>
       <c r="E12" s="20">
+        <v>20.763202933985333</v>
+      </c>
+      <c r="F12" s="20">
         <v>12.506112469437655</v>
       </c>
-      <c r="F12" s="20">
+      <c r="G12" s="20">
         <v>16.356968215158926</v>
       </c>
-      <c r="G12" s="20">
+      <c r="H12" s="20">
         <v>7.1271393643031793</v>
       </c>
-      <c r="H12" s="20">
+      <c r="I12" s="20">
         <v>8.2029339853300733</v>
       </c>
-      <c r="I12" s="20">
+      <c r="J12" s="20">
         <v>9.4865525672371636</v>
       </c>
-      <c r="J12" s="20">
+      <c r="K12" s="20">
         <v>10.867970660146701</v>
       </c>
-      <c r="K12" s="20">
+      <c r="L12" s="20">
         <v>14.657701711491443</v>
       </c>
-      <c r="L12" s="20">
+      <c r="M12" s="20">
         <v>17.420537897310513</v>
       </c>
-      <c r="M12" s="20">
+      <c r="N12" s="20">
         <v>21.234718826405871</v>
       </c>
-      <c r="N12" s="20">
+      <c r="O12" s="20">
         <v>28.007334963325185</v>
       </c>
-      <c r="O12" s="23">
+      <c r="P12" s="23">
         <v>48939883128.70871</v>
       </c>
-      <c r="P12" s="20">
+      <c r="Q12" s="20">
         <v>39.567302337429325</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="R12" s="27">
         <v>34.186395952108541</v>
       </c>
-      <c r="R12" s="34">
+      <c r="S12" s="34">
         <v>35.610180180065662</v>
       </c>
-      <c r="S12" s="31">
+      <c r="T12" s="31">
         <v>30.229273794744874</v>
       </c>
-      <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -39436,51 +41101,53 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="E13" s="20">
+        <v>20.268004722550181</v>
+      </c>
+      <c r="F13" s="20">
         <v>12.550177095631643</v>
       </c>
-      <c r="F13" s="20">
+      <c r="G13" s="20">
         <v>16.458087367178276</v>
       </c>
-      <c r="G13" s="20">
+      <c r="H13" s="20">
         <v>7.0838252656434477</v>
       </c>
-      <c r="H13" s="20">
+      <c r="I13" s="20">
         <v>8.1936245572609216</v>
       </c>
-      <c r="I13" s="20">
+      <c r="J13" s="20">
         <v>9.445100354191263</v>
       </c>
-      <c r="J13" s="20">
+      <c r="K13" s="20">
         <v>10.850059031877214</v>
       </c>
-      <c r="K13" s="20">
+      <c r="L13" s="20">
         <v>14.734356552538372</v>
       </c>
-      <c r="L13" s="20">
+      <c r="M13" s="20">
         <v>17.532467532467532</v>
       </c>
-      <c r="M13" s="20">
+      <c r="N13" s="20">
         <v>21.322314049586776</v>
       </c>
-      <c r="N13" s="20">
+      <c r="O13" s="20">
         <v>27.95749704840614</v>
       </c>
-      <c r="O13" s="23">
+      <c r="P13" s="23">
         <v>49195408009.605225</v>
       </c>
-      <c r="P13" s="20">
+      <c r="Q13" s="20">
         <v>39.314059019590729</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="R13" s="27">
         <v>33.757124338226632</v>
       </c>
-      <c r="R13" s="34">
+      <c r="S13" s="34">
         <v>35.574659468880071</v>
       </c>
-      <c r="S13" s="31">
+      <c r="T13" s="31">
         <v>30.01772478751597</v>
       </c>
-      <c r="T13" s="31"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -39496,51 +41163,53 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="E14" s="20">
+        <v>20.292147806004621</v>
+      </c>
+      <c r="F14" s="20">
         <v>12.725173210161662</v>
       </c>
-      <c r="F14" s="20">
+      <c r="G14" s="20">
         <v>16.616628175519633</v>
       </c>
-      <c r="G14" s="20">
+      <c r="H14" s="20">
         <v>7.1709006928406467</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="20">
         <v>8.3025404157043887</v>
       </c>
-      <c r="I14" s="20">
+      <c r="J14" s="20">
         <v>9.5842956120092389</v>
       </c>
-      <c r="J14" s="20">
+      <c r="K14" s="20">
         <v>10.981524249422632</v>
       </c>
-      <c r="K14" s="20">
+      <c r="L14" s="20">
         <v>14.953810623556581</v>
       </c>
-      <c r="L14" s="20">
+      <c r="M14" s="20">
         <v>17.736720554272516</v>
       </c>
-      <c r="M14" s="20">
+      <c r="N14" s="20">
         <v>21.628175519630485</v>
       </c>
-      <c r="N14" s="20">
+      <c r="O14" s="20">
         <v>28.314087759815241</v>
       </c>
-      <c r="O14" s="23">
+      <c r="P14" s="23">
         <v>47767596321.604233</v>
       </c>
-      <c r="P14" s="20">
+      <c r="Q14" s="20">
         <v>38.593690924609419</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="R14" s="27">
         <v>32.731783316103737</v>
       </c>
-      <c r="R14" s="34">
+      <c r="S14" s="34">
         <v>35.139400569397417</v>
       </c>
-      <c r="S14" s="31">
+      <c r="T14" s="31">
         <v>29.277492960891731</v>
       </c>
-      <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -39556,51 +41225,53 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="E15" s="20">
+        <v>20.043064876957494</v>
+      </c>
+      <c r="F15" s="20">
         <v>12.472035794183446</v>
       </c>
-      <c r="F15" s="20">
+      <c r="G15" s="20">
         <v>16.331096196868007</v>
       </c>
-      <c r="G15" s="20">
+      <c r="H15" s="20">
         <v>7.0134228187919456</v>
       </c>
-      <c r="H15" s="20">
+      <c r="I15" s="20">
         <v>8.143176733780761</v>
       </c>
-      <c r="I15" s="20">
+      <c r="J15" s="20">
         <v>9.4071588366890388</v>
       </c>
-      <c r="J15" s="20">
+      <c r="K15" s="20">
         <v>10.76062639821029</v>
       </c>
-      <c r="K15" s="20">
+      <c r="L15" s="20">
         <v>14.630872483221477</v>
       </c>
-      <c r="L15" s="20">
+      <c r="M15" s="20">
         <v>17.438478747203579</v>
       </c>
-      <c r="M15" s="20">
+      <c r="N15" s="20">
         <v>21.26398210290828</v>
       </c>
-      <c r="N15" s="20">
+      <c r="O15" s="20">
         <v>27.807606263982102</v>
       </c>
-      <c r="O15" s="23">
+      <c r="P15" s="23">
         <v>48028670597.504623</v>
       </c>
-      <c r="P15" s="20">
+      <c r="Q15" s="20">
         <v>39.250338904468542</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="R15" s="27">
         <v>33.478106083899767</v>
       </c>
-      <c r="R15" s="34">
+      <c r="S15" s="34">
         <v>35.357155669469165</v>
       </c>
-      <c r="S15" s="31">
+      <c r="T15" s="31">
         <v>29.584922848900394</v>
       </c>
-      <c r="T15" s="31"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -39616,51 +41287,53 @@
         <v>0.6</v>
       </c>
       <c r="E16" s="20">
+        <v>19.475910064239827</v>
+      </c>
+      <c r="F16" s="20">
         <v>11.916488222698073</v>
       </c>
-      <c r="F16" s="20">
+      <c r="G16" s="20">
         <v>15.749464668094218</v>
       </c>
-      <c r="G16" s="20">
+      <c r="H16" s="20">
         <v>6.7558886509635965</v>
       </c>
-      <c r="H16" s="20">
+      <c r="I16" s="20">
         <v>7.7730192719486073</v>
       </c>
-      <c r="I16" s="20">
+      <c r="J16" s="20">
         <v>8.9721627408993587</v>
       </c>
-      <c r="J16" s="20">
+      <c r="K16" s="20">
         <v>10.267665952890791</v>
       </c>
-      <c r="K16" s="20">
+      <c r="L16" s="20">
         <v>14.004282655246252</v>
       </c>
-      <c r="L16" s="20">
+      <c r="M16" s="20">
         <v>16.670235546038544</v>
       </c>
-      <c r="M16" s="20">
+      <c r="N16" s="20">
         <v>20.342612419700213</v>
       </c>
-      <c r="N16" s="20">
+      <c r="O16" s="20">
         <v>26.766595289079227</v>
       </c>
-      <c r="O16" s="23">
+      <c r="P16" s="23">
         <v>48173831239.097626</v>
       </c>
-      <c r="P16" s="20">
+      <c r="Q16" s="20">
         <v>39.553588715554078</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="R16" s="27">
         <v>33.754787426564349</v>
       </c>
-      <c r="R16" s="34">
+      <c r="S16" s="34">
         <v>35.312555388302222</v>
       </c>
-      <c r="S16" s="31">
+      <c r="T16" s="31">
         <v>29.513754099312479</v>
       </c>
-      <c r="T16" s="31"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -39676,51 +41349,53 @@
         <v>0.59299999999999997</v>
       </c>
       <c r="E17" s="20">
+        <v>18.882518210197713</v>
+      </c>
+      <c r="F17" s="20">
         <v>11.73777315296566</v>
       </c>
-      <c r="F17" s="20">
+      <c r="G17" s="20">
         <v>15.442247658688865</v>
       </c>
-      <c r="G17" s="20">
+      <c r="H17" s="20">
         <v>6.7325702393340272</v>
       </c>
-      <c r="H17" s="20">
+      <c r="I17" s="20">
         <v>7.7211238293444326</v>
       </c>
-      <c r="I17" s="20">
+      <c r="J17" s="20">
         <v>8.8553590010405827</v>
       </c>
-      <c r="J17" s="20">
+      <c r="K17" s="20">
         <v>10.166493236212279</v>
       </c>
-      <c r="K17" s="20">
+      <c r="L17" s="20">
         <v>13.839750260145683</v>
       </c>
-      <c r="L17" s="20">
+      <c r="M17" s="20">
         <v>16.441207075962541</v>
       </c>
-      <c r="M17" s="20">
+      <c r="N17" s="20">
         <v>19.947970863683665</v>
       </c>
-      <c r="N17" s="20">
+      <c r="O17" s="20">
         <v>26.014568158168576</v>
       </c>
-      <c r="O17" s="23">
+      <c r="P17" s="23">
         <v>49148967637.98661</v>
       </c>
-      <c r="P17" s="20">
+      <c r="Q17" s="20">
         <v>39.3731087241921</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="R17" s="27">
         <v>33.583403155197118</v>
       </c>
-      <c r="R17" s="34">
+      <c r="S17" s="34">
         <v>35.189192516293467</v>
       </c>
-      <c r="S17" s="31">
+      <c r="T17" s="31">
         <v>29.399486947298488</v>
       </c>
-      <c r="T17" s="31"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -39736,51 +41411,53 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="E18" s="20">
+        <v>18.780304568527917</v>
+      </c>
+      <c r="F18" s="20">
         <v>11.766497461928934</v>
       </c>
-      <c r="F18" s="20">
+      <c r="G18" s="20">
         <v>15.370558375634518</v>
       </c>
-      <c r="G18" s="20">
+      <c r="H18" s="20">
         <v>6.6700507614213205</v>
       </c>
-      <c r="H18" s="20">
+      <c r="I18" s="20">
         <v>7.6649746192893398</v>
       </c>
-      <c r="I18" s="20">
+      <c r="J18" s="20">
         <v>8.8527918781725887</v>
       </c>
-      <c r="J18" s="20">
+      <c r="K18" s="20">
         <v>10.152284263959391</v>
       </c>
-      <c r="K18" s="20">
+      <c r="L18" s="20">
         <v>13.81725888324873</v>
       </c>
-      <c r="L18" s="20">
+      <c r="M18" s="20">
         <v>16.385786802030459</v>
       </c>
-      <c r="M18" s="20">
+      <c r="N18" s="20">
         <v>19.847715736040609</v>
       </c>
-      <c r="N18" s="20">
+      <c r="O18" s="20">
         <v>25.766497461928932</v>
       </c>
-      <c r="O18" s="23">
+      <c r="P18" s="23">
         <v>50051992534.02832</v>
       </c>
-      <c r="P18" s="20">
+      <c r="Q18" s="20">
         <v>39.287666635355706</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="R18" s="27">
         <v>33.565775932567192</v>
       </c>
-      <c r="R18" s="34">
+      <c r="S18" s="34">
         <v>35.063499388700102</v>
       </c>
-      <c r="S18" s="31">
+      <c r="T18" s="31">
         <v>29.341608685911584</v>
       </c>
-      <c r="T18" s="31"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -39796,51 +41473,53 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="E19" s="20">
+        <v>18.443200000000001</v>
+      </c>
+      <c r="F19" s="20">
         <v>11.62</v>
       </c>
-      <c r="F19" s="20">
+      <c r="G19" s="20">
         <v>15.12</v>
       </c>
-      <c r="G19" s="20">
+      <c r="H19" s="20">
         <v>6.66</v>
       </c>
-      <c r="H19" s="20">
+      <c r="I19" s="20">
         <v>7.62</v>
       </c>
-      <c r="I19" s="20">
+      <c r="J19" s="20">
         <v>8.75</v>
       </c>
-      <c r="J19" s="20">
+      <c r="K19" s="20">
         <v>10.01</v>
       </c>
-      <c r="K19" s="20">
+      <c r="L19" s="20">
         <v>13.64</v>
       </c>
-      <c r="L19" s="20">
+      <c r="M19" s="20">
         <v>16.170000000000002</v>
       </c>
-      <c r="M19" s="20">
+      <c r="N19" s="20">
         <v>19.600000000000001</v>
       </c>
-      <c r="N19" s="20">
+      <c r="O19" s="20">
         <v>25.46</v>
       </c>
-      <c r="O19" s="23">
+      <c r="P19" s="23">
         <v>51433603152.368271</v>
       </c>
-      <c r="P19" s="20">
+      <c r="Q19" s="20">
         <v>39.470857342842983</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="R19" s="27">
         <v>33.792267517392638</v>
       </c>
-      <c r="R19" s="34">
+      <c r="S19" s="34">
         <v>35.195088329375523</v>
       </c>
-      <c r="S19" s="31">
+      <c r="T19" s="31">
         <v>29.51649850392517</v>
       </c>
-      <c r="T19" s="31"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -39856,51 +41535,53 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="E20" s="20">
+        <v>18.803699999999999</v>
+      </c>
+      <c r="F20" s="20">
         <v>11.78</v>
       </c>
-      <c r="F20" s="20">
+      <c r="G20" s="20">
         <v>15.26</v>
       </c>
-      <c r="G20" s="20">
+      <c r="H20" s="20">
         <v>6.88</v>
       </c>
-      <c r="H20" s="20">
+      <c r="I20" s="20">
         <v>7.81</v>
       </c>
-      <c r="I20" s="20">
+      <c r="J20" s="20">
         <v>8.92</v>
       </c>
-      <c r="J20" s="20">
+      <c r="K20" s="20">
         <v>10.18</v>
       </c>
-      <c r="K20" s="20">
+      <c r="L20" s="20">
         <v>13.8</v>
       </c>
-      <c r="L20" s="20">
+      <c r="M20" s="20">
         <v>16.32</v>
       </c>
-      <c r="M20" s="20">
+      <c r="N20" s="20">
         <v>19.73</v>
       </c>
-      <c r="N20" s="20">
+      <c r="O20" s="20">
         <v>25.63</v>
       </c>
-      <c r="O20" s="23">
+      <c r="P20" s="23">
         <v>52228887128.137177</v>
       </c>
-      <c r="P20" s="20">
+      <c r="Q20" s="20">
         <v>39.721296841594523</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="R20" s="27">
         <v>33.970733008394305</v>
       </c>
-      <c r="R20" s="34">
+      <c r="S20" s="34">
         <v>35.422188170316012</v>
       </c>
-      <c r="S20" s="31">
+      <c r="T20" s="31">
         <v>29.671624337115787</v>
       </c>
-      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -39916,51 +41597,53 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="E21" s="20">
+        <v>19.134955312810323</v>
+      </c>
+      <c r="F21" s="20">
         <v>12.075471698113207</v>
       </c>
-      <c r="F21" s="20">
+      <c r="G21" s="20">
         <v>15.620655412115193</v>
       </c>
-      <c r="G21" s="20">
+      <c r="H21" s="20">
         <v>7.2492552135054611</v>
       </c>
-      <c r="H21" s="20">
+      <c r="I21" s="20">
         <v>8.1231380337636541</v>
       </c>
-      <c r="I21" s="20">
+      <c r="J21" s="20">
         <v>9.1559086395233358</v>
       </c>
-      <c r="J21" s="20">
+      <c r="K21" s="20">
         <v>10.436941410129094</v>
       </c>
-      <c r="K21" s="20">
+      <c r="L21" s="20">
         <v>14.101290963257197</v>
       </c>
-      <c r="L21" s="20">
+      <c r="M21" s="20">
         <v>16.653426017874875</v>
       </c>
-      <c r="M21" s="20">
+      <c r="N21" s="20">
         <v>20.188679245283016</v>
       </c>
-      <c r="N21" s="20">
+      <c r="O21" s="20">
         <v>26.246276067527305</v>
       </c>
-      <c r="O21" s="23">
+      <c r="P21" s="23">
         <v>52938341908.062614</v>
       </c>
-      <c r="P21" s="20">
+      <c r="Q21" s="20">
         <v>39.951963308044036</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="R21" s="27">
         <v>34.131758155978375</v>
       </c>
-      <c r="R21" s="34">
+      <c r="S21" s="34">
         <v>35.598689849523474</v>
       </c>
-      <c r="S21" s="31">
+      <c r="T21" s="31">
         <v>29.778484697457813</v>
       </c>
-      <c r="T21" s="31"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -39976,51 +41659,53 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="E22" s="20">
+        <v>19.222437137330754</v>
+      </c>
+      <c r="F22" s="20">
         <v>12.059961315280464</v>
       </c>
-      <c r="F22" s="20">
+      <c r="G22" s="20">
         <v>15.628626692456479</v>
       </c>
-      <c r="G22" s="20">
+      <c r="H22" s="20">
         <v>7.3694390715667311</v>
       </c>
-      <c r="H22" s="20">
+      <c r="I22" s="20">
         <v>8.1818181818181817</v>
       </c>
-      <c r="I22" s="20">
+      <c r="J22" s="20">
         <v>9.1876208897485494</v>
       </c>
-      <c r="J22" s="20">
+      <c r="K22" s="20">
         <v>10.406189555125724</v>
       </c>
-      <c r="K22" s="20">
+      <c r="L22" s="20">
         <v>14.052224371373306</v>
       </c>
-      <c r="L22" s="20">
+      <c r="M22" s="20">
         <v>16.644100580270795</v>
       </c>
-      <c r="M22" s="20">
+      <c r="N22" s="20">
         <v>20.125725338491293</v>
       </c>
-      <c r="N22" s="20">
+      <c r="O22" s="20">
         <v>26.295938104448744</v>
       </c>
-      <c r="O22" s="23">
+      <c r="P22" s="23">
         <v>53500465199.766167</v>
       </c>
-      <c r="P22" s="20">
+      <c r="Q22" s="20">
         <v>40.534372842858325</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="R22" s="27">
         <v>34.575194330654625</v>
       </c>
-      <c r="R22" s="34">
+      <c r="S22" s="34">
         <v>36.14089545897491</v>
       </c>
-      <c r="S22" s="31">
+      <c r="T22" s="31">
         <v>30.181716946771218</v>
       </c>
-      <c r="T22" s="31"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -40036,51 +41721,53 @@
         <v>0.58899999999999997</v>
       </c>
       <c r="E23" s="20">
+        <v>19.382058545797921</v>
+      </c>
+      <c r="F23" s="20">
         <v>12.058545797922566</v>
       </c>
-      <c r="F23" s="20">
+      <c r="G23" s="20">
         <v>15.779036827195466</v>
       </c>
-      <c r="G23" s="20">
+      <c r="H23" s="20">
         <v>7.5070821529745029</v>
       </c>
-      <c r="H23" s="20">
+      <c r="I23" s="20">
         <v>8.2341831916902724</v>
       </c>
-      <c r="I23" s="20">
+      <c r="J23" s="20">
         <v>9.2067988668555234</v>
       </c>
-      <c r="J23" s="20">
+      <c r="K23" s="20">
         <v>10.443814919735598</v>
       </c>
-      <c r="K23" s="20">
+      <c r="L23" s="20">
         <v>14.041548630783755</v>
       </c>
-      <c r="L23" s="20">
+      <c r="M23" s="20">
         <v>16.723323890462698</v>
       </c>
-      <c r="M23" s="20">
+      <c r="N23" s="20">
         <v>20.179414542020773</v>
       </c>
-      <c r="N23" s="20">
+      <c r="O23" s="20">
         <v>26.581680830972608</v>
       </c>
-      <c r="O23" s="23">
+      <c r="P23" s="23">
         <v>53952346217.343605</v>
       </c>
-      <c r="P23" s="20">
+      <c r="Q23" s="20">
         <v>40.792191790623704</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="R23" s="27">
         <v>34.761883979560906</v>
       </c>
-      <c r="R23" s="34">
+      <c r="S23" s="34">
         <v>36.394857409280931</v>
       </c>
-      <c r="S23" s="31">
+      <c r="T23" s="31">
         <v>30.36454959821814</v>
       </c>
-      <c r="T23" s="31"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -40096,51 +41783,53 @@
         <v>0.59099999999999997</v>
       </c>
       <c r="E24" s="20">
+        <v>19.558627087198513</v>
+      </c>
+      <c r="F24" s="20">
         <v>12.319109461966603</v>
       </c>
-      <c r="F24" s="20">
+      <c r="G24" s="20">
         <v>16.020408163265305</v>
       </c>
-      <c r="G24" s="20">
+      <c r="H24" s="20">
         <v>7.7458256029684591</v>
       </c>
-      <c r="H24" s="20">
+      <c r="I24" s="20">
         <v>8.5157699443413719</v>
       </c>
-      <c r="I24" s="20">
+      <c r="J24" s="20">
         <v>9.471243042671615</v>
       </c>
-      <c r="J24" s="20">
+      <c r="K24" s="20">
         <v>10.751391465677179</v>
       </c>
-      <c r="K24" s="20">
+      <c r="L24" s="20">
         <v>14.378478664192949</v>
       </c>
-      <c r="L24" s="20">
+      <c r="M24" s="20">
         <v>17.031539888682744</v>
       </c>
-      <c r="M24" s="20">
+      <c r="N24" s="20">
         <v>20.500927643784788</v>
       </c>
-      <c r="N24" s="20">
+      <c r="O24" s="20">
         <v>26.771799628942485</v>
       </c>
-      <c r="O24" s="23">
+      <c r="P24" s="23">
         <v>54707725856.73584</v>
       </c>
-      <c r="P24" s="20">
+      <c r="Q24" s="20">
         <v>40.833739019786918</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="R24" s="27">
         <v>34.762274801555236</v>
       </c>
-      <c r="R24" s="34">
+      <c r="S24" s="34">
         <v>36.479454569656184</v>
       </c>
-      <c r="S24" s="31">
+      <c r="T24" s="31">
         <v>30.407990351424498</v>
       </c>
-      <c r="T24" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40152,7 +41841,7 @@
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AL1" sqref="AL1:AM37"/>
@@ -45401,37 +47090,37 @@
       <c r="A39" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -45466,121 +47155,121 @@
     <col min="8" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="45" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:14" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="37" t="s">
         <v>435</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="37" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="38">
         <f t="shared" ref="A2:A49" si="0">A3-1</f>
         <v>1967</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="36">
         <v>8.3111111111111136</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="38">
         <f t="shared" si="0"/>
         <v>1968</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="36">
         <v>8.6432950191570921</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="38">
         <f t="shared" si="0"/>
         <v>1969</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="36">
         <v>9.0927203065134119</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="38">
         <f t="shared" si="0"/>
         <v>1970</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="36">
         <v>9.6854406130268202</v>
       </c>
       <c r="C5" s="20">
         <v>27.2</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="36">
         <f>C5/(B5/100)</f>
         <v>280.8338937457969</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="36">
         <f>LN(D5)</f>
         <v>5.6377633690904112</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
       <c r="K5">
         <v>14.6</v>
       </c>
@@ -45594,31 +47283,31 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="38">
         <f t="shared" si="0"/>
         <v>1971</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="36">
         <v>10.597318007662833</v>
       </c>
       <c r="C6" s="20">
         <v>29.8</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="36">
         <f t="shared" ref="D6:D54" si="1">C6/(B6/100)</f>
         <v>281.20322499005755</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <f t="shared" ref="E6:E54" si="2">LN(D6)</f>
         <v>5.6390776285409352</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="36">
         <f>E6-E5</f>
         <v>1.3142594505239913E-3</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="K6">
         <v>16.600000000000001</v>
       </c>
@@ -45636,31 +47325,31 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="38">
         <f t="shared" si="0"/>
         <v>1972</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="36">
         <v>11.359386973180076</v>
       </c>
       <c r="C7" s="20">
         <v>33.4</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="36">
         <f t="shared" si="1"/>
         <v>294.02995143011333</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="36">
         <f t="shared" si="2"/>
         <v>5.6836816377623443</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="36">
         <f t="shared" ref="F7:F54" si="5">E7-E6</f>
         <v>4.4604009221409058E-2</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="K7">
         <v>18.600000000000001</v>
       </c>
@@ -45678,31 +47367,31 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>1973</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="36">
         <v>12.421072796934865</v>
       </c>
       <c r="C8" s="20">
         <v>38.4</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="36">
         <f t="shared" si="1"/>
         <v>309.15204047009473</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="36">
         <f t="shared" si="2"/>
         <v>5.7338331962418767</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="36">
         <f t="shared" si="5"/>
         <v>5.0151558479532454E-2</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="K8">
         <v>20.7</v>
       </c>
@@ -45720,31 +47409,31 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+      <c r="A9" s="38">
         <f t="shared" si="0"/>
         <v>1974</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="36">
         <v>14.375095785440609</v>
       </c>
       <c r="C9" s="20">
         <v>43.8</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="36">
         <f t="shared" si="1"/>
         <v>304.69362189823829</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="36">
         <f t="shared" si="2"/>
         <v>5.719306753374279</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="36">
         <f t="shared" si="5"/>
         <v>-1.4526442867597744E-2</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="K9">
         <v>24.7</v>
       </c>
@@ -45762,31 +47451,31 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="46">
+      <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>1975</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="36">
         <v>17.638314176245199</v>
       </c>
       <c r="C10" s="20">
         <v>55.9</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="36">
         <f t="shared" si="1"/>
         <v>316.92371187766116</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="36">
         <f t="shared" si="2"/>
         <v>5.7586610883775027</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="36">
         <f t="shared" si="5"/>
         <v>3.9354335003223717E-2</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
       <c r="K10">
         <v>34.1</v>
       </c>
@@ -45804,31 +47493,31 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>1976</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="36">
         <v>20.399999999999991</v>
       </c>
       <c r="C11" s="20">
         <v>65.8</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="36">
         <f t="shared" si="1"/>
         <v>322.54901960784326</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="36">
         <f t="shared" si="2"/>
         <v>5.776255123469193</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="36">
         <f t="shared" si="5"/>
         <v>1.759403509169033E-2</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="K11">
         <v>42.4</v>
       </c>
@@ -45846,31 +47535,31 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>1977</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="36">
         <v>23.448275862068964</v>
       </c>
       <c r="C12" s="20">
         <v>72.3</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="36">
         <f t="shared" si="1"/>
         <v>308.33823529411762</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="36">
         <f t="shared" si="2"/>
         <v>5.7311973469691315</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="36">
         <f t="shared" si="5"/>
         <v>-4.5057776500061486E-2</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="K12">
         <v>46.9</v>
       </c>
@@ -45888,31 +47577,31 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+      <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>1978</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="36">
         <v>25.200383141762462</v>
       </c>
       <c r="C13" s="20">
         <v>82</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="36">
         <f t="shared" si="1"/>
         <v>325.39187812628268</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="36">
         <f t="shared" si="2"/>
         <v>5.7850302348123543</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="36">
         <f t="shared" si="5"/>
         <v>5.3832887843222821E-2</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="K13">
         <v>51.8</v>
       </c>
@@ -45930,31 +47619,31 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>1979</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="36">
         <v>28.066283524904208</v>
       </c>
       <c r="C14" s="20">
         <v>93.9</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="36">
         <f t="shared" si="1"/>
         <v>334.56513726400294</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="36">
         <f t="shared" si="2"/>
         <v>5.8128315908469936</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="36">
         <f t="shared" si="5"/>
         <v>2.7801356034639291E-2</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="K14">
         <v>58.4</v>
       </c>
@@ -45972,31 +47661,31 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>1980</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="36">
         <v>32.31954022988505</v>
       </c>
       <c r="C15" s="20">
         <v>113.3</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="36">
         <f t="shared" si="1"/>
         <v>350.56191763283312</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="36">
         <f t="shared" si="2"/>
         <v>5.8595373460308284</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="36">
         <f t="shared" si="5"/>
         <v>4.6705755183834796E-2</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="K15">
         <v>72.400000000000006</v>
       </c>
@@ -46014,31 +47703,31 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>1981</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="36">
         <v>36.136398467432954</v>
       </c>
       <c r="C16" s="20">
         <v>126.5</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="36">
         <f t="shared" si="1"/>
         <v>350.06255566393821</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="36">
         <f t="shared" si="2"/>
         <v>5.8581118689814673</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="36">
         <f t="shared" si="5"/>
         <v>-1.4254770493611346E-3</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="K16">
         <v>82.2</v>
       </c>
@@ -46056,31 +47745,31 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>1982</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="36">
         <v>39.067432950191566</v>
       </c>
       <c r="C17" s="20">
         <v>139.1</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="36">
         <f t="shared" si="1"/>
         <v>356.05103662004984</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="36">
         <f t="shared" si="2"/>
         <v>5.875074081869057</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="36">
         <f t="shared" si="5"/>
         <v>1.69622128875897E-2</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
       <c r="K17">
         <v>90</v>
       </c>
@@ -46098,31 +47787,31 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+      <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>1983</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="36">
         <v>40.995402298850578</v>
       </c>
       <c r="C18" s="20">
         <v>150.30000000000001</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="36">
         <f t="shared" si="1"/>
         <v>366.62647899960746</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="36">
         <f t="shared" si="2"/>
         <v>5.9043435613831914</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="36">
         <f t="shared" si="5"/>
         <v>2.9269479514134389E-2</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="K18">
         <v>98.8</v>
       </c>
@@ -46140,36 +47829,36 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>1984</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="36">
         <v>42.740996168582384</v>
       </c>
       <c r="C19" s="20">
         <v>160.6</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="36">
         <f t="shared" si="1"/>
         <v>375.75165390752449</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="36">
         <f t="shared" si="2"/>
         <v>5.9289284302402283</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="36">
         <f t="shared" si="5"/>
         <v>2.4584868857036923E-2</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="36">
         <v>142.30000000000001</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="36">
         <f>G19/(B19/100)</f>
         <v>332.93561862416402</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="36">
         <f>LN(H19)</f>
         <v>5.8079491338233735</v>
       </c>
@@ -46190,40 +47879,40 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+      <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="36">
         <v>44.844827586206897</v>
       </c>
       <c r="C20" s="20">
         <v>172.8</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="36">
         <f t="shared" si="1"/>
         <v>385.32871972318338</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="36">
         <f t="shared" si="2"/>
         <v>5.9540967874558142</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="36">
         <f t="shared" si="5"/>
         <v>2.5168357215585857E-2</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="36">
         <v>152.5</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="36">
         <f t="shared" ref="H20:H54" si="7">G20/(B20/100)</f>
         <v>340.06151480199924</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="36">
         <f t="shared" ref="I20:I54" si="8">LN(H20)</f>
         <v>5.8291265271333259</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="36">
         <f>I20-I19</f>
         <v>2.1177393309952386E-2</v>
       </c>
@@ -46244,40 +47933,40 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="46">
+      <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="36">
         <v>46.336398467432971</v>
       </c>
       <c r="C21" s="20">
         <v>185.1</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="36">
         <f t="shared" si="1"/>
         <v>399.46997635151877</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="36">
         <f t="shared" si="2"/>
         <v>5.9901386093196649</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="36">
         <f t="shared" si="5"/>
         <v>3.6041821863850743E-2</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="36">
         <v>163.80000000000001</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="36">
         <f t="shared" si="7"/>
         <v>353.50179430782703</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="36">
         <f t="shared" si="8"/>
         <v>5.8678885611591829</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="36">
         <f t="shared" ref="J21:J54" si="9">I21-I20</f>
         <v>3.8762034025856984E-2</v>
       </c>
@@ -46298,40 +47987,40 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
+      <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="36">
         <v>47.821455938697326</v>
       </c>
       <c r="C22" s="20">
         <v>198.4</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="36">
         <f t="shared" si="1"/>
         <v>414.8765362859935</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="36">
         <f t="shared" si="2"/>
         <v>6.0279809730426068</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="36">
         <f t="shared" si="5"/>
         <v>3.7842363722941919E-2</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="36">
         <v>175.1</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="36">
         <f t="shared" si="7"/>
         <v>366.15363661127748</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="36">
         <f t="shared" si="8"/>
         <v>5.9030530174836411</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="36">
         <f t="shared" si="9"/>
         <v>3.5164456324458193E-2</v>
       </c>
@@ -46352,40 +48041,40 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="46">
+      <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="36">
         <v>49.619157088122627</v>
       </c>
       <c r="C23" s="20">
         <v>215.5</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="36">
         <f t="shared" si="1"/>
         <v>434.30806294689029</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="36">
         <f t="shared" si="2"/>
         <v>6.073754104753867</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="36">
         <f t="shared" si="5"/>
         <v>4.5773131711260184E-2</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="36">
         <v>190.9</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="36">
         <f t="shared" si="7"/>
         <v>384.7304371998207</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="36">
         <f t="shared" si="8"/>
         <v>5.9525429259417661</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="36">
         <f t="shared" si="9"/>
         <v>4.9489908458125065E-2</v>
       </c>
@@ -46406,40 +48095,40 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="46">
+      <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="36">
         <v>52.218007662835248</v>
       </c>
       <c r="C24" s="20">
         <v>235.5</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="36">
         <f t="shared" si="1"/>
         <v>450.99384396392958</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="36">
         <f t="shared" si="2"/>
         <v>6.1114536896621354</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="36">
         <f t="shared" si="5"/>
         <v>3.7699584908268413E-2</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="36">
         <v>209.3</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="36">
         <f t="shared" si="7"/>
         <v>400.81958191783633</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="36">
         <f t="shared" si="8"/>
         <v>5.9935114056576166</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="36">
         <f t="shared" si="9"/>
         <v>4.0968479715850492E-2</v>
       </c>
@@ -46460,40 +48149,40 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
+      <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="36">
         <v>55.859003831417631</v>
       </c>
       <c r="C25" s="20">
         <v>258.2</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="36">
         <f t="shared" si="1"/>
         <v>462.23523924495163</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="36">
         <f t="shared" si="2"/>
         <v>6.1360739373505728</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="36">
         <f t="shared" si="5"/>
         <v>2.4620247688437402E-2</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="36">
         <v>229.4</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="36">
         <f t="shared" si="7"/>
         <v>410.67685469710267</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="36">
         <f t="shared" si="8"/>
         <v>6.0178066636333014</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="36">
         <f t="shared" si="9"/>
         <v>2.429525797568477E-2</v>
       </c>
@@ -46514,40 +48203,40 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
+      <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="36">
         <v>60.06666666666667</v>
       </c>
       <c r="C26" s="20">
         <v>277.5</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="36">
         <f t="shared" si="1"/>
         <v>461.98668146503883</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="36">
         <f t="shared" si="2"/>
         <v>6.1355360626684528</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="36">
         <f t="shared" si="5"/>
         <v>-5.3787468212007639E-4</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="36">
         <v>246.9</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="36">
         <f t="shared" si="7"/>
         <v>411.04328523862375</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="36">
         <f t="shared" si="8"/>
         <v>6.0186985258330976</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="36">
         <f t="shared" si="9"/>
         <v>8.9186219979620063E-4</v>
       </c>
@@ -46568,40 +48257,40 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="46">
+      <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="36">
         <v>62.626436781609222</v>
       </c>
       <c r="C27" s="20">
         <v>295.89999999999998</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="36">
         <f t="shared" si="1"/>
         <v>472.48416995503328</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="36">
         <f t="shared" si="2"/>
         <v>6.1580042436318978</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="36">
         <f t="shared" si="5"/>
         <v>2.246818096344505E-2</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="36">
         <v>264.60000000000002</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="36">
         <f t="shared" si="7"/>
         <v>422.5052766816554</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="36">
         <f t="shared" si="8"/>
         <v>6.0462019359065895</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="36">
         <f t="shared" si="9"/>
         <v>2.7503410073491885E-2</v>
       </c>
@@ -46622,40 +48311,40 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="46">
+      <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="36">
         <v>64.196168582375506</v>
       </c>
       <c r="C28" s="20">
         <v>304.60000000000002</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="36">
         <f t="shared" si="1"/>
         <v>474.48314553093951</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="36">
         <f t="shared" si="2"/>
         <v>6.1622260969363749</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="36">
         <f t="shared" si="5"/>
         <v>4.2218533044771078E-3</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="36">
         <v>273.3</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="36">
         <f t="shared" si="7"/>
         <v>425.72634167303272</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="36">
         <f t="shared" si="8"/>
         <v>6.0537967494093357</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="36">
         <f t="shared" si="9"/>
         <v>7.5948135027461561E-3</v>
       </c>
@@ -46676,40 +48365,40 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="46">
+      <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="36">
         <v>65.466283524904227</v>
       </c>
       <c r="C29" s="20">
         <v>312.8</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="36">
         <f t="shared" si="1"/>
         <v>477.80320366132719</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="36">
         <f t="shared" si="2"/>
         <v>6.1691989398950309</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="36">
         <f t="shared" si="5"/>
         <v>6.972842958655967E-3</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="36">
         <v>281.89999999999998</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="36">
         <f t="shared" si="7"/>
         <v>430.60333475744284</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="36">
         <f t="shared" si="8"/>
         <v>6.0651873293439413</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="36">
         <f t="shared" si="9"/>
         <v>1.1390579934605682E-2</v>
       </c>
@@ -46730,40 +48419,40 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="46">
+      <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>1995</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="36">
         <v>67.205363984674321</v>
       </c>
       <c r="C30" s="20">
         <v>323.2</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="36">
         <f t="shared" si="1"/>
         <v>480.91399382005187</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="36">
         <f t="shared" si="2"/>
         <v>6.1756884470909599</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="36">
         <f t="shared" si="5"/>
         <v>6.4895071959290007E-3</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="36">
         <v>290.3</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="36">
         <f t="shared" si="7"/>
         <v>431.95956808775082</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="36">
         <f t="shared" si="8"/>
         <v>6.0683319914746034</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="36">
         <f t="shared" si="9"/>
         <v>3.1446621306621125E-3</v>
       </c>
@@ -46784,40 +48473,40 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="46">
+      <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="36">
         <v>68.818500000000014</v>
       </c>
       <c r="C31" s="20">
         <v>334.9</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="36">
         <f t="shared" si="1"/>
         <v>486.64239993606355</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="36">
         <f t="shared" si="2"/>
         <v>6.1875295616459898</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="36">
         <f t="shared" si="5"/>
         <v>1.1841114555029897E-2</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="36">
         <v>301.10000000000002</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="36">
         <f t="shared" si="7"/>
         <v>437.52769967377952</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="36">
         <f t="shared" si="8"/>
         <v>6.0811400173335191</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="36">
         <f t="shared" si="9"/>
         <v>1.2808025858915606E-2</v>
       </c>
@@ -46838,40 +48527,40 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
+      <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="36">
         <v>70.07416666666667</v>
       </c>
       <c r="C32" s="20">
         <v>357.6</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="36">
         <f t="shared" si="1"/>
         <v>510.31645042752325</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="36">
         <f t="shared" si="2"/>
         <v>6.2350310243277631</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="36">
         <f t="shared" si="5"/>
         <v>4.7501462681773354E-2</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="36">
         <v>321.5</v>
       </c>
-      <c r="H32" s="44">
+      <c r="H32" s="36">
         <f t="shared" si="7"/>
         <v>458.79960518022568</v>
       </c>
-      <c r="I32" s="44">
+      <c r="I32" s="36">
         <f t="shared" si="8"/>
         <v>6.1286135247060782</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="36">
         <f t="shared" si="9"/>
         <v>4.7473507372559176E-2</v>
       </c>
@@ -46892,40 +48581,40 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="46">
+      <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="36">
         <v>71.165500000000009</v>
       </c>
       <c r="C33" s="20">
         <v>373.6</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="36">
         <f t="shared" si="1"/>
         <v>524.97347731695834</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="36">
         <f t="shared" si="2"/>
         <v>6.2633477419192065</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="36">
         <f t="shared" si="5"/>
         <v>2.8316717591443386E-2</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="36">
         <v>335.8</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="36">
         <f t="shared" si="7"/>
         <v>471.85785247064939</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="36">
         <f t="shared" si="8"/>
         <v>6.1566777802079589</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="36">
         <f t="shared" si="9"/>
         <v>2.8064255501880631E-2</v>
       </c>
@@ -46946,40 +48635,40 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="46">
+      <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="36">
         <v>72.11108333333334</v>
       </c>
       <c r="C34" s="20">
         <v>384.3</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="36">
         <f t="shared" si="1"/>
         <v>532.92778618173577</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="36">
         <f t="shared" si="2"/>
         <v>6.2783859293991053</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="36">
         <f t="shared" si="5"/>
         <v>1.5038187479898824E-2</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="36">
         <v>346.3</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="36">
         <f t="shared" si="7"/>
         <v>480.23130979634431</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="36">
         <f t="shared" si="8"/>
         <v>6.1742678832366833</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="36">
         <f t="shared" si="9"/>
         <v>1.7590103028724435E-2</v>
       </c>
@@ -47000,40 +48689,40 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="46">
+      <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="36">
         <v>72.685416666666669</v>
       </c>
       <c r="C35" s="20">
         <v>398.9</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="36">
         <f t="shared" si="1"/>
         <v>548.80334776003895</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="36">
         <f t="shared" si="2"/>
         <v>6.3077401765389132</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="36">
         <f t="shared" si="5"/>
         <v>2.9354247139807832E-2</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="36">
         <v>360</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="36">
         <f t="shared" si="7"/>
         <v>495.28504686290808</v>
       </c>
-      <c r="I35" s="44">
+      <c r="I35" s="36">
         <f t="shared" si="8"/>
         <v>6.2051334490777084</v>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="36">
         <f t="shared" si="9"/>
         <v>3.0865565841025067E-2</v>
       </c>
@@ -47054,40 +48743,40 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="46">
+      <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="36">
         <v>73.581999999999994</v>
       </c>
       <c r="C36" s="20">
         <v>417.2</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="36">
         <f t="shared" si="1"/>
         <v>566.98649126144983</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="36">
         <f t="shared" si="2"/>
         <v>6.3403354785082193</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="36">
         <f t="shared" si="5"/>
         <v>3.2595301969306156E-2</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="36">
         <v>377.4</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="36">
         <f t="shared" si="7"/>
         <v>512.89717593976786</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="36">
         <f t="shared" si="8"/>
         <v>6.2400753883160514</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="36">
         <f t="shared" si="9"/>
         <v>3.4941939238342989E-2</v>
       </c>
@@ -47108,40 +48797,40 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="46">
+      <c r="A37" s="38">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="36">
         <v>74.508333333333326</v>
       </c>
       <c r="C37" s="20">
         <v>431.8</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="36">
         <f t="shared" si="1"/>
         <v>579.53249077284431</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="36">
         <f t="shared" si="2"/>
         <v>6.3622217281155269</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="36">
         <f t="shared" si="5"/>
         <v>2.1886249607307562E-2</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="36">
         <v>392.2</v>
       </c>
-      <c r="H37" s="44">
+      <c r="H37" s="36">
         <f t="shared" si="7"/>
         <v>526.38407336986927</v>
       </c>
-      <c r="I37" s="44">
+      <c r="I37" s="36">
         <f t="shared" si="8"/>
         <v>6.2660311237970658</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="36">
         <f t="shared" si="9"/>
         <v>2.5955735481014486E-2</v>
       </c>
@@ -47162,40 +48851,40 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="46">
+      <c r="A38" s="38">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="36">
         <v>75.522833333333338</v>
       </c>
       <c r="C38" s="20">
         <v>446.6</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="36">
         <f t="shared" si="1"/>
         <v>591.34433957059343</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="36">
         <f t="shared" si="2"/>
         <v>6.3823984866053056</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="36">
         <f t="shared" si="5"/>
         <v>2.0176758489778734E-2</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="36">
         <v>405.2</v>
       </c>
-      <c r="H38" s="44">
+      <c r="H38" s="36">
         <f t="shared" si="7"/>
         <v>536.52648095388361</v>
       </c>
-      <c r="I38" s="44">
+      <c r="I38" s="36">
         <f t="shared" si="8"/>
         <v>6.2851159195737765</v>
       </c>
-      <c r="J38" s="44">
+      <c r="J38" s="36">
         <f t="shared" si="9"/>
         <v>1.9084795776710628E-2</v>
       </c>
@@ -47216,40 +48905,40 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="46">
+      <c r="A39" s="38">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="36">
         <v>76.537500000000009</v>
       </c>
       <c r="C39" s="20">
         <v>464.8</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="36">
         <f t="shared" si="1"/>
         <v>607.2840111056671</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="36">
         <f t="shared" si="2"/>
         <v>6.4089965747217201</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="36">
         <f t="shared" si="5"/>
         <v>2.6598088116414509E-2</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="36">
         <v>424.2</v>
       </c>
-      <c r="H39" s="44">
+      <c r="H39" s="36">
         <f t="shared" si="7"/>
         <v>554.23811856932866</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="36">
         <f t="shared" si="8"/>
         <v>6.3175944113146008</v>
       </c>
-      <c r="J39" s="44">
+      <c r="J39" s="36">
         <f t="shared" si="9"/>
         <v>3.2478491740824289E-2</v>
       </c>
@@ -47270,40 +48959,40 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="46">
+      <c r="A40" s="38">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="36">
         <v>78.111833333333323</v>
       </c>
       <c r="C40" s="20">
         <v>472.9</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="36">
         <f t="shared" si="1"/>
         <v>605.41403244493472</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="36">
         <f t="shared" si="2"/>
         <v>6.4059125751180277</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="36">
         <f t="shared" si="5"/>
         <v>-3.0839996036924333E-3</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="36">
         <v>431.7</v>
       </c>
-      <c r="H40" s="44">
+      <c r="H40" s="36">
         <f t="shared" si="7"/>
         <v>552.66914317292947</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="36">
         <f t="shared" si="8"/>
         <v>6.3147595280296294</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="36">
         <f t="shared" si="9"/>
         <v>-2.8348832849713901E-3</v>
       </c>
@@ -47324,40 +49013,40 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
+      <c r="A41" s="38">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="36">
         <v>79.930833333333339</v>
       </c>
       <c r="C41" s="20">
         <v>489</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="36">
         <f t="shared" si="1"/>
         <v>611.77893386990831</v>
       </c>
-      <c r="E41" s="44">
+      <c r="E41" s="36">
         <f t="shared" si="2"/>
         <v>6.4163709980901515</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41" s="36">
         <f t="shared" si="5"/>
         <v>1.0458422972123849E-2</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="36">
         <v>447.9</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="36">
         <f t="shared" si="7"/>
         <v>560.35947746489148</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="36">
         <f t="shared" si="8"/>
         <v>6.3285785018285337</v>
       </c>
-      <c r="J41" s="44">
+      <c r="J41" s="36">
         <f t="shared" si="9"/>
         <v>1.3818973798904288E-2</v>
       </c>
@@ -47378,40 +49067,40 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="46">
+      <c r="A42" s="38">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="36">
         <v>81.787499999999994</v>
       </c>
       <c r="C42" s="20">
         <v>500</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="36">
         <f t="shared" si="1"/>
         <v>611.34036374751645</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="36">
         <f t="shared" si="2"/>
         <v>6.4156538642144261</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="36">
         <f t="shared" si="5"/>
         <v>-7.1713387572547305E-4</v>
       </c>
-      <c r="G42" s="44">
+      <c r="G42" s="36">
         <v>459.3</v>
       </c>
-      <c r="H42" s="44">
+      <c r="H42" s="36">
         <f t="shared" si="7"/>
         <v>561.57725813846866</v>
       </c>
-      <c r="I42" s="44">
+      <c r="I42" s="36">
         <f t="shared" si="8"/>
         <v>6.3307493571239819</v>
       </c>
-      <c r="J42" s="44">
+      <c r="J42" s="36">
         <f t="shared" si="9"/>
         <v>2.1708552954482485E-3</v>
       </c>
@@ -47432,40 +49121,40 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="46">
+      <c r="A43" s="38">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="36">
         <v>84.73341666666667</v>
       </c>
       <c r="C43" s="20">
         <v>524.20000000000005</v>
       </c>
-      <c r="D43" s="44">
+      <c r="D43" s="36">
         <f t="shared" si="1"/>
         <v>618.64612642985207</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="36">
         <f t="shared" si="2"/>
         <v>6.4275334233130605</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="36">
         <f t="shared" si="5"/>
         <v>1.1879559098634473E-2</v>
       </c>
-      <c r="G43" s="44">
+      <c r="G43" s="36">
         <v>479.1</v>
       </c>
-      <c r="H43" s="44">
+      <c r="H43" s="36">
         <f t="shared" si="7"/>
         <v>565.42037232457483</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="36">
         <f t="shared" si="8"/>
         <v>6.3375694763128312</v>
       </c>
-      <c r="J43" s="44">
+      <c r="J43" s="36">
         <f t="shared" si="9"/>
         <v>6.8201191888492829E-3</v>
       </c>
@@ -47486,40 +49175,40 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
+      <c r="A44" s="38">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="36">
         <v>86.56816666666667</v>
       </c>
       <c r="C44" s="20">
         <v>533.70000000000005</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="36">
         <f t="shared" si="1"/>
         <v>616.50837779091239</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="36">
         <f t="shared" si="2"/>
         <v>6.4240719117917289</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="36">
         <f t="shared" si="5"/>
         <v>-3.4615115213316727E-3</v>
       </c>
-      <c r="G44" s="44">
+      <c r="G44" s="36">
         <v>489.9</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="36">
         <f t="shared" si="7"/>
         <v>565.91241199132082</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="36">
         <f t="shared" si="8"/>
         <v>6.3384393170963582</v>
       </c>
-      <c r="J44" s="44">
+      <c r="J44" s="36">
         <f t="shared" si="9"/>
         <v>8.6984078352703165E-4</v>
       </c>
@@ -47540,40 +49229,40 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
+      <c r="A45" s="38">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="36">
         <v>89.423333333333346</v>
       </c>
       <c r="C45" s="20">
         <v>540.4</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="36">
         <f t="shared" si="1"/>
         <v>604.31654676258984</v>
       </c>
-      <c r="E45" s="44">
+      <c r="E45" s="36">
         <f t="shared" si="2"/>
         <v>6.4040981446947587</v>
       </c>
-      <c r="F45" s="44">
+      <c r="F45" s="36">
         <f t="shared" si="5"/>
         <v>-1.9973767096970185E-2</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="36">
         <v>500.3</v>
       </c>
-      <c r="H45" s="44">
+      <c r="H45" s="36">
         <f t="shared" si="7"/>
         <v>559.47366459164266</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="36">
         <f t="shared" si="8"/>
         <v>6.3269964571028741</v>
       </c>
-      <c r="J45" s="44">
+      <c r="J45" s="36">
         <f t="shared" si="9"/>
         <v>-1.1442859993484156E-2</v>
       </c>
@@ -47594,40 +49283,40 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="46">
+      <c r="A46" s="38">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="36">
         <v>93.41491666666667</v>
       </c>
       <c r="C46" s="20">
         <v>540.9</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="36">
         <f t="shared" si="1"/>
         <v>579.02958039356668</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="36">
         <f t="shared" si="2"/>
         <v>6.3613535650306456</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F46" s="36">
         <f t="shared" si="5"/>
         <v>-4.2744579664113047E-2</v>
       </c>
-      <c r="G46" s="44">
+      <c r="G46" s="36">
         <v>502.6</v>
       </c>
-      <c r="H46" s="44">
+      <c r="H46" s="36">
         <f t="shared" si="7"/>
         <v>538.02970439232138</v>
       </c>
-      <c r="I46" s="44">
+      <c r="I46" s="36">
         <f t="shared" si="8"/>
         <v>6.2879137712627564</v>
       </c>
-      <c r="J46" s="44">
+      <c r="J46" s="36">
         <f t="shared" si="9"/>
         <v>-3.9082685840117648E-2</v>
       </c>
@@ -47648,40 +49337,40 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="46">
+      <c r="A47" s="38">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="36">
         <v>96.056916666666638</v>
       </c>
       <c r="C47" s="20">
         <v>548.29999999999995</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="36">
         <f t="shared" si="1"/>
         <v>570.80741192504809</v>
       </c>
-      <c r="E47" s="44">
+      <c r="E47" s="36">
         <f t="shared" si="2"/>
         <v>6.3470518706708772</v>
       </c>
-      <c r="F47" s="44">
+      <c r="F47" s="36">
         <f t="shared" si="5"/>
         <v>-1.4301694359768469E-2</v>
       </c>
-      <c r="G47" s="44">
+      <c r="G47" s="36">
         <v>507.9</v>
       </c>
-      <c r="H47" s="44">
+      <c r="H47" s="36">
         <f t="shared" si="7"/>
         <v>528.7490142563048</v>
       </c>
-      <c r="I47" s="44">
+      <c r="I47" s="36">
         <f t="shared" si="8"/>
         <v>6.2705138660680735</v>
       </c>
-      <c r="J47" s="44">
+      <c r="J47" s="36">
         <f t="shared" si="9"/>
         <v>-1.739990519468293E-2</v>
       </c>
@@ -47702,40 +49391,40 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="46">
+      <c r="A48" s="38">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="36">
         <v>98.520583333333349</v>
       </c>
       <c r="C48" s="20">
         <v>558.6</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="36">
         <f t="shared" si="1"/>
         <v>566.98811669642635</v>
       </c>
-      <c r="E48" s="44">
+      <c r="E48" s="36">
         <f t="shared" si="2"/>
         <v>6.3403383453007649</v>
       </c>
-      <c r="F48" s="44">
+      <c r="F48" s="36">
         <f t="shared" si="5"/>
         <v>-6.7135253701122721E-3</v>
       </c>
-      <c r="G48" s="44">
+      <c r="G48" s="36">
         <v>517.6</v>
       </c>
-      <c r="H48" s="44">
+      <c r="H48" s="36">
         <f t="shared" si="7"/>
         <v>525.37244755114625</v>
       </c>
-      <c r="I48" s="44">
+      <c r="I48" s="36">
         <f t="shared" si="8"/>
         <v>6.2641074349763795</v>
       </c>
-      <c r="J48" s="44">
+      <c r="J48" s="36">
         <f t="shared" si="9"/>
         <v>-6.4064310916940315E-3</v>
       </c>
@@ -47756,40 +49445,40 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="46">
+      <c r="A49" s="38">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="36">
         <v>99.96</v>
       </c>
       <c r="C49" s="20">
         <v>561.20000000000005</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="36">
         <f t="shared" si="1"/>
         <v>561.42456982793124</v>
       </c>
-      <c r="E49" s="44">
+      <c r="E49" s="36">
         <f t="shared" si="2"/>
         <v>6.3304774282496457</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F49" s="36">
         <f t="shared" si="5"/>
         <v>-9.8609170511192445E-3</v>
       </c>
-      <c r="G49" s="44">
+      <c r="G49" s="36">
         <v>520.4</v>
       </c>
-      <c r="H49" s="44">
+      <c r="H49" s="36">
         <f t="shared" si="7"/>
         <v>520.60824329731895</v>
       </c>
-      <c r="I49" s="44">
+      <c r="I49" s="36">
         <f t="shared" si="8"/>
         <v>6.2549978266596904</v>
       </c>
-      <c r="J49" s="44">
+      <c r="J49" s="36">
         <f t="shared" si="9"/>
         <v>-9.1096083166890551E-3</v>
       </c>
@@ -47810,40 +49499,40 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="46">
+      <c r="A50" s="38">
         <f>A51-1</f>
         <v>2015</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="36">
         <v>100.00008333333334</v>
       </c>
       <c r="C50" s="20">
         <v>570</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="36">
         <f t="shared" si="1"/>
         <v>569.99952500039581</v>
       </c>
-      <c r="E50" s="44">
+      <c r="E50" s="36">
         <f t="shared" si="2"/>
         <v>6.3456355274956096</v>
       </c>
-      <c r="F50" s="44">
+      <c r="F50" s="36">
         <f t="shared" si="5"/>
         <v>1.5158099245963896E-2</v>
       </c>
-      <c r="G50" s="44">
+      <c r="G50" s="36">
         <v>528.5</v>
       </c>
-      <c r="H50" s="44">
+      <c r="H50" s="36">
         <f t="shared" si="7"/>
         <v>528.49955958370026</v>
       </c>
-      <c r="I50" s="44">
+      <c r="I50" s="36">
         <f t="shared" si="8"/>
         <v>6.2700419719773057</v>
       </c>
-      <c r="J50" s="44">
+      <c r="J50" s="36">
         <f t="shared" si="9"/>
         <v>1.5044145317615332E-2</v>
       </c>
@@ -47864,39 +49553,39 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="46">
+      <c r="A51" s="38">
         <v>2016</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B51" s="36">
         <v>100.65975</v>
       </c>
       <c r="C51" s="20">
         <v>580.4</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="36">
         <f t="shared" si="1"/>
         <v>576.59590849371273</v>
       </c>
-      <c r="E51" s="44">
+      <c r="E51" s="36">
         <f t="shared" si="2"/>
         <v>6.3571416892611801</v>
       </c>
-      <c r="F51" s="44">
+      <c r="F51" s="36">
         <f t="shared" si="5"/>
         <v>1.1506161765570511E-2</v>
       </c>
-      <c r="G51" s="44">
+      <c r="G51" s="36">
         <v>540.1</v>
       </c>
-      <c r="H51" s="44">
+      <c r="H51" s="36">
         <f t="shared" si="7"/>
         <v>536.56004510243667</v>
       </c>
-      <c r="I51" s="44">
+      <c r="I51" s="36">
         <f t="shared" si="8"/>
         <v>6.2851784758499933</v>
       </c>
-      <c r="J51" s="44">
+      <c r="J51" s="36">
         <f t="shared" si="9"/>
         <v>1.5136503872687612E-2</v>
       </c>
@@ -47920,37 +49609,37 @@
       <c r="A52">
         <v>2017</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="36">
         <f t="shared" ref="B52:B54" si="10">A52*(100/A$50)</f>
         <v>100.09925558312656</v>
       </c>
       <c r="C52">
         <v>594</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="36">
         <f t="shared" si="1"/>
         <v>593.41100644521566</v>
       </c>
-      <c r="E52" s="44">
+      <c r="E52" s="36">
         <f t="shared" si="2"/>
         <v>6.3858872557892168</v>
       </c>
-      <c r="F52" s="44">
+      <c r="F52" s="36">
         <f t="shared" si="5"/>
         <v>2.8745566528036726E-2</v>
       </c>
       <c r="G52">
         <v>552</v>
       </c>
-      <c r="H52" s="44">
+      <c r="H52" s="36">
         <f t="shared" si="7"/>
         <v>551.45265245413975</v>
       </c>
-      <c r="I52" s="44">
+      <c r="I52" s="36">
         <f t="shared" si="8"/>
         <v>6.3125559827036666</v>
       </c>
-      <c r="J52" s="44">
+      <c r="J52" s="36">
         <f t="shared" si="9"/>
         <v>2.7377506853673239E-2</v>
       </c>
@@ -47974,37 +49663,37 @@
       <c r="A53">
         <v>2018</v>
       </c>
-      <c r="B53" s="44">
+      <c r="B53" s="36">
         <f t="shared" si="10"/>
         <v>100.14888337468983</v>
       </c>
       <c r="C53">
         <v>611.1</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D53" s="36">
         <f t="shared" si="1"/>
         <v>610.19152626362734</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="36">
         <f t="shared" si="2"/>
         <v>6.4137728853680986</v>
       </c>
-      <c r="F53" s="44">
+      <c r="F53" s="36">
         <f t="shared" si="5"/>
         <v>2.7885629578881854E-2</v>
       </c>
       <c r="G53">
         <v>570.20000000000005</v>
       </c>
-      <c r="H53" s="44">
+      <c r="H53" s="36">
         <f t="shared" si="7"/>
         <v>569.3523290386521</v>
       </c>
-      <c r="I53" s="44">
+      <c r="I53" s="36">
         <f t="shared" si="8"/>
         <v>6.3444994499458005</v>
       </c>
-      <c r="J53" s="44">
+      <c r="J53" s="36">
         <f t="shared" si="9"/>
         <v>3.1943467242133927E-2</v>
       </c>
@@ -48025,40 +49714,40 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="46">
+      <c r="A54" s="38">
         <v>2019</v>
       </c>
-      <c r="B54" s="44">
+      <c r="B54" s="36">
         <f t="shared" si="10"/>
         <v>100.19851116625311</v>
       </c>
       <c r="C54">
         <v>632.29999999999995</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="36">
         <f t="shared" si="1"/>
         <v>631.04730064388298</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E54" s="36">
         <f t="shared" si="2"/>
         <v>6.447380821132513</v>
       </c>
-      <c r="F54" s="44">
+      <c r="F54" s="36">
         <f t="shared" si="5"/>
         <v>3.3607935764414343E-2</v>
       </c>
       <c r="G54">
         <v>587</v>
       </c>
-      <c r="H54" s="44">
+      <c r="H54" s="36">
         <f t="shared" si="7"/>
         <v>585.83704804358592</v>
       </c>
-      <c r="I54" s="44">
+      <c r="I54" s="36">
         <f t="shared" si="8"/>
         <v>6.373041675896042</v>
       </c>
-      <c r="J54" s="44">
+      <c r="J54" s="36">
         <f t="shared" si="9"/>
         <v>2.8542225950241473E-2</v>
       </c>

--- a/Economics/Dissertation/Dissertation Variables.xlsx
+++ b/Economics/Dissertation/Dissertation Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University Documents\Notes\PPE\Shared Notes\Economics\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF8001C-BDC5-4DF8-8F18-9BD37406960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43854E4-76C6-4DED-A247-EEE182EEE687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{C890B4EF-DBD0-4510-8DCC-74D1D3A33C16}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{C890B4EF-DBD0-4510-8DCC-74D1D3A33C16}"/>
   </bookViews>
   <sheets>
     <sheet name="25-49 Unemployment Quarterly" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Productivity" sheetId="8" r:id="rId6"/>
     <sheet name="Combined 1997" sheetId="6" r:id="rId7"/>
     <sheet name="Combined 1985" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId9"/>
+    <sheet name="1970 earnings" sheetId="13" r:id="rId9"/>
     <sheet name="Extracted 1985" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="452">
   <si>
     <t>Aged 25-34</t>
   </si>
@@ -1375,6 +1375,36 @@
   <si>
     <t>Real Average Compensation</t>
   </si>
+  <si>
+    <t>UnemploymentRestricted</t>
+  </si>
+  <si>
+    <t>UnemploymentUnrestricted</t>
+  </si>
+  <si>
+    <t>CPIH Inflation (%)</t>
+  </si>
+  <si>
+    <t>CPI Inflation</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>STD DEV</t>
+  </si>
+  <si>
+    <t>Real Consumption Earnings</t>
+  </si>
 </sst>
 </file>
 
@@ -1481,7 +1511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1584,6 +1614,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1602,7 +1641,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1662,6 +1701,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1671,21 +1719,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -2246,7 +2289,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Core Inflation'!$A$2:$A$24</c:f>
+              <c:f>'Core Inflation'!$A$3:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2324,78 +2367,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Core Inflation'!$B$2:$B$24</c:f>
+              <c:f>'Core Inflation'!$D$3:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>2.2000000000000002E-2</c:v>
+                  <c:v>3.0476190476190549E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8000000000000002E-2</c:v>
+                  <c:v>3.3149171270718265E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.5114873035066504E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>2.8772753963593689E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.7311021350259664E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.6458569807037329E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3999999999999999E-2</c:v>
+                  <c:v>2.813017098731397E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3999999999999999E-2</c:v>
+                  <c:v>2.8923406534547284E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>2.7604166666666725E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>3.0792529025744544E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>4.1142303969022263E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>3.8175046554934901E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02</c:v>
+                  <c:v>-5.14740290126356E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>4.4275491949910581E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>4.9319727891156441E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6000000000000002E-2</c:v>
+                  <c:v>3.0902348578491966E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>2.958816473410638E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>2.3046875000000022E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>9.6711798839458421E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.01</c:v>
+                  <c:v>1.7483846446218254E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6000000000000002E-2</c:v>
+                  <c:v>3.4495412844036615E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>3.2315340909090988E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>2.4930747922437633E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,7 +2534,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2951,6 +2994,658 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combined 1997'!$Q$2:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>32.046471656222145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.882335483002329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.616965908246151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.970037535504822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.509561950172738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.210489128471231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.221000873606606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.768288154241347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.261669380629066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.965214238627631</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.567302337429325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.314059019590729</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.593690924609419</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.250338904468542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.553588715554078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.3731087241921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.287666635355706</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.470857342842983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.721296841594523</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.951963308044036</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.534372842858325</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.792191790623704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.833739019786918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76C9-4591-80EE-75E56AC43371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combined 1997'!$R$2:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>27.921728527308783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.697078648808592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.27763806187783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.424782800339941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.779631973122026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.314847799127129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.192530128548952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.722082295980101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.150918802505885</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.711054855603614</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.186395952108541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.757124338226632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.731783316103737</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.478106083899767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.754787426564349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.583403155197118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.565775932567192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.792267517392638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.970733008394305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.131758155978375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.575194330654625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.761883979560906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.762274801555236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76C9-4591-80EE-75E56AC43371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combined 1997'!$S$2:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>28.970577758811409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.631647365987764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.167035286730883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.372585847560615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.94607353355082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.585243048544093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.510478236860749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.964037690160389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.463729248543409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.097619504238907</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.610180180065662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.574659468880071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.139400569397417</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.357155669469165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.312555388302222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.189192516293467</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.063499388700102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.195088329375523</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.422188170316012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.598689849523474</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.14089545897491</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.394857409280931</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.479454569656184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76C9-4591-80EE-75E56AC43371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combined 1997'!$T$2:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>24.845834629898043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.446390531794023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.827707440362563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.827331112395736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.216143556500104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.689601719199992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.482007491803095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.917831831899143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.352978670420228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.843460121214878</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.229273794744874</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.01772478751597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.277492960891731</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.584922848900394</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.513754099312479</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.399486947298488</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.341608685911584</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.51649850392517</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.671624337115787</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.778484697457813</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.181716946771218</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.36454959821814</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.407990351424498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-76C9-4591-80EE-75E56AC43371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1051805168"/>
+        <c:axId val="1051806128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1051805168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1051806128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1051806128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1051805168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3006,7 +3701,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4096,6 +4791,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6173,6 +6908,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6218,16 +7469,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6297,6 +7548,47 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A5E765-8F07-104B-2AB1-186E2B42F327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6657,7 +7949,7 @@
   <dimension ref="A1:Y348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="Z4" sqref="Z4:Z339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6666,86 +7958,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="42" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="42" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="44"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="41"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40" t="s">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="39" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40" t="s">
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40" t="s">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="41"/>
+      <c r="Y2" s="44"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -35545,11 +36837,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
@@ -35560,10 +36847,15 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Y339" formula="1"/>
+    <ignoredError sqref="A1:Y3 A5:Y339 A4:T4 V4:Y4" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -37142,7 +38434,7 @@
   <dimension ref="A1:Q348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37552,7 +38844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F7448B-5A41-4810-9AA1-4C6D4DF4B2A9}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B50"/>
     </sheetView>
   </sheetViews>
@@ -38052,210 +39344,384 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030733C1-37AA-47E8-9A2D-A03B5C8615F2}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <f>A3-1</f>
+        <v>1996</v>
+      </c>
+      <c r="C2">
+        <v>152.69999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1997</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>2.2000000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C3">
+        <v>157.5</v>
+      </c>
+      <c r="D3" s="1">
+        <f>(C3-C2)/C3</f>
+        <v>3.0476190476190549E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1998</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C4">
+        <v>162.9</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D26" si="0">(C4-C3)/C4</f>
+        <v>3.3149171270718265E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1999</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C5">
+        <v>165.4</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5114873035066504E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C6">
+        <v>170.3</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8772753963593689E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2001</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="C7">
+        <v>173.3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7311021350259664E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2002</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="C8">
+        <v>176.2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6458569807037329E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2003</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2004</v>
       </c>
       <c r="B9" s="3">
         <v>1.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>181.3</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.813017098731397E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>186.7</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8923406534547284E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2005</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="C11">
+        <v>192</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7604166666666725E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2006</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="C12">
+        <v>198.1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0792529025744544E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>2007</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="C13">
+        <v>206.6</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1142303969022263E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>2008</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="C14">
+        <v>214.8</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8175046554934901E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>2009</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="C15">
+        <v>213.7</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.14740290126356E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>2010</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="C16">
+        <v>223.6</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4275491949910581E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>2011</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="C17">
+        <v>235.2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9319727891156441E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>2012</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>2.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="C18">
+        <v>242.7</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0902348578491966E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>2013</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="C19">
+        <v>250.1</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.958816473410638E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>2014</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="C20">
+        <v>256</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3046875000000022E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>2015</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="C21">
+        <v>258.5</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6711798839458421E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>2016</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="C22">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7483846446218254E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>2017</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>2.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="C23">
+        <v>272.5</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4495412844036615E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>2018</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="C24">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2315340909090988E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>2019</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>288.8</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4930747922437633E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>348</v>
       </c>
+      <c r="D26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40323,10 +41789,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177ADEF-2DD5-41A7-9F36-5E1DD0187EE0}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E24"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40336,22 +41802,27 @@
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="18" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>345</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>3</v>
+        <v>442</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>347</v>
+        <v>444</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>350</v>
@@ -40404,8 +41875,14 @@
       <c r="T1" s="28" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1997</v>
       </c>
@@ -40466,8 +41943,14 @@
       <c r="T2" s="31">
         <v>24.845834629898043</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1.8544935805991401E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1998</v>
       </c>
@@ -40528,8 +42011,14 @@
       <c r="T3" s="31">
         <v>25.446390531794023</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1.544943820224731E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1999</v>
       </c>
@@ -40590,8 +42079,14 @@
       <c r="T4" s="31">
         <v>25.827707440362563</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1.2482662968099745E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -40652,8 +42147,14 @@
       <c r="T5" s="31">
         <v>26.827331112395736</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="1">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>8.253094910591589E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2001</v>
       </c>
@@ -40714,8 +42215,14 @@
       <c r="T6" s="31">
         <v>27.216143556500104</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1.2228260869565102E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2002</v>
       </c>
@@ -40776,8 +42283,14 @@
       <c r="T7" s="31">
         <v>27.689601719199992</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="1">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1.2080536912751754E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2003</v>
       </c>
@@ -40838,8 +42351,14 @@
       <c r="T8" s="31">
         <v>28.482007491803095</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.3245033112582781E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2004</v>
       </c>
@@ -40900,8 +42419,14 @@
       <c r="T9" s="31">
         <v>28.917831831899143</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1.3071895424836602E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2005</v>
       </c>
@@ -40962,8 +42487,14 @@
       <c r="T10" s="31">
         <v>29.352978670420228</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2.0486555697823233E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2006</v>
       </c>
@@ -41024,8 +42555,14 @@
       <c r="T11" s="31">
         <v>29.843460121214878</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="1">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2.2528160200250454E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2007</v>
       </c>
@@ -41086,8 +42623,14 @@
       <c r="T12" s="31">
         <v>30.229273794744874</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2.322738386308058E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2008</v>
       </c>
@@ -41148,8 +42691,14 @@
       <c r="T13" s="31">
         <v>30.01772478751597</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="V13" s="1">
+        <v>3.4238488783943394E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2009</v>
       </c>
@@ -41210,8 +42759,14 @@
       <c r="T14" s="31">
         <v>29.277492960891731</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="V14" s="1">
+        <v>2.1939953810623459E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2010</v>
       </c>
@@ -41272,8 +42827,14 @@
       <c r="T15" s="31">
         <v>29.584922848900394</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="V15" s="1">
+        <v>3.1319910514541513E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2011</v>
       </c>
@@ -41334,8 +42895,14 @@
       <c r="T16" s="31">
         <v>29.513754099312479</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="V16" s="1">
+        <v>4.2826552462526764E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2012</v>
       </c>
@@ -41396,8 +42963,14 @@
       <c r="T17" s="31">
         <v>29.399486947298488</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="V17" s="1">
+        <v>2.8095733610821943E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2013</v>
       </c>
@@ -41458,8 +43031,14 @@
       <c r="T18" s="31">
         <v>29.341608685911584</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2.4365482233502597E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2014</v>
       </c>
@@ -41520,8 +43099,14 @@
       <c r="T19" s="31">
         <v>29.51649850392517</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2015</v>
       </c>
@@ -41582,8 +43167,14 @@
       <c r="T20" s="31">
         <v>29.671624337115787</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="1">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2016</v>
       </c>
@@ -41644,8 +43235,14 @@
       <c r="T21" s="31">
         <v>29.778484697457813</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="V21" s="1">
+        <v>6.951340615690197E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2017</v>
       </c>
@@ -41706,8 +43303,14 @@
       <c r="T22" s="31">
         <v>30.181716946771218</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="1">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="V22" s="1">
+        <v>2.6112185686653799E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2018</v>
       </c>
@@ -41768,8 +43371,14 @@
       <c r="T23" s="31">
         <v>30.36454959821814</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="1">
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="V23" s="1">
+        <v>2.3607176581680829E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2019</v>
       </c>
@@ -41830,9 +43439,771 @@
       <c r="T24" s="31">
         <v>30.407990351424498</v>
       </c>
+      <c r="U24" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1.7625231910946119E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <f t="shared" ref="A25" si="0">AVERAGE(A2:A24)</f>
+        <v>2008</v>
+      </c>
+      <c r="B25" s="48">
+        <f t="shared" ref="B25" si="1">AVERAGE(B2:B24)</f>
+        <v>4.5580551046367455E-2</v>
+      </c>
+      <c r="C25" s="48">
+        <f t="shared" ref="C25:G25" si="2">AVERAGE(C2:C24)</f>
+        <v>2.0000000000000007E-2</v>
+      </c>
+      <c r="D25" s="48">
+        <f t="shared" si="2"/>
+        <v>0.5898695652173912</v>
+      </c>
+      <c r="E25" s="48">
+        <f t="shared" si="2"/>
+        <v>18.633740279593013</v>
+      </c>
+      <c r="F25" s="48">
+        <f t="shared" si="2"/>
+        <v>11.78108957886602</v>
+      </c>
+      <c r="G25" s="48">
+        <f t="shared" si="2"/>
+        <v>15.330542082670112</v>
+      </c>
+      <c r="H25" s="48">
+        <f>AVERAGE(H2:H24)</f>
+        <v>6.7233891500029399</v>
+      </c>
+      <c r="I25" s="48">
+        <f t="shared" ref="I25:O25" si="3">AVERAGE(I2:I24)</f>
+        <v>7.7447838208391655</v>
+      </c>
+      <c r="J25" s="48">
+        <f t="shared" si="3"/>
+        <v>8.9082037475045119</v>
+      </c>
+      <c r="K25" s="48">
+        <f t="shared" si="3"/>
+        <v>10.199218837059329</v>
+      </c>
+      <c r="L25" s="48">
+        <f t="shared" si="3"/>
+        <v>13.792888541173062</v>
+      </c>
+      <c r="M25" s="48">
+        <f t="shared" si="3"/>
+        <v>16.369033729808216</v>
+      </c>
+      <c r="N25" s="48">
+        <f t="shared" si="3"/>
+        <v>19.876247436232678</v>
+      </c>
+      <c r="O25" s="48">
+        <f t="shared" si="3"/>
+        <v>25.986507433943085</v>
+      </c>
+      <c r="P25" s="48">
+        <f t="shared" ref="P25" si="4">AVERAGE(P2:P24)</f>
+        <v>49126245098.598991</v>
+      </c>
+      <c r="Q25" s="48">
+        <f t="shared" ref="Q25" si="5">AVERAGE(Q2:Q24)</f>
+        <v>37.986791770246718</v>
+      </c>
+      <c r="R25" s="48">
+        <f t="shared" ref="R25" si="6">AVERAGE(R2:R24)</f>
+        <v>32.662773125714182</v>
+      </c>
+      <c r="S25" s="48">
+        <f t="shared" ref="S25" si="7">AVERAGE(S2:S24)</f>
+        <v>34.095080195183648</v>
+      </c>
+      <c r="T25" s="48">
+        <f t="shared" ref="T25" si="8">AVERAGE(T2:T24)</f>
+        <v>28.771061550651122</v>
+      </c>
+      <c r="U25" s="48">
+        <f t="shared" ref="U25" si="9">AVERAGE(U2:U24)</f>
+        <v>5.8130434782608695E-2</v>
+      </c>
+      <c r="V25" s="50">
+        <f t="shared" ref="V25" si="10">AVERAGE(V2:V24)</f>
+        <v>1.9290435399076138E-2</v>
+      </c>
+      <c r="W25" s="47" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <f t="shared" ref="A26:B26" si="11">MIN(A2:A24)</f>
+        <v>1997</v>
+      </c>
+      <c r="B26" s="20">
+        <f t="shared" si="11"/>
+        <v>2.8295255481123494E-2</v>
+      </c>
+      <c r="C26" s="20">
+        <f t="shared" ref="C26:G26" si="12">MIN(C2:C24)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="12"/>
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="12"/>
+        <v>14.653922967189729</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="12"/>
+        <v>10.085592011412269</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="12"/>
+        <v>12.696148359486449</v>
+      </c>
+      <c r="H26" s="20">
+        <f>MIN(H2:H24)</f>
+        <v>5.4350927246790306</v>
+      </c>
+      <c r="I26" s="20">
+        <f t="shared" ref="I26:N26" si="13">MIN(I2:I24)</f>
+        <v>6.5335235378031387</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="13"/>
+        <v>7.6176890156918686</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="13"/>
+        <v>8.7589158345221119</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="13"/>
+        <v>11.7546362339515</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" si="13"/>
+        <v>13.85164051355207</v>
+      </c>
+      <c r="N26" s="20">
+        <f t="shared" si="13"/>
+        <v>16.804564907275321</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" ref="O26:V26" si="14">MIN(O2:O24)</f>
+        <v>21.81169757489301</v>
+      </c>
+      <c r="P26" s="20">
+        <f t="shared" si="14"/>
+        <v>45656561734.421608</v>
+      </c>
+      <c r="Q26" s="20">
+        <f t="shared" si="14"/>
+        <v>32.046471656222145</v>
+      </c>
+      <c r="R26" s="20">
+        <f t="shared" si="14"/>
+        <v>27.921728527308783</v>
+      </c>
+      <c r="S26" s="20">
+        <f t="shared" si="14"/>
+        <v>28.970577758811409</v>
+      </c>
+      <c r="T26" s="20">
+        <f t="shared" si="14"/>
+        <v>24.845834629898043</v>
+      </c>
+      <c r="U26" s="20">
+        <f t="shared" si="14"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="V26" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <f t="shared" ref="A27:B27" si="15">MAX(A2:A24)</f>
+        <v>2019</v>
+      </c>
+      <c r="B27" s="20">
+        <f t="shared" si="15"/>
+        <v>6.3668677142935129E-2</v>
+      </c>
+      <c r="C27" s="20">
+        <f t="shared" ref="C27:G27" si="16">MAX(C2:C24)</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="16"/>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="16"/>
+        <v>20.763202933985333</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="16"/>
+        <v>12.725173210161662</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="16"/>
+        <v>16.616628175519633</v>
+      </c>
+      <c r="H27" s="20">
+        <f>MAX(H2:H24)</f>
+        <v>7.7458256029684591</v>
+      </c>
+      <c r="I27" s="20">
+        <f t="shared" ref="I27:N27" si="17">MAX(I2:I24)</f>
+        <v>8.5157699443413719</v>
+      </c>
+      <c r="J27" s="20">
+        <f t="shared" si="17"/>
+        <v>9.5842956120092389</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" si="17"/>
+        <v>10.981524249422632</v>
+      </c>
+      <c r="L27" s="20">
+        <f t="shared" si="17"/>
+        <v>14.953810623556581</v>
+      </c>
+      <c r="M27" s="20">
+        <f t="shared" si="17"/>
+        <v>17.736720554272516</v>
+      </c>
+      <c r="N27" s="20">
+        <f t="shared" si="17"/>
+        <v>21.628175519630485</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" ref="O27:V27" si="18">MAX(O2:O24)</f>
+        <v>28.314087759815241</v>
+      </c>
+      <c r="P27" s="20">
+        <f t="shared" si="18"/>
+        <v>54707725856.73584</v>
+      </c>
+      <c r="Q27" s="20">
+        <f t="shared" si="18"/>
+        <v>40.833739019786918</v>
+      </c>
+      <c r="R27" s="20">
+        <f t="shared" si="18"/>
+        <v>34.762274801555236</v>
+      </c>
+      <c r="S27" s="20">
+        <f t="shared" si="18"/>
+        <v>36.479454569656184</v>
+      </c>
+      <c r="T27" s="20">
+        <f t="shared" si="18"/>
+        <v>30.407990351424498</v>
+      </c>
+      <c r="U27" s="20">
+        <f t="shared" si="18"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="18"/>
+        <v>4.2826552462526764E-2</v>
+      </c>
+      <c r="W27" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <f t="shared" ref="A28:B28" si="19">_xlfn.QUARTILE.INC(A2:A24,2)</f>
+        <v>2008</v>
+      </c>
+      <c r="B28" s="20">
+        <f t="shared" si="19"/>
+        <v>4.1649204859084167E-2</v>
+      </c>
+      <c r="C28" s="20">
+        <f t="shared" ref="C28:G28" si="20">_xlfn.QUARTILE.INC(C2:C24,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="20"/>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="20"/>
+        <v>19.134955312810323</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="20"/>
+        <v>11.916488222698073</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="20"/>
+        <v>15.620655412115193</v>
+      </c>
+      <c r="H28" s="20">
+        <f>_xlfn.QUARTILE.INC(H2:H24,2)</f>
+        <v>6.7712418300653594</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" ref="I28:N28" si="21">_xlfn.QUARTILE.INC(I2:I24,2)</f>
+        <v>7.81</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="21"/>
+        <v>8.9933774834437088</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" si="21"/>
+        <v>10.304635761589404</v>
+      </c>
+      <c r="L28" s="20">
+        <f t="shared" si="21"/>
+        <v>14.004282655246252</v>
+      </c>
+      <c r="M28" s="20">
+        <f t="shared" si="21"/>
+        <v>16.644100580270795</v>
+      </c>
+      <c r="N28" s="20">
+        <f t="shared" si="21"/>
+        <v>20.125725338491293</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" ref="O28:V28" si="22">_xlfn.QUARTILE.INC(O2:O24,2)</f>
+        <v>26.295938104448744</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" si="22"/>
+        <v>48173831239.097626</v>
+      </c>
+      <c r="Q28" s="20">
+        <f t="shared" si="22"/>
+        <v>39.250338904468542</v>
+      </c>
+      <c r="R28" s="20">
+        <f t="shared" si="22"/>
+        <v>33.565775932567192</v>
+      </c>
+      <c r="S28" s="20">
+        <f t="shared" si="22"/>
+        <v>35.139400569397417</v>
+      </c>
+      <c r="T28" s="20">
+        <f t="shared" si="22"/>
+        <v>29.399486947298488</v>
+      </c>
+      <c r="U28" s="20">
+        <f t="shared" si="22"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8544935805991401E-2</v>
+      </c>
+      <c r="W28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ref="A29:B29" si="23">_xlfn.STDEV.S(A2:A24)</f>
+        <v>6.7823299831252681</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="23"/>
+        <v>1.0878221378514019E-2</v>
+      </c>
+      <c r="C29">
+        <f>_xlfn.STDEV.S(C2:C24)</f>
+        <v>7.6574384513597871E-3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:V29" si="24">_xlfn.STDEV.S(D2:D24)</f>
+        <v>1.3084704282711456E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="24"/>
+        <v>1.6405174250521353</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="24"/>
+        <v>0.71218459403227186</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="24"/>
+        <v>1.0501920921629997</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="24"/>
+        <v>0.59330912773213917</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="24"/>
+        <v>0.53964187654131113</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="24"/>
+        <v>0.55153733077146727</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="24"/>
+        <v>0.60620905036755035</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="24"/>
+        <v>0.85431167610393999</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="24"/>
+        <v>1.0412873095834894</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="24"/>
+        <v>1.2920601663176612</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="24"/>
+        <v>1.7760574326087757</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="24"/>
+        <v>2705866756.2096343</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="24"/>
+        <v>2.5613381200801988</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="24"/>
+        <v>1.9800931941145175</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="24"/>
+        <v>2.2217822941510597</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="24"/>
+        <v>1.6451728301818056</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="24"/>
+        <v>1.2800228505865511E-2</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="24"/>
+        <v>9.6084740362148511E-3</v>
+      </c>
+      <c r="W29" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E37" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="F37" t="s">
+        <v>447</v>
+      </c>
+      <c r="G37" t="s">
+        <v>448</v>
+      </c>
+      <c r="H37" t="s">
+        <v>449</v>
+      </c>
+      <c r="I37" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="38">
+        <v>2008</v>
+      </c>
+      <c r="F38" s="38">
+        <v>1997</v>
+      </c>
+      <c r="G38" s="38">
+        <v>2019</v>
+      </c>
+      <c r="H38" s="38">
+        <v>2008</v>
+      </c>
+      <c r="I38" s="20">
+        <v>6.7823299831252699</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E39" s="20">
+        <v>28.771061550651122</v>
+      </c>
+      <c r="F39" s="20">
+        <v>24.845834629898043</v>
+      </c>
+      <c r="G39" s="20">
+        <v>30.407990351424498</v>
+      </c>
+      <c r="H39" s="20">
+        <v>29.399486947298488</v>
+      </c>
+      <c r="I39" s="20">
+        <v>1.6451728301818056</v>
+      </c>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E40" s="20">
+        <v>32.662773125714182</v>
+      </c>
+      <c r="F40" s="20">
+        <v>27.921728527308783</v>
+      </c>
+      <c r="G40" s="20">
+        <v>34.762274801555236</v>
+      </c>
+      <c r="H40" s="20">
+        <v>33.565775932567192</v>
+      </c>
+      <c r="I40" s="20">
+        <v>1.9800931941145175</v>
+      </c>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" s="20">
+        <v>34.095080195183648</v>
+      </c>
+      <c r="F41" s="20">
+        <v>28.970577758811409</v>
+      </c>
+      <c r="G41" s="20">
+        <v>36.479454569656184</v>
+      </c>
+      <c r="H41" s="20">
+        <v>35.139400569397417</v>
+      </c>
+      <c r="I41" s="20">
+        <v>2.2217822941510597</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E42" s="20">
+        <v>37.986791770246718</v>
+      </c>
+      <c r="F42" s="20">
+        <v>32.046471656222145</v>
+      </c>
+      <c r="G42" s="20">
+        <v>40.833739019786918</v>
+      </c>
+      <c r="H42" s="20">
+        <v>39.250338904468542</v>
+      </c>
+      <c r="I42" s="20">
+        <v>2.5613381200801988</v>
+      </c>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4.5580551046367455E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2.8295255481123494E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>6.3668677142935129E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4.1649204859084167E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.0878221378514019E-2</v>
+      </c>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5.8130434782608695E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.2800228505865511E-2</v>
+      </c>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2.7257910299966381E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-5.14740290126356E-3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4.9319727891156441E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.8923406534547284E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.1850505006741547E-2</v>
+      </c>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.0000000000000007E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I46" s="1">
+        <v>7.6574384513597871E-3</v>
+      </c>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="49"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="49"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="2"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E53">
+        <v>49126245098.598991</v>
+      </c>
+      <c r="F53">
+        <v>45656561734.421608</v>
+      </c>
+      <c r="G53">
+        <v>54707725856.73584</v>
+      </c>
+      <c r="H53">
+        <v>48173831239.097626</v>
+      </c>
+      <c r="I53">
+        <v>2705866756.2096343</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41841,10 +44212,10 @@
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL1" sqref="AL1:AM37"/>
+      <selection pane="bottomRight" activeCell="AK15" sqref="AK15:AK37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47134,13 +49505,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AE5AE-4AFB-4168-9C68-297ACE576F1E}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6:N54"/>
+      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47155,7 +49526,7 @@
     <col min="8" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>345</v>
       </c>
@@ -47198,8 +49569,11 @@
       <c r="N1" s="37" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="37" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
         <f t="shared" ref="A2:A49" si="0">A3-1</f>
         <v>1967</v>
@@ -47215,7 +49589,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <f t="shared" si="0"/>
         <v>1968</v>
@@ -47231,7 +49605,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <f t="shared" si="0"/>
         <v>1969</v>
@@ -47247,7 +49621,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -47281,8 +49655,11 @@
         <f>LN(L5)</f>
         <v>5.0155679245027498</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>237.75297862245645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <f t="shared" si="0"/>
         <v>1971</v>
@@ -47323,8 +49700,11 @@
         <f>M6-M5</f>
         <v>3.8404005889324466E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>243.36394882071238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <f t="shared" si="0"/>
         <v>1972</v>
@@ -47365,8 +49745,11 @@
         <f t="shared" ref="N7:N54" si="6">M7-M6</f>
         <v>4.4315388106770826E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>255.69458607364336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>1973</v>
@@ -47407,8 +49790,11 @@
         <f t="shared" si="6"/>
         <v>1.7622118420673516E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>267.71928456579531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <f t="shared" si="0"/>
         <v>1974</v>
@@ -47449,8 +49835,11 @@
         <f t="shared" si="6"/>
         <v>3.056674270629145E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>275.1030110113374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>1975</v>
@@ -47491,8 +49880,11 @@
         <f t="shared" si="6"/>
         <v>0.11791791288011044</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>289.12504556945999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>1976</v>
@@ -47533,8 +49925,11 @@
         <f t="shared" si="6"/>
         <v>7.2389554869912942E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>291.23074195428217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>1977</v>
@@ -47575,8 +49970,11 @@
         <f t="shared" si="6"/>
         <v>-3.8392754119186634E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>278.6241962506798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>1978</v>
@@ -47617,8 +50015,11 @@
         <f t="shared" si="6"/>
         <v>2.7310243556891933E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>293.64306871854183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>1979</v>
@@ -47659,8 +50060,11 @@
         <f t="shared" si="6"/>
         <v>1.2215957653419096E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>307.76891550848978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -47701,8 +50105,11 @@
         <f t="shared" si="6"/>
         <v>7.3787382921580935E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>324.65798976295872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>1981</v>
@@ -47743,8 +50150,11 @@
         <f t="shared" si="6"/>
         <v>1.5320385487487265E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>330.38489084431427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>1982</v>
@@ -47785,8 +50195,11 @@
         <f t="shared" si="6"/>
         <v>1.2665790393898924E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>335.21890224483604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -47827,8 +50240,11 @@
         <f t="shared" si="6"/>
         <v>4.5117216108159219E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>347.14545473601078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -47877,8 +50293,11 @@
         <f t="shared" si="6"/>
         <v>3.6161685875577554E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>353.73954487412306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -47931,8 +50350,11 @@
         <f t="shared" si="6"/>
         <v>2.7662124093988716E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>367.17047570443407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -47985,8 +50407,11 @@
         <f t="shared" si="6"/>
         <v>3.6041821863850743E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>383.60118067722578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -48039,8 +50464,11 @@
         <f t="shared" si="6"/>
         <v>4.2619242699533544E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>401.11981582247893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -48093,8 +50521,11 @@
         <f t="shared" si="6"/>
         <v>5.2301021875266862E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>422.13816908064319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -48147,8 +50578,11 @@
         <f t="shared" si="6"/>
         <v>4.5947630422030095E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>439.57205490320291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -48201,8 +50635,11 @@
         <f t="shared" si="6"/>
         <v>3.5768671645169725E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>454.29664724504158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -48255,8 +50692,11 @@
         <f t="shared" si="6"/>
         <v>2.4987936030492541E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>455.34795297313912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -48309,8 +50749,11 @@
         <f t="shared" si="6"/>
         <v>3.4963604963751393E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>462.92268292554854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -48363,8 +50806,11 @@
         <f t="shared" si="6"/>
         <v>2.2839002500696814E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>465.06756204895549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -48417,8 +50863,11 @@
         <f t="shared" si="6"/>
         <v>1.5001524570702252E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>473.23762941696413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -48471,8 +50920,11 @@
         <f t="shared" si="6"/>
         <v>7.2186516484453733E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>476.03951203234755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -48525,8 +50977,11 @@
         <f t="shared" si="6"/>
         <v>2.1208684975996484E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>481.75239242003494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>1997</v>
@@ -48579,8 +51034,11 @@
         <f t="shared" si="6"/>
         <v>5.1958686468461579E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>494.00134614768268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>1998</v>
@@ -48633,8 +51091,11 @@
         <f t="shared" si="6"/>
         <v>2.5413143868219024E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>511.74168361374831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>1999</v>
@@ -48687,8 +51148,11 @@
         <f t="shared" si="6"/>
         <v>2.9525340930129929E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>528.13898566639409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -48741,8 +51205,11 @@
         <f t="shared" si="6"/>
         <v>2.4711843107047216E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>546.013320175898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>2001</v>
@@ -48795,8 +51262,11 @@
         <f t="shared" si="6"/>
         <v>4.1472942993095785E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>567.09230569528984</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -48849,8 +51319,11 @@
         <f t="shared" si="6"/>
         <v>3.6973885116742267E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>577.78770364126513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -48903,8 +51376,11 @@
         <f t="shared" si="6"/>
         <v>2.3791489545364364E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>588.36084908763246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -48957,8 +51433,11 @@
         <f t="shared" si="6"/>
         <v>3.5997942769499858E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>605.86179922300039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -49011,8 +51490,11 @@
         <f t="shared" si="6"/>
         <v>8.5477323991973719E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>621.37398692426132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -49065,8 +51547,11 @@
         <f t="shared" si="6"/>
         <v>1.3923398338766546E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>635.75838507167157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -49119,8 +51604,11 @@
         <f t="shared" si="6"/>
         <v>1.6034874606809524E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>651.62213164024047</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -49173,8 +51661,11 @@
         <f t="shared" si="6"/>
         <v>8.1425041284468591E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>651.32945038813966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -49227,8 +51718,11 @@
         <f t="shared" si="6"/>
         <v>1.0258525714325728E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>637.04393119833094</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -49281,8 +51775,11 @@
         <f t="shared" si="6"/>
         <v>-1.7417786541882307E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>630.90784325263655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -49335,8 +51832,11 @@
         <f t="shared" si="6"/>
         <v>-3.0343390623601252E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>618.10358785592291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -49389,8 +51889,11 @@
         <f t="shared" si="6"/>
         <v>-1.984512176878539E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>609.34019772746024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -49443,8 +51946,11 @@
         <f t="shared" si="6"/>
         <v>-2.8764707515591681E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>601.07718399937687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -49497,8 +52003,11 @@
         <f t="shared" si="6"/>
         <v>-8.6458557238096034E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>599.71241991035083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <f>A51-1</f>
         <v>2015</v>
@@ -49551,8 +52060,11 @@
         <f t="shared" si="6"/>
         <v>1.760986509865603E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>614.04759720130983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>2016</v>
       </c>
@@ -49605,7 +52117,7 @@
         <v>1.4867908511869032E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2017</v>
       </c>
@@ -49659,7 +52171,7 @@
         <v>3.165524382796292E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -49713,7 +52225,7 @@
         <v>3.0625939075411779E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>2019</v>
       </c>
